--- a/MemoryMap/NI.xlsx
+++ b/MemoryMap/NI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -30,7 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -208,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -220,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -297,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -309,7 +309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -386,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -398,7 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -475,7 +475,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -487,7 +487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -564,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -576,14 +576,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q116" authorId="0">
+    <comment ref="Q124" authorId="0">
       <text>
         <r>
           <rPr>
@@ -599,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q117" authorId="0">
+    <comment ref="Q125" authorId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q118" authorId="0">
+    <comment ref="Q126" authorId="0">
       <text>
         <r>
           <rPr>
@@ -630,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q119" authorId="0">
+    <comment ref="Q127" authorId="0">
       <text>
         <r>
           <rPr>
@@ -645,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S130" authorId="0">
+    <comment ref="S138" authorId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -665,14 +665,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q133" authorId="0">
+    <comment ref="Q141" authorId="0">
       <text>
         <r>
           <rPr>
@@ -688,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q134" authorId="0">
+    <comment ref="Q142" authorId="0">
       <text>
         <r>
           <rPr>
@@ -703,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q135" authorId="0">
+    <comment ref="Q143" authorId="0">
       <text>
         <r>
           <rPr>
@@ -719,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q136" authorId="0">
+    <comment ref="Q144" authorId="0">
       <text>
         <r>
           <rPr>
@@ -734,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S147" authorId="0">
+    <comment ref="S155" authorId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +742,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -754,14 +754,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q151" authorId="0">
+    <comment ref="Q159" authorId="0">
       <text>
         <r>
           <rPr>
@@ -777,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q152" authorId="0">
+    <comment ref="Q160" authorId="0">
       <text>
         <r>
           <rPr>
@@ -792,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q153" authorId="0">
+    <comment ref="Q161" authorId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q154" authorId="0">
+    <comment ref="Q162" authorId="0">
       <text>
         <r>
           <rPr>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="177">
   <si>
     <t>Device name</t>
   </si>
@@ -1329,13 +1329,43 @@
   </si>
   <si>
     <t>m4123</t>
+  </si>
+  <si>
+    <t>7 word</t>
+  </si>
+  <si>
+    <t>D8130</t>
+  </si>
+  <si>
+    <t>D8131</t>
+  </si>
+  <si>
+    <t>D8132</t>
+  </si>
+  <si>
+    <t>D8133</t>
+  </si>
+  <si>
+    <t>D8134</t>
+  </si>
+  <si>
+    <t>D8135</t>
+  </si>
+  <si>
+    <t>D8136</t>
+  </si>
+  <si>
+    <t>Customer part number</t>
+  </si>
+  <si>
+    <t>D8137</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1371,13 +1401,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1539,9 +1563,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1561,9 +1585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1573,35 +1594,56 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2548,13 +2590,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>123</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2599,13 +2641,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>116</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2650,13 +2692,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2701,13 +2743,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>132</xdr:row>
+      <xdr:row>140</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2752,13 +2794,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>133</xdr:row>
+      <xdr:row>141</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2803,13 +2845,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>134</xdr:row>
+      <xdr:row>142</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2854,13 +2896,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2905,13 +2947,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2956,13 +2998,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3058,13 +3100,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>161</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3364,13 +3406,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>118</xdr:row>
+      <xdr:row>126</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3415,13 +3457,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>135</xdr:row>
+      <xdr:row>143</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3750,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X154"/>
+  <dimension ref="A2:X162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="S96" sqref="S96"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W101" sqref="W101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3861,10 +3903,10 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="10" t="s">
+      <c r="S4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3888,8 +3930,8 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="10">
+      <c r="R5" s="23"/>
+      <c r="S5" s="9">
         <v>23</v>
       </c>
     </row>
@@ -3913,8 +3955,8 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="10">
+      <c r="R6" s="23"/>
+      <c r="S6" s="9">
         <v>45</v>
       </c>
     </row>
@@ -3938,8 +3980,8 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="9"/>
-      <c r="S7" s="10">
+      <c r="R7" s="23"/>
+      <c r="S7" s="9">
         <v>6</v>
       </c>
     </row>
@@ -3963,7 +4005,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="9"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -3985,29 +4027,29 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="9"/>
+      <c r="R9" s="23"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="23"/>
       <c r="S10" t="s">
         <v>17</v>
       </c>
@@ -4016,27 +4058,27 @@
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="14" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="15" t="s">
+      <c r="T11" s="24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4044,85 +4086,85 @@
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="14" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="13" t="s">
         <v>22</v>
       </c>
       <c r="S12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="17"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="S13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="17"/>
+      <c r="T13" s="25"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="16"/>
       <c r="R14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="17"/>
+      <c r="T14" s="25"/>
       <c r="U14" t="s">
         <v>28</v>
       </c>
@@ -4131,29 +4173,29 @@
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="19"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="15"/>
+      <c r="Q15" s="16"/>
       <c r="R15" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="17"/>
+      <c r="T15" s="25"/>
       <c r="U15" t="s">
         <v>30</v>
       </c>
@@ -4177,14 +4219,14 @@
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
-      <c r="Q16" s="19"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="17"/>
+      <c r="T16" s="25"/>
       <c r="U16" t="s">
         <v>32</v>
       </c>
@@ -4208,12 +4250,12 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
-      <c r="Q17" s="19"/>
+      <c r="Q17" s="16"/>
       <c r="R17" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="20"/>
+      <c r="T17" s="26"/>
       <c r="U17" t="s">
         <v>34</v>
       </c>
@@ -4294,13 +4336,13 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="9" t="s">
+      <c r="R21" s="23" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="21" t="s">
+      <c r="T21" s="27" t="s">
         <v>36</v>
       </c>
     </row>
@@ -4324,11 +4366,11 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="21"/>
+      <c r="T22" s="27"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -4350,9 +4392,9 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="21"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="27"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
@@ -4374,11 +4416,11 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="9"/>
+      <c r="R24" s="23"/>
       <c r="S24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="21"/>
+      <c r="T24" s="27"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
@@ -4400,11 +4442,11 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
+      <c r="R25" s="23"/>
       <c r="S25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="21"/>
+      <c r="T25" s="27"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
@@ -4426,11 +4468,11 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="9"/>
+      <c r="R26" s="23"/>
       <c r="S26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="21"/>
+      <c r="T26" s="27"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
@@ -4452,117 +4494,117 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="9"/>
+      <c r="R27" s="23"/>
       <c r="S27" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="21"/>
+      <c r="T27" s="27"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="14" t="s">
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="21"/>
+      <c r="T28" s="27"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
       <c r="R29" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="21"/>
+      <c r="T29" s="27"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-      <c r="Q30" s="16"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
       <c r="R30" s="6" t="s">
         <v>25</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="21"/>
+      <c r="T30" s="27"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="19"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="16"/>
       <c r="R31" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T31" s="21"/>
+      <c r="T31" s="27"/>
       <c r="U31" t="s">
         <v>28</v>
       </c>
@@ -4571,29 +4613,29 @@
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="19"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15"/>
+      <c r="K32" s="15"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" s="16"/>
       <c r="R32" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="21"/>
+      <c r="T32" s="27"/>
       <c r="U32" t="s">
         <v>30</v>
       </c>
@@ -4617,14 +4659,14 @@
       <c r="N33" s="6"/>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
-      <c r="Q33" s="19"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="21"/>
+      <c r="T33" s="27"/>
       <c r="U33" t="s">
         <v>32</v>
       </c>
@@ -4648,57 +4690,57 @@
       <c r="N34" s="6"/>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
-      <c r="Q34" s="19"/>
+      <c r="Q34" s="16"/>
       <c r="R34" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T34" s="21"/>
+      <c r="T34" s="27"/>
       <c r="U34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:21">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
     </row>
     <row r="36" spans="1:21">
-      <c r="A36" s="23"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
     </row>
     <row r="37" spans="1:21" ht="15.75">
       <c r="A37" s="3" t="s">
@@ -4776,11 +4818,11 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="9" t="s">
+      <c r="R38" s="23" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="6"/>
-      <c r="T38" s="24" t="s">
+      <c r="T38" s="28" t="s">
         <v>51</v>
       </c>
     </row>
@@ -4804,9 +4846,9 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-      <c r="R39" s="9"/>
+      <c r="R39" s="23"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="25"/>
+      <c r="T39" s="29"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
@@ -4828,9 +4870,9 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="25"/>
+      <c r="R40" s="23"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="29"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -4852,9 +4894,9 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="25"/>
+      <c r="R41" s="23"/>
+      <c r="S41" s="15"/>
+      <c r="T41" s="29"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
@@ -4876,9 +4918,9 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="25"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="15"/>
+      <c r="T42" s="29"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
@@ -4900,9 +4942,9 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="25"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="15"/>
+      <c r="T43" s="29"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -4924,121 +4966,121 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
-      <c r="R44" s="9"/>
+      <c r="R44" s="23"/>
       <c r="S44" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="25"/>
+      <c r="T44" s="29"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="14" t="s">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="23"/>
+      <c r="S45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="25"/>
+      <c r="T45" s="29"/>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="16"/>
-      <c r="I46" s="16"/>
-      <c r="J46" s="16"/>
-      <c r="K46" s="16"/>
-      <c r="L46" s="16"/>
-      <c r="M46" s="16"/>
-      <c r="N46" s="16"/>
-      <c r="O46" s="16"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="16"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
       <c r="R46" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="25"/>
+      <c r="T46" s="29"/>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="16"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="16"/>
-      <c r="L47" s="16"/>
-      <c r="M47" s="16"/>
-      <c r="N47" s="16"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="16"/>
-      <c r="Q47" s="16"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="14"/>
       <c r="R47" s="6" t="s">
         <v>25</v>
       </c>
       <c r="S47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T47" s="25"/>
+      <c r="T47" s="29"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="19"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="15"/>
+      <c r="M48" s="15"/>
+      <c r="N48" s="15"/>
+      <c r="O48" s="15"/>
+      <c r="P48" s="15"/>
+      <c r="Q48" s="16"/>
       <c r="R48" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T48" s="25"/>
+      <c r="T48" s="29"/>
       <c r="U48" t="s">
         <v>28</v>
       </c>
@@ -5047,29 +5089,29 @@
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="19"/>
+      <c r="B49" s="15"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="16"/>
       <c r="R49" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T49" s="25"/>
+      <c r="T49" s="29"/>
       <c r="U49" t="s">
         <v>30</v>
       </c>
@@ -5093,14 +5135,14 @@
       <c r="N50" s="6"/>
       <c r="O50" s="6"/>
       <c r="P50" s="6"/>
-      <c r="Q50" s="19"/>
+      <c r="Q50" s="16"/>
       <c r="R50" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T50" s="25"/>
+      <c r="T50" s="29"/>
       <c r="U50" t="s">
         <v>32</v>
       </c>
@@ -5124,14 +5166,14 @@
       <c r="N51" s="6"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
-      <c r="Q51" s="19"/>
+      <c r="Q51" s="16"/>
       <c r="R51" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="25"/>
+      <c r="T51" s="29"/>
       <c r="U51" t="s">
         <v>34</v>
       </c>
@@ -5161,41 +5203,41 @@
       <c r="H54" s="4">
         <v>9</v>
       </c>
-      <c r="I54" s="26">
+      <c r="I54" s="19">
         <v>8</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="19">
         <v>7</v>
       </c>
-      <c r="K54" s="26">
+      <c r="K54" s="19">
         <v>6</v>
       </c>
-      <c r="L54" s="26">
+      <c r="L54" s="19">
         <v>5</v>
       </c>
-      <c r="M54" s="26">
+      <c r="M54" s="19">
         <v>4</v>
       </c>
-      <c r="N54" s="26">
+      <c r="N54" s="19">
         <v>3</v>
       </c>
-      <c r="O54" s="26">
+      <c r="O54" s="19">
         <v>2</v>
       </c>
-      <c r="P54" s="26">
+      <c r="P54" s="19">
         <v>1</v>
       </c>
-      <c r="Q54" s="26">
+      <c r="Q54" s="19">
         <v>0</v>
       </c>
       <c r="R54" s="6" t="s">
         <v>7</v>
       </c>
       <c r="S54" s="6"/>
-      <c r="T54" s="21" t="s">
+      <c r="T54" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="W54" s="27" t="s">
+      <c r="W54" s="20" t="s">
         <v>66</v>
       </c>
       <c r="X54" s="6" t="s">
@@ -5222,12 +5264,12 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-      <c r="R55" s="9" t="s">
+      <c r="R55" s="23" t="s">
         <v>9</v>
       </c>
       <c r="S55" s="6"/>
-      <c r="T55" s="21"/>
-      <c r="W55" s="27">
+      <c r="T55" s="27"/>
+      <c r="W55" s="20">
         <v>2</v>
       </c>
       <c r="X55" s="6" t="s">
@@ -5254,10 +5296,10 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-      <c r="R56" s="9"/>
+      <c r="R56" s="23"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="21"/>
-      <c r="W56" s="27">
+      <c r="T56" s="27"/>
+      <c r="W56" s="20">
         <v>3</v>
       </c>
       <c r="X56" s="6" t="s">
@@ -5284,10 +5326,10 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-      <c r="R57" s="9"/>
+      <c r="R57" s="23"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="21"/>
-      <c r="W57" s="27">
+      <c r="T57" s="27"/>
+      <c r="W57" s="20">
         <v>4</v>
       </c>
       <c r="X57" s="6" t="s">
@@ -5314,10 +5356,10 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-      <c r="R58" s="9"/>
+      <c r="R58" s="23"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="21"/>
-      <c r="W58" s="27">
+      <c r="T58" s="27"/>
+      <c r="W58" s="20">
         <v>5</v>
       </c>
       <c r="X58" s="6" t="s">
@@ -5344,10 +5386,10 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-      <c r="R59" s="9"/>
+      <c r="R59" s="23"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="21"/>
-      <c r="W59" s="27">
+      <c r="T59" s="27"/>
+      <c r="W59" s="20">
         <v>6</v>
       </c>
       <c r="X59" s="6" t="s">
@@ -5374,10 +5416,10 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-      <c r="R60" s="9"/>
+      <c r="R60" s="23"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="21"/>
-      <c r="W60" s="27">
+      <c r="T60" s="27"/>
+      <c r="W60" s="20">
         <v>7</v>
       </c>
       <c r="X60" s="6" t="s">
@@ -5404,12 +5446,12 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="R61" s="9"/>
+      <c r="R61" s="23"/>
       <c r="S61" t="s">
         <v>17</v>
       </c>
-      <c r="T61" s="21"/>
-      <c r="W61" s="27">
+      <c r="T61" s="27"/>
+      <c r="W61" s="20">
         <v>8</v>
       </c>
       <c r="X61" s="6" t="s">
@@ -5420,28 +5462,28 @@
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="9"/>
-      <c r="S62" s="14" t="s">
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="17"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T62" s="21"/>
-      <c r="W62" s="27">
+      <c r="T62" s="27"/>
+      <c r="W62" s="20">
         <v>9</v>
       </c>
       <c r="X62" s="6" t="s">
@@ -5452,30 +5494,30 @@
       <c r="A63" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="16"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="16"/>
-      <c r="N63" s="16"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="16"/>
-      <c r="Q63" s="16"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="14"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="14"/>
       <c r="R63" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T63" s="21"/>
-      <c r="W63" s="27">
+      <c r="T63" s="27"/>
+      <c r="W63" s="20">
         <v>10</v>
       </c>
       <c r="X63" s="6" t="s">
@@ -5486,30 +5528,30 @@
       <c r="A64" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="16"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="16"/>
-      <c r="K64" s="16"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="16"/>
-      <c r="N64" s="16"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="16"/>
-      <c r="Q64" s="16"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="14"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="14"/>
       <c r="R64" s="6" t="s">
         <v>25</v>
       </c>
       <c r="S64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="21"/>
-      <c r="W64" s="27">
+      <c r="T64" s="27"/>
+      <c r="W64" s="20">
         <v>11</v>
       </c>
       <c r="X64" s="6" t="s">
@@ -5520,33 +5562,33 @@
       <c r="A65" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="19"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="15"/>
+      <c r="M65" s="15"/>
+      <c r="N65" s="15"/>
+      <c r="O65" s="15"/>
+      <c r="P65" s="15"/>
+      <c r="Q65" s="16"/>
       <c r="R65" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T65" s="21"/>
+      <c r="T65" s="27"/>
       <c r="U65" t="s">
         <v>28</v>
       </c>
-      <c r="W65" s="27">
+      <c r="W65" s="20">
         <v>12</v>
       </c>
       <c r="X65" s="6" t="s">
@@ -5557,29 +5599,29 @@
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="19"/>
+      <c r="B66" s="15"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="15"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="15"/>
+      <c r="O66" s="15"/>
+      <c r="P66" s="15"/>
+      <c r="Q66" s="16"/>
       <c r="R66" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T66" s="21"/>
+      <c r="T66" s="27"/>
       <c r="U66" t="s">
         <v>30</v>
       </c>
@@ -5603,14 +5645,14 @@
       <c r="N67" s="6"/>
       <c r="O67" s="6"/>
       <c r="P67" s="6"/>
-      <c r="Q67" s="19"/>
+      <c r="Q67" s="16"/>
       <c r="R67" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T67" s="21"/>
+      <c r="T67" s="27"/>
       <c r="U67" t="s">
         <v>32</v>
       </c>
@@ -5634,14 +5676,14 @@
       <c r="N68" s="6"/>
       <c r="O68" s="6"/>
       <c r="P68" s="6"/>
-      <c r="Q68" s="19"/>
+      <c r="Q68" s="16"/>
       <c r="R68" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T68" s="21"/>
+      <c r="T68" s="27"/>
       <c r="U68" t="s">
         <v>34</v>
       </c>
@@ -5722,11 +5764,11 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="9" t="s">
+      <c r="R72" s="23" t="s">
         <v>9</v>
       </c>
       <c r="S72" s="6"/>
-      <c r="T72" s="15" t="s">
+      <c r="T72" s="24" t="s">
         <v>94</v>
       </c>
     </row>
@@ -5750,9 +5792,9 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="9"/>
+      <c r="R73" s="23"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="17"/>
+      <c r="T73" s="25"/>
     </row>
     <row r="74" spans="1:24" ht="18.75" customHeight="1">
       <c r="A74" s="6" t="s">
@@ -5774,9 +5816,9 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
-      <c r="R74" s="9"/>
+      <c r="R74" s="23"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="17"/>
+      <c r="T74" s="25"/>
     </row>
     <row r="75" spans="1:24" ht="18.75" customHeight="1">
       <c r="A75" s="6" t="s">
@@ -5798,9 +5840,9 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-      <c r="R75" s="9"/>
+      <c r="R75" s="23"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="17"/>
+      <c r="T75" s="25"/>
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
@@ -5822,9 +5864,9 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
-      <c r="R76" s="9"/>
+      <c r="R76" s="23"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="17"/>
+      <c r="T76" s="25"/>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
@@ -5846,9 +5888,9 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
-      <c r="R77" s="9"/>
+      <c r="R77" s="23"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="17"/>
+      <c r="T77" s="25"/>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
@@ -5870,119 +5912,119 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="9"/>
+      <c r="R78" s="23"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="17"/>
+      <c r="T78" s="25"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B79" s="22"/>
-      <c r="C79" s="22"/>
-      <c r="D79" s="22"/>
-      <c r="E79" s="22"/>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-      <c r="K79" s="22"/>
-      <c r="L79" s="22"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="22"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="22"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="9"/>
-      <c r="S79" s="14" t="s">
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="17"/>
+      <c r="L79" s="17"/>
+      <c r="M79" s="17"/>
+      <c r="N79" s="17"/>
+      <c r="O79" s="17"/>
+      <c r="P79" s="17"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="23"/>
+      <c r="S79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T79" s="17"/>
+      <c r="T79" s="25"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="16"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="16"/>
-      <c r="K80" s="16"/>
-      <c r="L80" s="16"/>
-      <c r="M80" s="16"/>
-      <c r="N80" s="16"/>
-      <c r="O80" s="16"/>
-      <c r="P80" s="16"/>
-      <c r="Q80" s="16"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+      <c r="I80" s="14"/>
+      <c r="J80" s="14"/>
+      <c r="K80" s="14"/>
+      <c r="L80" s="14"/>
+      <c r="M80" s="14"/>
+      <c r="N80" s="14"/>
+      <c r="O80" s="14"/>
+      <c r="P80" s="14"/>
+      <c r="Q80" s="14"/>
       <c r="R80" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S80" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T80" s="17"/>
+      <c r="T80" s="25"/>
     </row>
     <row r="81" spans="1:21" ht="15" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="16"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="16"/>
-      <c r="K81" s="16"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="16"/>
-      <c r="N81" s="16"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="16"/>
-      <c r="Q81" s="16"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
       <c r="R81" s="6" t="s">
         <v>25</v>
       </c>
       <c r="S81" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="17"/>
+      <c r="T81" s="25"/>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
-      <c r="I82" s="18"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="18"/>
-      <c r="L82" s="18"/>
-      <c r="M82" s="18"/>
-      <c r="N82" s="18"/>
-      <c r="O82" s="18"/>
-      <c r="P82" s="18"/>
-      <c r="Q82" s="19"/>
+      <c r="B82" s="15"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="15"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="15"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="16"/>
       <c r="R82" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T82" s="17"/>
+      <c r="T82" s="25"/>
       <c r="U82" t="s">
         <v>28</v>
       </c>
@@ -5991,29 +6033,29 @@
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="19"/>
+      <c r="B83" s="15"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15"/>
+      <c r="K83" s="15"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="15"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="15"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="16"/>
       <c r="R83" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="17"/>
+      <c r="T83" s="25"/>
       <c r="U83" t="s">
         <v>30</v>
       </c>
@@ -6037,14 +6079,14 @@
       <c r="N84" s="6"/>
       <c r="O84" s="6"/>
       <c r="P84" s="6"/>
-      <c r="Q84" s="19"/>
+      <c r="Q84" s="16"/>
       <c r="R84" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T84" s="17"/>
+      <c r="T84" s="25"/>
       <c r="U84" t="s">
         <v>32</v>
       </c>
@@ -6068,14 +6110,14 @@
       <c r="N85" s="6"/>
       <c r="O85" s="6"/>
       <c r="P85" s="6"/>
-      <c r="Q85" s="19"/>
+      <c r="Q85" s="16"/>
       <c r="R85" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="20"/>
+      <c r="T85" s="26"/>
       <c r="U85" t="s">
         <v>34</v>
       </c>
@@ -6156,11 +6198,11 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-      <c r="R89" s="9" t="s">
+      <c r="R89" s="23" t="s">
         <v>9</v>
       </c>
       <c r="S89" s="6"/>
-      <c r="T89" s="21" t="s">
+      <c r="T89" s="27" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6184,9 +6226,9 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="9"/>
+      <c r="R90" s="23"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="21"/>
+      <c r="T90" s="27"/>
     </row>
     <row r="91" spans="1:21" ht="15.75">
       <c r="A91" s="6" t="s">
@@ -6208,9 +6250,9 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
-      <c r="R91" s="9"/>
+      <c r="R91" s="23"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="21"/>
+      <c r="T91" s="27"/>
     </row>
     <row r="92" spans="1:21" ht="15.75">
       <c r="A92" s="6" t="s">
@@ -6232,9 +6274,9 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
-      <c r="R92" s="9"/>
+      <c r="R92" s="23"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="21"/>
+      <c r="T92" s="27"/>
     </row>
     <row r="93" spans="1:21" ht="15.75">
       <c r="A93" s="6" t="s">
@@ -6256,9 +6298,9 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
-      <c r="R93" s="9"/>
+      <c r="R93" s="23"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="21"/>
+      <c r="T93" s="27"/>
     </row>
     <row r="94" spans="1:21" ht="15.75">
       <c r="A94" s="6" t="s">
@@ -6280,9 +6322,9 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
-      <c r="R94" s="9"/>
+      <c r="R94" s="23"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="21"/>
+      <c r="T94" s="27"/>
     </row>
     <row r="95" spans="1:21" ht="15.75">
       <c r="A95" s="6" t="s">
@@ -6304,150 +6346,150 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-      <c r="R95" s="9"/>
+      <c r="R95" s="23"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="21"/>
+      <c r="T95" s="27"/>
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="22"/>
-      <c r="C96" s="22"/>
-      <c r="D96" s="22"/>
-      <c r="E96" s="22"/>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-      <c r="I96" s="22"/>
-      <c r="J96" s="22"/>
-      <c r="K96" s="22"/>
-      <c r="L96" s="22"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="22"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="22"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="9"/>
-      <c r="S96" s="14" t="s">
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="23"/>
+      <c r="S96" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T96" s="21"/>
+      <c r="T96" s="27"/>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="16"/>
-      <c r="I97" s="16"/>
-      <c r="J97" s="16"/>
-      <c r="K97" s="16"/>
-      <c r="L97" s="16"/>
-      <c r="M97" s="16"/>
-      <c r="N97" s="16"/>
-      <c r="O97" s="16"/>
-      <c r="P97" s="16"/>
-      <c r="Q97" s="16"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="14"/>
+      <c r="K97" s="14"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="14"/>
+      <c r="N97" s="14"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="14"/>
+      <c r="Q97" s="14"/>
       <c r="R97" s="6" t="s">
         <v>22</v>
       </c>
       <c r="S97" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T97" s="21"/>
+      <c r="T97" s="27"/>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="16"/>
-      <c r="J98" s="16"/>
-      <c r="K98" s="16"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="16"/>
-      <c r="N98" s="16"/>
-      <c r="O98" s="16"/>
-      <c r="P98" s="16"/>
-      <c r="Q98" s="16"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="14"/>
       <c r="R98" s="6" t="s">
         <v>25</v>
       </c>
       <c r="S98" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T98" s="21"/>
+      <c r="T98" s="27"/>
     </row>
     <row r="99" spans="1:21" ht="15" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="19"/>
+      <c r="B99" s="15"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="15"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="15"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="16"/>
       <c r="R99" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T99" s="21"/>
+      <c r="T99" s="27"/>
       <c r="U99" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:21" ht="15" customHeight="1">
-      <c r="A100" s="28" t="s">
+      <c r="A100" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B100" s="18"/>
-      <c r="C100" s="18"/>
-      <c r="D100" s="18"/>
-      <c r="E100" s="18"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="18"/>
-      <c r="I100" s="18"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="18"/>
-      <c r="L100" s="18"/>
-      <c r="M100" s="18"/>
-      <c r="N100" s="18"/>
-      <c r="O100" s="18"/>
-      <c r="P100" s="18"/>
-      <c r="Q100" s="19"/>
+      <c r="B100" s="15"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="16"/>
       <c r="R100" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T100" s="21"/>
+      <c r="T100" s="27"/>
       <c r="U100" t="s">
         <v>30</v>
       </c>
@@ -6471,20 +6513,20 @@
       <c r="N101" s="6"/>
       <c r="O101" s="6"/>
       <c r="P101" s="6"/>
-      <c r="Q101" s="19"/>
+      <c r="Q101" s="16"/>
       <c r="R101" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="21"/>
+      <c r="T101" s="27"/>
       <c r="U101" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:21" ht="16.5" customHeight="1">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="21" t="s">
         <v>122</v>
       </c>
       <c r="B102" s="6"/>
@@ -6502,14 +6544,14 @@
       <c r="N102" s="6"/>
       <c r="O102" s="6"/>
       <c r="P102" s="6"/>
-      <c r="Q102" s="19"/>
+      <c r="Q102" s="16"/>
       <c r="R102" s="6" t="s">
         <v>27</v>
       </c>
       <c r="S102" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T102" s="21"/>
+      <c r="T102" s="27"/>
       <c r="U102" t="s">
         <v>34</v>
       </c>
@@ -6590,11 +6632,11 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
-      <c r="R106" s="9" t="s">
+      <c r="R106" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S106" s="29"/>
-      <c r="T106" s="30" t="s">
+      <c r="S106" s="22"/>
+      <c r="T106" s="36" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6618,9 +6660,9 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
-      <c r="R107" s="9"/>
-      <c r="S107" s="29"/>
-      <c r="T107" s="30"/>
+      <c r="R107" s="23"/>
+      <c r="S107" s="22"/>
+      <c r="T107" s="36"/>
     </row>
     <row r="108" spans="1:21" ht="15.75">
       <c r="A108" s="6" t="s">
@@ -6642,9 +6684,9 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
-      <c r="R108" s="9"/>
-      <c r="S108" s="29"/>
-      <c r="T108" s="30"/>
+      <c r="R108" s="23"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="36"/>
     </row>
     <row r="109" spans="1:21" ht="15.75">
       <c r="A109" s="6" t="s">
@@ -6666,9 +6708,9 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
-      <c r="R109" s="9"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="30"/>
+      <c r="R109" s="23"/>
+      <c r="S109" s="22"/>
+      <c r="T109" s="36"/>
     </row>
     <row r="110" spans="1:21" ht="15.75">
       <c r="A110" s="6" t="s">
@@ -6690,9 +6732,9 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
-      <c r="R110" s="9"/>
-      <c r="S110" s="29"/>
-      <c r="T110" s="30"/>
+      <c r="R110" s="23"/>
+      <c r="S110" s="22"/>
+      <c r="T110" s="36"/>
     </row>
     <row r="111" spans="1:21" ht="15.75">
       <c r="A111" s="6" t="s">
@@ -6714,9 +6756,9 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
-      <c r="R111" s="9"/>
-      <c r="S111" s="29"/>
-      <c r="T111" s="30"/>
+      <c r="R111" s="23"/>
+      <c r="S111" s="22"/>
+      <c r="T111" s="36"/>
     </row>
     <row r="112" spans="1:21" ht="15.75">
       <c r="A112" s="6" t="s">
@@ -6738,1093 +6780,1295 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
-      <c r="R112" s="9"/>
-      <c r="S112" s="29"/>
-      <c r="T112" s="30"/>
+      <c r="R112" s="23"/>
+      <c r="S112" s="22"/>
+      <c r="T112" s="36"/>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B113" s="22"/>
-      <c r="C113" s="22"/>
-      <c r="D113" s="22"/>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="9"/>
-      <c r="S113" s="14" t="s">
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="17"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="17"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="23"/>
+      <c r="S113" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T113" s="30"/>
+      <c r="T113" s="36"/>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16"/>
-      <c r="D114" s="16"/>
-      <c r="E114" s="16"/>
-      <c r="F114" s="16"/>
-      <c r="G114" s="16"/>
-      <c r="H114" s="16"/>
-      <c r="I114" s="16"/>
-      <c r="J114" s="16"/>
-      <c r="K114" s="16"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="16"/>
-      <c r="N114" s="16"/>
-      <c r="O114" s="16"/>
-      <c r="P114" s="16"/>
-      <c r="Q114" s="16"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="14"/>
+      <c r="J114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="14"/>
       <c r="R114" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S114" s="29" t="s">
+      <c r="S114" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T114" s="30"/>
+      <c r="T114" s="36"/>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16"/>
-      <c r="D115" s="16"/>
-      <c r="E115" s="16"/>
-      <c r="F115" s="16"/>
-      <c r="G115" s="16"/>
-      <c r="H115" s="16"/>
-      <c r="I115" s="16"/>
-      <c r="J115" s="16"/>
-      <c r="K115" s="16"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="16"/>
-      <c r="N115" s="16"/>
-      <c r="O115" s="16"/>
-      <c r="P115" s="16"/>
-      <c r="Q115" s="16"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+      <c r="H115" s="14"/>
+      <c r="I115" s="14"/>
+      <c r="J115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="14"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="14"/>
       <c r="R115" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S115" s="29" t="s">
+      <c r="S115" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T115" s="30"/>
+      <c r="T115" s="36"/>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B116" s="18"/>
-      <c r="C116" s="18"/>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="18"/>
-      <c r="G116" s="18"/>
-      <c r="H116" s="18"/>
-      <c r="I116" s="18"/>
-      <c r="J116" s="18"/>
-      <c r="K116" s="18"/>
-      <c r="L116" s="18"/>
-      <c r="M116" s="18"/>
-      <c r="N116" s="18"/>
-      <c r="O116" s="18"/>
-      <c r="P116" s="18"/>
-      <c r="Q116" s="19"/>
-      <c r="R116" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S116" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="T116" s="30"/>
-      <c r="U116" t="s">
-        <v>28</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="S116" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="T116" s="36"/>
     </row>
     <row r="117" spans="1:21" ht="15" customHeight="1">
       <c r="A117" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B117" s="12"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="31"/>
+      <c r="S117" s="34"/>
+      <c r="T117" s="36"/>
+    </row>
+    <row r="118" spans="1:21" ht="15" customHeight="1">
+      <c r="A118" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="12"/>
+      <c r="F118" s="12"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="31"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="36"/>
+    </row>
+    <row r="119" spans="1:21" ht="15" customHeight="1">
+      <c r="A119" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="31"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="36"/>
+    </row>
+    <row r="120" spans="1:21" ht="15" customHeight="1">
+      <c r="A120" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="31"/>
+      <c r="S120" s="34"/>
+      <c r="T120" s="36"/>
+    </row>
+    <row r="121" spans="1:21" ht="15" customHeight="1">
+      <c r="A121" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="12"/>
+      <c r="F121" s="12"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="31"/>
+      <c r="S121" s="34"/>
+      <c r="T121" s="36"/>
+    </row>
+    <row r="122" spans="1:21" ht="15" customHeight="1">
+      <c r="A122" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="32"/>
+      <c r="S122" s="35"/>
+      <c r="T122" s="36"/>
+    </row>
+    <row r="123" spans="1:21" ht="15" customHeight="1">
+      <c r="A123" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S123" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T123" s="36"/>
+    </row>
+    <row r="124" spans="1:21" ht="15" customHeight="1">
+      <c r="A124" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B124" s="15"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="15"/>
+      <c r="K124" s="15"/>
+      <c r="L124" s="15"/>
+      <c r="M124" s="15"/>
+      <c r="N124" s="15"/>
+      <c r="O124" s="15"/>
+      <c r="P124" s="15"/>
+      <c r="Q124" s="16"/>
+      <c r="R124" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S124" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T124" s="36"/>
+      <c r="U124" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="15" customHeight="1">
+      <c r="A125" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B117" s="18"/>
-      <c r="C117" s="18"/>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="19"/>
-      <c r="R117" s="6" t="s">
+      <c r="B125" s="15"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="15"/>
+      <c r="K125" s="15"/>
+      <c r="L125" s="15"/>
+      <c r="M125" s="15"/>
+      <c r="N125" s="15"/>
+      <c r="O125" s="15"/>
+      <c r="P125" s="15"/>
+      <c r="Q125" s="16"/>
+      <c r="R125" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S117" s="29" t="s">
+      <c r="S125" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T117" s="30"/>
-      <c r="U117" t="s">
+      <c r="T125" s="36"/>
+      <c r="U125" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
-      <c r="A118" s="6" t="s">
+    <row r="126" spans="1:21">
+      <c r="A126" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="6"/>
-      <c r="F118" s="6"/>
-      <c r="G118" s="6"/>
-      <c r="H118" s="6"/>
-      <c r="I118" s="6"/>
-      <c r="J118" s="6"/>
-      <c r="K118" s="6"/>
-      <c r="L118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="6"/>
-      <c r="O118" s="6"/>
-      <c r="P118" s="6"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="6" t="s">
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="6"/>
+      <c r="L126" s="6"/>
+      <c r="M126" s="6"/>
+      <c r="N126" s="6"/>
+      <c r="O126" s="6"/>
+      <c r="P126" s="6"/>
+      <c r="Q126" s="16"/>
+      <c r="R126" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S118" s="29" t="s">
+      <c r="S126" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T118" s="30"/>
-      <c r="U118" t="s">
+      <c r="T126" s="36"/>
+      <c r="U126" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
-      <c r="A119" s="6" t="s">
+    <row r="127" spans="1:21">
+      <c r="A127" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-      <c r="F119" s="6"/>
-      <c r="G119" s="6"/>
-      <c r="H119" s="6"/>
-      <c r="I119" s="6"/>
-      <c r="J119" s="6"/>
-      <c r="K119" s="6"/>
-      <c r="L119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="6"/>
-      <c r="O119" s="6"/>
-      <c r="P119" s="6"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="6" t="s">
+      <c r="B127" s="6"/>
+      <c r="C127" s="6"/>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="6"/>
+      <c r="H127" s="6"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="6"/>
+      <c r="L127" s="6"/>
+      <c r="M127" s="6"/>
+      <c r="N127" s="6"/>
+      <c r="O127" s="6"/>
+      <c r="P127" s="6"/>
+      <c r="Q127" s="16"/>
+      <c r="R127" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S119" s="29" t="s">
+      <c r="S127" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T119" s="30"/>
-      <c r="U119" t="s">
+      <c r="T127" s="36"/>
+      <c r="U127" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="15.75">
-      <c r="A122" s="3" t="s">
+    <row r="130" spans="1:21" ht="15.75">
+      <c r="A130" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C130" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="E130" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="F130" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="G130" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H130" s="1">
         <v>9</v>
       </c>
-      <c r="I122" s="2">
+      <c r="I130" s="2">
         <v>8</v>
       </c>
-      <c r="J122" s="2">
+      <c r="J130" s="2">
         <v>7</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K130" s="2">
         <v>6</v>
       </c>
-      <c r="L122" s="2">
+      <c r="L130" s="2">
         <v>5</v>
       </c>
-      <c r="M122" s="2">
+      <c r="M130" s="2">
         <v>4</v>
       </c>
-      <c r="N122" s="2">
+      <c r="N130" s="2">
         <v>3</v>
       </c>
-      <c r="O122" s="2">
+      <c r="O130" s="2">
         <v>2</v>
       </c>
-      <c r="P122" s="2">
+      <c r="P130" s="2">
         <v>1</v>
       </c>
-      <c r="Q122" s="2">
+      <c r="Q130" s="2">
         <v>0</v>
       </c>
-      <c r="R122" t="s">
+      <c r="R130" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15.75">
-      <c r="A123" s="6" t="s">
+    <row r="131" spans="1:21" ht="15.75">
+      <c r="A131" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B123" s="7"/>
-      <c r="C123" s="7"/>
-      <c r="D123" s="7"/>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
-      <c r="I123" s="8"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="8"/>
-      <c r="L123" s="8"/>
-      <c r="M123" s="8"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="8"/>
-      <c r="P123" s="8"/>
-      <c r="Q123" s="8"/>
-      <c r="R123" s="9" t="s">
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c r="H131" s="7"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="8"/>
+      <c r="P131" s="8"/>
+      <c r="Q131" s="8"/>
+      <c r="R131" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S123" s="29"/>
-      <c r="T123" s="30" t="s">
+      <c r="S131" s="22"/>
+      <c r="T131" s="36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15.75">
-      <c r="A124" s="6" t="s">
+    <row r="132" spans="1:21" ht="15.75">
+      <c r="A132" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B124" s="7"/>
-      <c r="C124" s="7"/>
-      <c r="D124" s="7"/>
-      <c r="E124" s="7"/>
-      <c r="F124" s="7"/>
-      <c r="G124" s="7"/>
-      <c r="H124" s="7"/>
-      <c r="I124" s="8"/>
-      <c r="J124" s="8"/>
-      <c r="K124" s="8"/>
-      <c r="L124" s="8"/>
-      <c r="M124" s="8"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="8"/>
-      <c r="P124" s="8"/>
-      <c r="Q124" s="8"/>
-      <c r="R124" s="9"/>
-      <c r="S124" s="29"/>
-      <c r="T124" s="30"/>
-    </row>
-    <row r="125" spans="1:21" ht="15.75">
-      <c r="A125" s="6" t="s">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7"/>
+      <c r="I132" s="8"/>
+      <c r="J132" s="8"/>
+      <c r="K132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="8"/>
+      <c r="P132" s="8"/>
+      <c r="Q132" s="8"/>
+      <c r="R132" s="23"/>
+      <c r="S132" s="22"/>
+      <c r="T132" s="36"/>
+    </row>
+    <row r="133" spans="1:21" ht="15.75">
+      <c r="A133" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B125" s="7"/>
-      <c r="C125" s="7"/>
-      <c r="D125" s="7"/>
-      <c r="E125" s="7"/>
-      <c r="F125" s="7"/>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
-      <c r="I125" s="8"/>
-      <c r="J125" s="8"/>
-      <c r="K125" s="8"/>
-      <c r="L125" s="8"/>
-      <c r="M125" s="8"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="8"/>
-      <c r="P125" s="8"/>
-      <c r="Q125" s="8"/>
-      <c r="R125" s="9"/>
-      <c r="S125" s="29"/>
-      <c r="T125" s="30"/>
-    </row>
-    <row r="126" spans="1:21" ht="15.75">
-      <c r="A126" s="6" t="s">
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7"/>
+      <c r="I133" s="8"/>
+      <c r="J133" s="8"/>
+      <c r="K133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="8"/>
+      <c r="P133" s="8"/>
+      <c r="Q133" s="8"/>
+      <c r="R133" s="23"/>
+      <c r="S133" s="22"/>
+      <c r="T133" s="36"/>
+    </row>
+    <row r="134" spans="1:21" ht="15.75">
+      <c r="A134" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="D126" s="7"/>
-      <c r="E126" s="7"/>
-      <c r="F126" s="7"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
-      <c r="I126" s="8"/>
-      <c r="J126" s="8"/>
-      <c r="K126" s="8"/>
-      <c r="L126" s="8"/>
-      <c r="M126" s="8"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="8"/>
-      <c r="P126" s="8"/>
-      <c r="Q126" s="8"/>
-      <c r="R126" s="9"/>
-      <c r="S126" s="29"/>
-      <c r="T126" s="30"/>
-    </row>
-    <row r="127" spans="1:21" ht="15.75">
-      <c r="A127" s="6" t="s">
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="7"/>
+      <c r="I134" s="8"/>
+      <c r="J134" s="8"/>
+      <c r="K134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="8"/>
+      <c r="P134" s="8"/>
+      <c r="Q134" s="8"/>
+      <c r="R134" s="23"/>
+      <c r="S134" s="22"/>
+      <c r="T134" s="36"/>
+    </row>
+    <row r="135" spans="1:21" ht="15.75">
+      <c r="A135" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B127" s="7"/>
-      <c r="C127" s="7"/>
-      <c r="D127" s="7"/>
-      <c r="E127" s="7"/>
-      <c r="F127" s="7"/>
-      <c r="G127" s="7"/>
-      <c r="H127" s="7"/>
-      <c r="I127" s="8"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="8"/>
-      <c r="L127" s="8"/>
-      <c r="M127" s="8"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="8"/>
-      <c r="P127" s="8"/>
-      <c r="Q127" s="8"/>
-      <c r="R127" s="9"/>
-      <c r="S127" s="29"/>
-      <c r="T127" s="30"/>
-    </row>
-    <row r="128" spans="1:21" ht="15.75">
-      <c r="A128" s="6" t="s">
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="7"/>
+      <c r="I135" s="8"/>
+      <c r="J135" s="8"/>
+      <c r="K135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="8"/>
+      <c r="P135" s="8"/>
+      <c r="Q135" s="8"/>
+      <c r="R135" s="23"/>
+      <c r="S135" s="22"/>
+      <c r="T135" s="36"/>
+    </row>
+    <row r="136" spans="1:21" ht="15.75">
+      <c r="A136" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B128" s="7"/>
-      <c r="C128" s="7"/>
-      <c r="D128" s="7"/>
-      <c r="E128" s="7"/>
-      <c r="F128" s="7"/>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
-      <c r="I128" s="8"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="8"/>
-      <c r="L128" s="8"/>
-      <c r="M128" s="8"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="8"/>
-      <c r="P128" s="8"/>
-      <c r="Q128" s="8"/>
-      <c r="R128" s="9"/>
-      <c r="S128" s="29"/>
-      <c r="T128" s="30"/>
-    </row>
-    <row r="129" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A129" s="6" t="s">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7"/>
+      <c r="I136" s="8"/>
+      <c r="J136" s="8"/>
+      <c r="K136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="8"/>
+      <c r="P136" s="8"/>
+      <c r="Q136" s="8"/>
+      <c r="R136" s="23"/>
+      <c r="S136" s="22"/>
+      <c r="T136" s="36"/>
+    </row>
+    <row r="137" spans="1:21" ht="15.75" customHeight="1">
+      <c r="A137" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
-      <c r="I129" s="8"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="8"/>
-      <c r="L129" s="8"/>
-      <c r="M129" s="8"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="8"/>
-      <c r="P129" s="8"/>
-      <c r="Q129" s="8"/>
-      <c r="R129" s="9"/>
-      <c r="S129" s="29"/>
-      <c r="T129" s="30"/>
-    </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1">
-      <c r="A130" s="6" t="s">
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7"/>
+      <c r="I137" s="8"/>
+      <c r="J137" s="8"/>
+      <c r="K137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="8"/>
+      <c r="P137" s="8"/>
+      <c r="Q137" s="8"/>
+      <c r="R137" s="23"/>
+      <c r="S137" s="22"/>
+      <c r="T137" s="36"/>
+    </row>
+    <row r="138" spans="1:21" ht="15" customHeight="1">
+      <c r="A138" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B130" s="22"/>
-      <c r="C130" s="22"/>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="22"/>
-      <c r="P130" s="22"/>
-      <c r="Q130" s="22"/>
-      <c r="R130" s="9"/>
-      <c r="S130" s="14" t="s">
+      <c r="B138" s="17"/>
+      <c r="C138" s="17"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="17"/>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="17"/>
+      <c r="L138" s="17"/>
+      <c r="M138" s="17"/>
+      <c r="N138" s="17"/>
+      <c r="O138" s="17"/>
+      <c r="P138" s="17"/>
+      <c r="Q138" s="17"/>
+      <c r="R138" s="23"/>
+      <c r="S138" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T130" s="30"/>
-    </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1">
-      <c r="A131" s="6" t="s">
+      <c r="T138" s="36"/>
+    </row>
+    <row r="139" spans="1:21" ht="15" customHeight="1">
+      <c r="A139" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B131" s="16"/>
-      <c r="C131" s="16"/>
-      <c r="D131" s="16"/>
-      <c r="E131" s="16"/>
-      <c r="F131" s="16"/>
-      <c r="G131" s="16"/>
-      <c r="H131" s="16"/>
-      <c r="I131" s="16"/>
-      <c r="J131" s="16"/>
-      <c r="K131" s="16"/>
-      <c r="L131" s="16"/>
-      <c r="M131" s="16"/>
-      <c r="N131" s="16"/>
-      <c r="O131" s="16"/>
-      <c r="P131" s="16"/>
-      <c r="Q131" s="16"/>
-      <c r="R131" s="6" t="s">
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+      <c r="H139" s="14"/>
+      <c r="I139" s="14"/>
+      <c r="J139" s="14"/>
+      <c r="K139" s="14"/>
+      <c r="L139" s="14"/>
+      <c r="M139" s="14"/>
+      <c r="N139" s="14"/>
+      <c r="O139" s="14"/>
+      <c r="P139" s="14"/>
+      <c r="Q139" s="14"/>
+      <c r="R139" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S131" s="29" t="s">
+      <c r="S139" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T131" s="30"/>
-    </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1">
-      <c r="A132" s="6" t="s">
+      <c r="T139" s="36"/>
+    </row>
+    <row r="140" spans="1:21" ht="15" customHeight="1">
+      <c r="A140" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B132" s="16"/>
-      <c r="C132" s="16"/>
-      <c r="D132" s="16"/>
-      <c r="E132" s="16"/>
-      <c r="F132" s="16"/>
-      <c r="G132" s="16"/>
-      <c r="H132" s="16"/>
-      <c r="I132" s="16"/>
-      <c r="J132" s="16"/>
-      <c r="K132" s="16"/>
-      <c r="L132" s="16"/>
-      <c r="M132" s="16"/>
-      <c r="N132" s="16"/>
-      <c r="O132" s="16"/>
-      <c r="P132" s="16"/>
-      <c r="Q132" s="16"/>
-      <c r="R132" s="6" t="s">
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="14"/>
+      <c r="J140" s="14"/>
+      <c r="K140" s="14"/>
+      <c r="L140" s="14"/>
+      <c r="M140" s="14"/>
+      <c r="N140" s="14"/>
+      <c r="O140" s="14"/>
+      <c r="P140" s="14"/>
+      <c r="Q140" s="14"/>
+      <c r="R140" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S132" s="29" t="s">
+      <c r="S140" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T132" s="30"/>
-    </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1">
-      <c r="A133" s="6" t="s">
+      <c r="T140" s="36"/>
+    </row>
+    <row r="141" spans="1:21" ht="15" customHeight="1">
+      <c r="A141" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B133" s="6"/>
-      <c r="C133" s="6"/>
-      <c r="D133" s="6"/>
-      <c r="E133" s="6"/>
-      <c r="F133" s="6"/>
-      <c r="G133" s="6"/>
-      <c r="H133" s="6"/>
-      <c r="I133" s="6"/>
-      <c r="J133" s="6"/>
-      <c r="K133" s="6"/>
-      <c r="L133" s="6"/>
-      <c r="M133" s="6"/>
-      <c r="N133" s="6"/>
-      <c r="O133" s="6"/>
-      <c r="P133" s="6"/>
-      <c r="Q133" s="19"/>
-      <c r="R133" s="6" t="s">
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6"/>
+      <c r="N141" s="6"/>
+      <c r="O141" s="6"/>
+      <c r="P141" s="6"/>
+      <c r="Q141" s="16"/>
+      <c r="R141" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S133" s="29" t="s">
+      <c r="S141" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T133" s="30"/>
-      <c r="U133" t="s">
+      <c r="T141" s="36"/>
+      <c r="U141" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
-      <c r="A134" s="6" t="s">
+    <row r="142" spans="1:21">
+      <c r="A142" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B134" s="6"/>
-      <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
-      <c r="E134" s="6"/>
-      <c r="F134" s="6"/>
-      <c r="G134" s="6"/>
-      <c r="H134" s="6"/>
-      <c r="I134" s="6"/>
-      <c r="J134" s="6"/>
-      <c r="K134" s="6"/>
-      <c r="L134" s="6"/>
-      <c r="M134" s="6"/>
-      <c r="N134" s="6"/>
-      <c r="O134" s="6"/>
-      <c r="P134" s="6"/>
-      <c r="Q134" s="19"/>
-      <c r="R134" s="6" t="s">
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6"/>
+      <c r="N142" s="6"/>
+      <c r="O142" s="6"/>
+      <c r="P142" s="6"/>
+      <c r="Q142" s="16"/>
+      <c r="R142" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S134" s="29" t="s">
+      <c r="S142" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T134" s="30"/>
-      <c r="U134" t="s">
+      <c r="T142" s="36"/>
+      <c r="U142" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
-      <c r="A135" s="6" t="s">
+    <row r="143" spans="1:21">
+      <c r="A143" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B135" s="6"/>
-      <c r="C135" s="6"/>
-      <c r="D135" s="6"/>
-      <c r="E135" s="6"/>
-      <c r="F135" s="6"/>
-      <c r="G135" s="6"/>
-      <c r="H135" s="6"/>
-      <c r="I135" s="6"/>
-      <c r="J135" s="6"/>
-      <c r="K135" s="6"/>
-      <c r="L135" s="6"/>
-      <c r="M135" s="6"/>
-      <c r="N135" s="6"/>
-      <c r="O135" s="6"/>
-      <c r="P135" s="6"/>
-      <c r="Q135" s="19"/>
-      <c r="R135" s="6" t="s">
+      <c r="B143" s="6"/>
+      <c r="C143" s="6"/>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6"/>
+      <c r="N143" s="6"/>
+      <c r="O143" s="6"/>
+      <c r="P143" s="6"/>
+      <c r="Q143" s="16"/>
+      <c r="R143" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S135" s="29" t="s">
+      <c r="S143" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T135" s="30"/>
-      <c r="U135" t="s">
+      <c r="T143" s="36"/>
+      <c r="U143" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
-      <c r="Q136" s="19"/>
-      <c r="R136" s="6" t="s">
+    <row r="144" spans="1:21">
+      <c r="Q144" s="16"/>
+      <c r="R144" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S136" s="29" t="s">
+      <c r="S144" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U136" t="s">
+      <c r="U144" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.75">
-      <c r="A139" s="3" t="s">
+    <row r="147" spans="1:21" ht="15.75">
+      <c r="A147" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B147" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C139" s="1" t="s">
+      <c r="C147" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="1" t="s">
+      <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="1" t="s">
+      <c r="E147" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F139" s="1" t="s">
+      <c r="F147" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="G147" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H139" s="1">
+      <c r="H147" s="1">
         <v>9</v>
       </c>
-      <c r="I139" s="2">
+      <c r="I147" s="2">
         <v>8</v>
       </c>
-      <c r="J139" s="2">
+      <c r="J147" s="2">
         <v>7</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K147" s="2">
         <v>6</v>
       </c>
-      <c r="L139" s="2">
+      <c r="L147" s="2">
         <v>5</v>
       </c>
-      <c r="M139" s="2">
+      <c r="M147" s="2">
         <v>4</v>
       </c>
-      <c r="N139" s="2">
+      <c r="N147" s="2">
         <v>3</v>
       </c>
-      <c r="O139" s="2">
+      <c r="O147" s="2">
         <v>2</v>
       </c>
-      <c r="P139" s="2">
+      <c r="P147" s="2">
         <v>1</v>
       </c>
-      <c r="Q139" s="2">
+      <c r="Q147" s="2">
         <v>0</v>
       </c>
-      <c r="R139" t="s">
+      <c r="R147" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15.75">
-      <c r="A140" s="6" t="s">
+    <row r="148" spans="1:21" ht="15.75">
+      <c r="A148" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
-      <c r="F140" s="7"/>
-      <c r="G140" s="7"/>
-      <c r="H140" s="7"/>
-      <c r="I140" s="8"/>
-      <c r="J140" s="8"/>
-      <c r="K140" s="8"/>
-      <c r="L140" s="8"/>
-      <c r="M140" s="8"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="8"/>
-      <c r="P140" s="8"/>
-      <c r="Q140" s="8"/>
-      <c r="R140" s="9" t="s">
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="7"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="8"/>
+      <c r="P148" s="8"/>
+      <c r="Q148" s="8"/>
+      <c r="R148" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S140" s="29"/>
-      <c r="T140" s="31" t="s">
+      <c r="S148" s="22"/>
+      <c r="T148" s="37" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15.75">
-      <c r="A141" s="6" t="s">
+    <row r="149" spans="1:21" ht="15.75">
+      <c r="A149" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B141" s="7"/>
-      <c r="C141" s="7"/>
-      <c r="D141" s="7"/>
-      <c r="E141" s="7"/>
-      <c r="F141" s="7"/>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
-      <c r="I141" s="8"/>
-      <c r="J141" s="8"/>
-      <c r="K141" s="8"/>
-      <c r="L141" s="8"/>
-      <c r="M141" s="8"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="8"/>
-      <c r="P141" s="8"/>
-      <c r="Q141" s="8"/>
-      <c r="R141" s="9"/>
-      <c r="S141" s="29"/>
-      <c r="T141" s="32"/>
-    </row>
-    <row r="142" spans="1:21" ht="15.75">
-      <c r="A142" s="6" t="s">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="7"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="8"/>
+      <c r="P149" s="8"/>
+      <c r="Q149" s="8"/>
+      <c r="R149" s="23"/>
+      <c r="S149" s="22"/>
+      <c r="T149" s="38"/>
+    </row>
+    <row r="150" spans="1:21" ht="15.75">
+      <c r="A150" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B142" s="7"/>
-      <c r="C142" s="7"/>
-      <c r="D142" s="7"/>
-      <c r="E142" s="7"/>
-      <c r="F142" s="7"/>
-      <c r="G142" s="7"/>
-      <c r="H142" s="7"/>
-      <c r="I142" s="8"/>
-      <c r="J142" s="8"/>
-      <c r="K142" s="8"/>
-      <c r="L142" s="8"/>
-      <c r="M142" s="8"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="8"/>
-      <c r="P142" s="8"/>
-      <c r="Q142" s="8"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="29"/>
-      <c r="T142" s="32"/>
-    </row>
-    <row r="143" spans="1:21" ht="15.75">
-      <c r="A143" s="6" t="s">
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="7"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7"/>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="8"/>
+      <c r="P150" s="8"/>
+      <c r="Q150" s="8"/>
+      <c r="R150" s="23"/>
+      <c r="S150" s="22"/>
+      <c r="T150" s="38"/>
+    </row>
+    <row r="151" spans="1:21" ht="15.75">
+      <c r="A151" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-      <c r="F143" s="7"/>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
-      <c r="I143" s="8"/>
-      <c r="J143" s="8"/>
-      <c r="K143" s="8"/>
-      <c r="L143" s="8"/>
-      <c r="M143" s="8"/>
-      <c r="N143" s="8"/>
-      <c r="O143" s="8"/>
-      <c r="P143" s="8"/>
-      <c r="Q143" s="8"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="29"/>
-      <c r="T143" s="32"/>
-    </row>
-    <row r="144" spans="1:21" ht="15.75">
-      <c r="A144" s="6" t="s">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="8"/>
+      <c r="P151" s="8"/>
+      <c r="Q151" s="8"/>
+      <c r="R151" s="23"/>
+      <c r="S151" s="22"/>
+      <c r="T151" s="38"/>
+    </row>
+    <row r="152" spans="1:21" ht="15.75">
+      <c r="A152" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
-      <c r="F144" s="7"/>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-      <c r="M144" s="8"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="8"/>
-      <c r="P144" s="8"/>
-      <c r="Q144" s="8"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="29"/>
-      <c r="T144" s="32"/>
-    </row>
-    <row r="145" spans="1:21" ht="15.75">
-      <c r="A145" s="6" t="s">
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="7"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7"/>
+      <c r="H152" s="7"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="8"/>
+      <c r="P152" s="8"/>
+      <c r="Q152" s="8"/>
+      <c r="R152" s="23"/>
+      <c r="S152" s="22"/>
+      <c r="T152" s="38"/>
+    </row>
+    <row r="153" spans="1:21" ht="15.75">
+      <c r="A153" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B145" s="7"/>
-      <c r="C145" s="7"/>
-      <c r="D145" s="7"/>
-      <c r="E145" s="7"/>
-      <c r="F145" s="7"/>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
-      <c r="I145" s="8"/>
-      <c r="J145" s="8"/>
-      <c r="K145" s="8"/>
-      <c r="L145" s="8"/>
-      <c r="M145" s="8"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="8"/>
-      <c r="P145" s="8"/>
-      <c r="Q145" s="8"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="29"/>
-      <c r="T145" s="32"/>
-    </row>
-    <row r="146" spans="1:21" ht="15.75">
-      <c r="A146" s="6" t="s">
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="7"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7"/>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="8"/>
+      <c r="P153" s="8"/>
+      <c r="Q153" s="8"/>
+      <c r="R153" s="23"/>
+      <c r="S153" s="22"/>
+      <c r="T153" s="38"/>
+    </row>
+    <row r="154" spans="1:21" ht="15.75">
+      <c r="A154" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B146" s="7"/>
-      <c r="C146" s="7"/>
-      <c r="D146" s="7"/>
-      <c r="E146" s="7"/>
-      <c r="F146" s="7"/>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
-      <c r="I146" s="8"/>
-      <c r="J146" s="8"/>
-      <c r="K146" s="8"/>
-      <c r="L146" s="8"/>
-      <c r="M146" s="8"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="8"/>
-      <c r="P146" s="8"/>
-      <c r="Q146" s="8"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="29"/>
-      <c r="T146" s="32"/>
-    </row>
-    <row r="147" spans="1:21">
-      <c r="A147" s="6" t="s">
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7"/>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="8"/>
+      <c r="J154" s="8"/>
+      <c r="K154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="8"/>
+      <c r="P154" s="8"/>
+      <c r="Q154" s="8"/>
+      <c r="R154" s="23"/>
+      <c r="S154" s="22"/>
+      <c r="T154" s="38"/>
+    </row>
+    <row r="155" spans="1:21">
+      <c r="A155" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B147" s="22"/>
-      <c r="C147" s="22"/>
-      <c r="D147" s="22"/>
-      <c r="E147" s="22"/>
-      <c r="F147" s="22"/>
-      <c r="G147" s="22"/>
-      <c r="H147" s="22"/>
-      <c r="I147" s="22"/>
-      <c r="J147" s="22"/>
-      <c r="K147" s="22"/>
-      <c r="L147" s="22"/>
-      <c r="M147" s="22"/>
-      <c r="N147" s="22"/>
-      <c r="O147" s="22"/>
-      <c r="P147" s="22"/>
-      <c r="Q147" s="22"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="14" t="s">
+      <c r="B155" s="17"/>
+      <c r="C155" s="17"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="17"/>
+      <c r="L155" s="17"/>
+      <c r="M155" s="17"/>
+      <c r="N155" s="17"/>
+      <c r="O155" s="17"/>
+      <c r="P155" s="17"/>
+      <c r="Q155" s="17"/>
+      <c r="R155" s="23"/>
+      <c r="S155" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T147" s="32"/>
-    </row>
-    <row r="148" spans="1:21">
-      <c r="A148" s="6" t="s">
+      <c r="T155" s="38"/>
+    </row>
+    <row r="156" spans="1:21">
+      <c r="A156" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B148" s="16"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16"/>
-      <c r="E148" s="16"/>
-      <c r="F148" s="16"/>
-      <c r="G148" s="16"/>
-      <c r="H148" s="16"/>
-      <c r="I148" s="16"/>
-      <c r="J148" s="16"/>
-      <c r="K148" s="16"/>
-      <c r="L148" s="16"/>
-      <c r="M148" s="16"/>
-      <c r="N148" s="16"/>
-      <c r="O148" s="16"/>
-      <c r="P148" s="16"/>
-      <c r="Q148" s="16"/>
-      <c r="R148" s="6" t="s">
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+      <c r="H156" s="14"/>
+      <c r="I156" s="14"/>
+      <c r="J156" s="14"/>
+      <c r="K156" s="14"/>
+      <c r="L156" s="14"/>
+      <c r="M156" s="14"/>
+      <c r="N156" s="14"/>
+      <c r="O156" s="14"/>
+      <c r="P156" s="14"/>
+      <c r="Q156" s="14"/>
+      <c r="R156" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S148" s="29" t="s">
+      <c r="S156" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T148" s="32"/>
-    </row>
-    <row r="149" spans="1:21">
-      <c r="A149" s="6" t="s">
+      <c r="T156" s="38"/>
+    </row>
+    <row r="157" spans="1:21">
+      <c r="A157" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B149" s="16"/>
-      <c r="C149" s="16"/>
-      <c r="D149" s="16"/>
-      <c r="E149" s="16"/>
-      <c r="F149" s="16"/>
-      <c r="G149" s="16"/>
-      <c r="H149" s="16"/>
-      <c r="I149" s="16"/>
-      <c r="J149" s="16"/>
-      <c r="K149" s="16"/>
-      <c r="L149" s="16"/>
-      <c r="M149" s="16"/>
-      <c r="N149" s="16"/>
-      <c r="O149" s="16"/>
-      <c r="P149" s="16"/>
-      <c r="Q149" s="16"/>
-      <c r="R149" s="6" t="s">
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+      <c r="H157" s="14"/>
+      <c r="I157" s="14"/>
+      <c r="J157" s="14"/>
+      <c r="K157" s="14"/>
+      <c r="L157" s="14"/>
+      <c r="M157" s="14"/>
+      <c r="N157" s="14"/>
+      <c r="O157" s="14"/>
+      <c r="P157" s="14"/>
+      <c r="Q157" s="14"/>
+      <c r="R157" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S149" s="29" t="s">
+      <c r="S157" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T149" s="32"/>
-    </row>
-    <row r="150" spans="1:21">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
-      <c r="G150" s="6"/>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
-      <c r="L150" s="6"/>
-      <c r="M150" s="6"/>
-      <c r="N150" s="6"/>
-      <c r="O150" s="6"/>
-      <c r="P150" s="6"/>
-      <c r="Q150" s="6"/>
-      <c r="R150" s="6"/>
-      <c r="T150" s="32"/>
-    </row>
-    <row r="151" spans="1:21">
-      <c r="A151" s="6" t="s">
+      <c r="T157" s="38"/>
+    </row>
+    <row r="158" spans="1:21">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="6"/>
+      <c r="H158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="6"/>
+      <c r="M158" s="6"/>
+      <c r="N158" s="6"/>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6"/>
+      <c r="Q158" s="6"/>
+      <c r="R158" s="6"/>
+      <c r="T158" s="38"/>
+    </row>
+    <row r="159" spans="1:21">
+      <c r="A159" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
-      <c r="D151" s="6"/>
-      <c r="E151" s="6"/>
-      <c r="F151" s="6"/>
-      <c r="G151" s="6"/>
-      <c r="H151" s="6"/>
-      <c r="I151" s="6"/>
-      <c r="J151" s="6"/>
-      <c r="K151" s="6"/>
-      <c r="L151" s="6"/>
-      <c r="M151" s="6"/>
-      <c r="N151" s="6"/>
-      <c r="O151" s="6"/>
-      <c r="P151" s="6"/>
-      <c r="Q151" s="19"/>
-      <c r="R151" s="6" t="s">
+      <c r="B159" s="6"/>
+      <c r="C159" s="6"/>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="6"/>
+      <c r="H159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="6"/>
+      <c r="M159" s="6"/>
+      <c r="N159" s="6"/>
+      <c r="O159" s="6"/>
+      <c r="P159" s="6"/>
+      <c r="Q159" s="16"/>
+      <c r="R159" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S151" s="29" t="s">
+      <c r="S159" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T151" s="32"/>
-      <c r="U151" t="s">
+      <c r="T159" s="38"/>
+      <c r="U159" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
-      <c r="A152" s="6" t="s">
+    <row r="160" spans="1:21">
+      <c r="A160" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B152" s="6"/>
-      <c r="C152" s="6"/>
-      <c r="D152" s="6"/>
-      <c r="E152" s="6"/>
-      <c r="F152" s="6"/>
-      <c r="G152" s="6"/>
-      <c r="H152" s="6"/>
-      <c r="I152" s="6"/>
-      <c r="J152" s="6"/>
-      <c r="K152" s="6"/>
-      <c r="L152" s="6"/>
-      <c r="M152" s="6"/>
-      <c r="N152" s="6"/>
-      <c r="O152" s="6"/>
-      <c r="P152" s="6"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="6" t="s">
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="6"/>
+      <c r="M160" s="6"/>
+      <c r="N160" s="6"/>
+      <c r="O160" s="6"/>
+      <c r="P160" s="6"/>
+      <c r="Q160" s="16"/>
+      <c r="R160" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S152" s="29" t="s">
+      <c r="S160" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T152" s="32"/>
-      <c r="U152" t="s">
+      <c r="T160" s="38"/>
+      <c r="U160" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
-      <c r="A153" s="6" t="s">
+    <row r="161" spans="1:21">
+      <c r="A161" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
-      <c r="D153" s="6"/>
-      <c r="E153" s="6"/>
-      <c r="F153" s="6"/>
-      <c r="G153" s="6"/>
-      <c r="H153" s="6"/>
-      <c r="I153" s="6"/>
-      <c r="J153" s="6"/>
-      <c r="K153" s="6"/>
-      <c r="L153" s="6"/>
-      <c r="M153" s="6"/>
-      <c r="N153" s="6"/>
-      <c r="O153" s="6"/>
-      <c r="P153" s="6"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="6" t="s">
+      <c r="B161" s="6"/>
+      <c r="C161" s="6"/>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="6"/>
+      <c r="H161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="6"/>
+      <c r="M161" s="6"/>
+      <c r="N161" s="6"/>
+      <c r="O161" s="6"/>
+      <c r="P161" s="6"/>
+      <c r="Q161" s="16"/>
+      <c r="R161" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S153" s="29" t="s">
+      <c r="S161" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T153" s="33"/>
-      <c r="U153" t="s">
+      <c r="T161" s="39"/>
+      <c r="U161" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
-      <c r="A154" s="6" t="s">
+    <row r="162" spans="1:21">
+      <c r="A162" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B154" s="6"/>
-      <c r="C154" s="6"/>
-      <c r="D154" s="6"/>
-      <c r="E154" s="6"/>
-      <c r="F154" s="6"/>
-      <c r="G154" s="6"/>
-      <c r="H154" s="6"/>
-      <c r="I154" s="6"/>
-      <c r="J154" s="6"/>
-      <c r="K154" s="6"/>
-      <c r="L154" s="6"/>
-      <c r="M154" s="6"/>
-      <c r="N154" s="6"/>
-      <c r="O154" s="6"/>
-      <c r="P154" s="6"/>
-      <c r="Q154" s="19"/>
-      <c r="R154" s="6" t="s">
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="6"/>
+      <c r="H162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="6"/>
+      <c r="M162" s="6"/>
+      <c r="N162" s="6"/>
+      <c r="O162" s="6"/>
+      <c r="P162" s="6"/>
+      <c r="Q162" s="16"/>
+      <c r="R162" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S154" s="29" t="s">
+      <c r="S162" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U154" t="s">
+      <c r="U162" t="s">
         <v>34</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="R106:R113"/>
-    <mergeCell ref="T106:T119"/>
-    <mergeCell ref="R123:R130"/>
-    <mergeCell ref="T123:T135"/>
-    <mergeCell ref="R140:R147"/>
-    <mergeCell ref="T140:T153"/>
+    <mergeCell ref="T106:T127"/>
+    <mergeCell ref="R131:R138"/>
+    <mergeCell ref="T131:T143"/>
+    <mergeCell ref="R148:R155"/>
+    <mergeCell ref="T148:T161"/>
+    <mergeCell ref="R116:R122"/>
+    <mergeCell ref="S116:S122"/>
     <mergeCell ref="T54:T68"/>
     <mergeCell ref="R55:R62"/>
     <mergeCell ref="R72:R79"/>

--- a/MemoryMap/NI.xlsx
+++ b/MemoryMap/NI.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C020BE4-138A-43E1-88D3-3F66B061EC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NI.1" sheetId="4" r:id="rId1"/>
@@ -17,12 +18,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S11" authorId="0">
+    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="0">
+    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0">
+    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0">
+    <comment ref="Q16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="0">
+    <comment ref="Q17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -111,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0">
+    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -138,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q31" authorId="0">
+    <comment ref="Q31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q32" authorId="0">
+    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0">
+    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -185,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q34" authorId="0">
+    <comment ref="Q34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S45" authorId="0">
+    <comment ref="S45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q48" authorId="0">
+    <comment ref="Q48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -243,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q49" authorId="0">
+    <comment ref="Q49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -258,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q50" authorId="0">
+    <comment ref="Q50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -274,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0">
+    <comment ref="Q51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -289,7 +290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S62" authorId="0">
+    <comment ref="S62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -316,7 +317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q65" authorId="0">
+    <comment ref="Q65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -332,7 +333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q66" authorId="0">
+    <comment ref="Q66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -347,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q67" authorId="0">
+    <comment ref="Q67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -363,7 +364,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q68" authorId="0">
+    <comment ref="Q68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -378,7 +379,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S79" authorId="0">
+    <comment ref="S79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -405,7 +406,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q82" authorId="0">
+    <comment ref="Q82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
       <text>
         <r>
           <rPr>
@@ -421,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q83" authorId="0">
+    <comment ref="Q83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
       <text>
         <r>
           <rPr>
@@ -436,7 +437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q84" authorId="0">
+    <comment ref="Q84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
       <text>
         <r>
           <rPr>
@@ -452,7 +453,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q85" authorId="0">
+    <comment ref="Q85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
       <text>
         <r>
           <rPr>
@@ -467,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S96" authorId="0">
+    <comment ref="S96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
       <text>
         <r>
           <rPr>
@@ -494,7 +495,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q99" authorId="0">
+    <comment ref="Q99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
       <text>
         <r>
           <rPr>
@@ -510,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q100" authorId="0">
+    <comment ref="Q100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q101" authorId="0">
+    <comment ref="Q101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
       <text>
         <r>
           <rPr>
@@ -541,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q102" authorId="0">
+    <comment ref="Q102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
       <text>
         <r>
           <rPr>
@@ -556,7 +557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S113" authorId="0">
+    <comment ref="S113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
       <text>
         <r>
           <rPr>
@@ -583,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q124" authorId="0">
+    <comment ref="Q117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q125" authorId="0">
+    <comment ref="Q118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
       <text>
         <r>
           <rPr>
@@ -614,7 +615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q126" authorId="0">
+    <comment ref="Q119" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
       <text>
         <r>
           <rPr>
@@ -630,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q127" authorId="0">
+    <comment ref="Q120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
       <text>
         <r>
           <rPr>
@@ -645,7 +646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S138" authorId="0">
+    <comment ref="S131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
       <text>
         <r>
           <rPr>
@@ -672,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q141" authorId="0">
+    <comment ref="Q134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
       <text>
         <r>
           <rPr>
@@ -688,7 +689,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q142" authorId="0">
+    <comment ref="Q135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
       <text>
         <r>
           <rPr>
@@ -703,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q143" authorId="0">
+    <comment ref="Q136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
       <text>
         <r>
           <rPr>
@@ -719,7 +720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q144" authorId="0">
+    <comment ref="Q137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
       <text>
         <r>
           <rPr>
@@ -734,7 +735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S155" authorId="0">
+    <comment ref="S148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
       <text>
         <r>
           <rPr>
@@ -761,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q159" authorId="0">
+    <comment ref="Q152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
       <text>
         <r>
           <rPr>
@@ -777,7 +778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q160" authorId="0">
+    <comment ref="Q153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
       <text>
         <r>
           <rPr>
@@ -792,7 +793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q161" authorId="0">
+    <comment ref="Q154" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
       <text>
         <r>
           <rPr>
@@ -808,7 +809,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q162" authorId="0">
+    <comment ref="Q155" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
       <text>
         <r>
           <rPr>
@@ -828,7 +829,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="168">
   <si>
     <t>Device name</t>
   </si>
@@ -1329,33 +1330,6 @@
   </si>
   <si>
     <t>m4123</t>
-  </si>
-  <si>
-    <t>7 word</t>
-  </si>
-  <si>
-    <t>D8130</t>
-  </si>
-  <si>
-    <t>D8131</t>
-  </si>
-  <si>
-    <t>D8132</t>
-  </si>
-  <si>
-    <t>D8133</t>
-  </si>
-  <si>
-    <t>D8134</t>
-  </si>
-  <si>
-    <t>D8135</t>
-  </si>
-  <si>
-    <t>D8136</t>
-  </si>
-  <si>
-    <t>Customer part number</t>
   </si>
   <si>
     <t>D8137</t>
@@ -1364,8 +1338,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1565,7 +1539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1608,42 +1582,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,13 +1594,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1683,7 +1647,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1734,7 +1704,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1785,7 +1761,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1836,7 +1818,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1887,7 +1875,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1938,7 +1932,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1989,7 +1989,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2040,7 +2046,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2091,7 +2103,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2142,7 +2160,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2193,7 +2217,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2244,7 +2274,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2295,7 +2331,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2346,7 +2388,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2397,7 +2445,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2448,7 +2502,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2499,7 +2559,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2550,7 +2616,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2590,18 +2662,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2641,18 +2719,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2692,18 +2776,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2743,18 +2833,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>140</xdr:row>
+      <xdr:row>133</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2794,18 +2890,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>141</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2845,18 +2947,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>142</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2896,18 +3004,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2947,18 +3061,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2998,18 +3118,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3060,7 +3186,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3100,18 +3232,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>161</xdr:row>
+      <xdr:row>154</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3162,7 +3300,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3213,7 +3357,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3264,7 +3414,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3315,7 +3471,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3366,7 +3528,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3406,18 +3574,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>126</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3457,18 +3631,24 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>136</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3550,7 +3730,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3582,9 +3762,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3616,6 +3814,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3791,14 +4007,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X162"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:X155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W101" sqref="W101"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W114" sqref="W114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="17" width="4.7109375" customWidth="1"/>
@@ -3809,7 +4025,7 @@
     <col min="24" max="24" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75">
+    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -3827,7 +4043,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -3883,7 +4099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -3910,7 +4126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -3935,7 +4151,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -3960,7 +4176,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -3985,7 +4201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -4007,7 +4223,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -4029,7 +4245,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -4054,7 +4270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4078,11 +4294,11 @@
       <c r="S11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="24" t="s">
+      <c r="T11" s="29" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -4108,9 +4324,9 @@
       <c r="S12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="25"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="T12" s="30"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -4136,9 +4352,9 @@
       <c r="S13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="25"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="T13" s="30"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -4164,12 +4380,12 @@
       <c r="S14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="25"/>
+      <c r="T14" s="30"/>
       <c r="U14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -4195,12 +4411,12 @@
       <c r="S15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="25"/>
+      <c r="T15" s="30"/>
       <c r="U15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -4226,12 +4442,12 @@
       <c r="S16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="25"/>
+      <c r="T16" s="30"/>
       <c r="U16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -4255,12 +4471,12 @@
         <v>27</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="26"/>
+      <c r="T17" s="31"/>
       <c r="U17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75">
+    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -4316,7 +4532,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -4342,11 +4558,11 @@
       <c r="S21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="27" t="s">
+      <c r="T21" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
@@ -4370,9 +4586,9 @@
       <c r="S22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="27"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+      <c r="T22" s="28"/>
+    </row>
+    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -4394,9 +4610,9 @@
       <c r="Q23" s="8"/>
       <c r="R23" s="23"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="27"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+      <c r="T23" s="28"/>
+    </row>
+    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -4420,9 +4636,9 @@
       <c r="S24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="27"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+      <c r="T24" s="28"/>
+    </row>
+    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -4446,9 +4662,9 @@
       <c r="S25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="27"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T25" s="28"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -4472,9 +4688,9 @@
       <c r="S26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="27"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T26" s="28"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
@@ -4498,9 +4714,9 @@
       <c r="S27" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="27"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="T27" s="28"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
@@ -4524,9 +4740,9 @@
       <c r="S28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="27"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="T28" s="28"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -4550,9 +4766,9 @@
         <v>22</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="27"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="T29" s="28"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
@@ -4576,9 +4792,9 @@
         <v>25</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="27"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+      <c r="T30" s="28"/>
+    </row>
+    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -4604,12 +4820,12 @@
       <c r="S31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T31" s="27"/>
+      <c r="T31" s="28"/>
       <c r="U31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
@@ -4635,12 +4851,12 @@
       <c r="S32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="27"/>
+      <c r="T32" s="28"/>
       <c r="U32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" customHeight="1">
+    <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -4666,12 +4882,12 @@
       <c r="S33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="27"/>
+      <c r="T33" s="28"/>
       <c r="U33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
@@ -4697,12 +4913,12 @@
       <c r="S34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T34" s="27"/>
+      <c r="T34" s="28"/>
       <c r="U34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -4722,7 +4938,7 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -4742,7 +4958,7 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75">
+    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +5014,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
@@ -4822,11 +5038,11 @@
         <v>9</v>
       </c>
       <c r="S38" s="6"/>
-      <c r="T38" s="28" t="s">
+      <c r="T38" s="32" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -4848,9 +5064,9 @@
       <c r="Q39" s="8"/>
       <c r="R39" s="23"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="29"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T39" s="33"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
@@ -4872,9 +5088,9 @@
       <c r="Q40" s="8"/>
       <c r="R40" s="23"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="29"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T40" s="33"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>54</v>
       </c>
@@ -4896,9 +5112,9 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="23"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="29"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T41" s="33"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>55</v>
       </c>
@@ -4920,9 +5136,9 @@
       <c r="Q42" s="8"/>
       <c r="R42" s="23"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="29"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T42" s="33"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
@@ -4944,9 +5160,9 @@
       <c r="Q43" s="8"/>
       <c r="R43" s="23"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="29"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+      <c r="T43" s="33"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>57</v>
       </c>
@@ -4970,9 +5186,9 @@
       <c r="S44" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="29"/>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
+      <c r="T44" s="33"/>
+    </row>
+    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
@@ -4996,9 +5212,9 @@
       <c r="S45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="29"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
+      <c r="T45" s="33"/>
+    </row>
+    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>59</v>
       </c>
@@ -5024,9 +5240,9 @@
       <c r="S46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="29"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
+      <c r="T46" s="33"/>
+    </row>
+    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -5052,9 +5268,9 @@
       <c r="S47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T47" s="29"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
+      <c r="T47" s="33"/>
+    </row>
+    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>61</v>
       </c>
@@ -5080,12 +5296,12 @@
       <c r="S48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T48" s="29"/>
+      <c r="T48" s="33"/>
       <c r="U48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1">
+    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
@@ -5111,12 +5327,12 @@
       <c r="S49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T49" s="29"/>
+      <c r="T49" s="33"/>
       <c r="U49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="21" customHeight="1">
+    <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
@@ -5142,12 +5358,12 @@
       <c r="S50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T50" s="29"/>
+      <c r="T50" s="33"/>
       <c r="U50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="21" customHeight="1">
+    <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>64</v>
       </c>
@@ -5173,12 +5389,12 @@
       <c r="S51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="29"/>
+      <c r="T51" s="33"/>
       <c r="U51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75">
+    <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -5234,7 +5450,7 @@
         <v>7</v>
       </c>
       <c r="S54" s="6"/>
-      <c r="T54" s="27" t="s">
+      <c r="T54" s="28" t="s">
         <v>65</v>
       </c>
       <c r="W54" s="20" t="s">
@@ -5244,7 +5460,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75">
+    <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>68</v>
       </c>
@@ -5268,7 +5484,7 @@
         <v>9</v>
       </c>
       <c r="S55" s="6"/>
-      <c r="T55" s="27"/>
+      <c r="T55" s="28"/>
       <c r="W55" s="20">
         <v>2</v>
       </c>
@@ -5276,7 +5492,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75">
+    <row r="56" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
@@ -5298,7 +5514,7 @@
       <c r="Q56" s="8"/>
       <c r="R56" s="23"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="27"/>
+      <c r="T56" s="28"/>
       <c r="W56" s="20">
         <v>3</v>
       </c>
@@ -5306,7 +5522,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75">
+    <row r="57" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
@@ -5328,7 +5544,7 @@
       <c r="Q57" s="8"/>
       <c r="R57" s="23"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="27"/>
+      <c r="T57" s="28"/>
       <c r="W57" s="20">
         <v>4</v>
       </c>
@@ -5336,7 +5552,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75">
+    <row r="58" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -5358,7 +5574,7 @@
       <c r="Q58" s="8"/>
       <c r="R58" s="23"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="27"/>
+      <c r="T58" s="28"/>
       <c r="W58" s="20">
         <v>5</v>
       </c>
@@ -5366,7 +5582,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75">
+    <row r="59" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>76</v>
       </c>
@@ -5388,7 +5604,7 @@
       <c r="Q59" s="8"/>
       <c r="R59" s="23"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="27"/>
+      <c r="T59" s="28"/>
       <c r="W59" s="20">
         <v>6</v>
       </c>
@@ -5396,7 +5612,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75">
+    <row r="60" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -5418,7 +5634,7 @@
       <c r="Q60" s="8"/>
       <c r="R60" s="23"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="27"/>
+      <c r="T60" s="28"/>
       <c r="W60" s="20">
         <v>7</v>
       </c>
@@ -5426,7 +5642,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75">
+    <row r="61" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
@@ -5450,7 +5666,7 @@
       <c r="S61" t="s">
         <v>17</v>
       </c>
-      <c r="T61" s="27"/>
+      <c r="T61" s="28"/>
       <c r="W61" s="20">
         <v>8</v>
       </c>
@@ -5458,7 +5674,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
@@ -5482,7 +5698,7 @@
       <c r="S62" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T62" s="27"/>
+      <c r="T62" s="28"/>
       <c r="W62" s="20">
         <v>9</v>
       </c>
@@ -5490,7 +5706,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>84</v>
       </c>
@@ -5516,7 +5732,7 @@
       <c r="S63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T63" s="27"/>
+      <c r="T63" s="28"/>
       <c r="W63" s="20">
         <v>10</v>
       </c>
@@ -5524,7 +5740,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1">
+    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>86</v>
       </c>
@@ -5550,7 +5766,7 @@
       <c r="S64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="27"/>
+      <c r="T64" s="28"/>
       <c r="W64" s="20">
         <v>11</v>
       </c>
@@ -5558,7 +5774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15" customHeight="1">
+    <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>88</v>
       </c>
@@ -5584,7 +5800,7 @@
       <c r="S65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T65" s="27"/>
+      <c r="T65" s="28"/>
       <c r="U65" t="s">
         <v>28</v>
       </c>
@@ -5595,7 +5811,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15" customHeight="1">
+    <row r="66" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
@@ -5621,12 +5837,12 @@
       <c r="S66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T66" s="27"/>
+      <c r="T66" s="28"/>
       <c r="U66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16.5" customHeight="1">
+    <row r="67" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>91</v>
       </c>
@@ -5652,12 +5868,12 @@
       <c r="S67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T67" s="27"/>
+      <c r="T67" s="28"/>
       <c r="U67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="21" customHeight="1">
+    <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>92</v>
       </c>
@@ -5683,12 +5899,12 @@
       <c r="S68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T68" s="27"/>
+      <c r="T68" s="28"/>
       <c r="U68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="18.75" customHeight="1">
+    <row r="71" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -5744,7 +5960,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="18.75" customHeight="1">
+    <row r="72" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>93</v>
       </c>
@@ -5768,11 +5984,11 @@
         <v>9</v>
       </c>
       <c r="S72" s="6"/>
-      <c r="T72" s="24" t="s">
+      <c r="T72" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="18.75" customHeight="1">
+    <row r="73" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>95</v>
       </c>
@@ -5794,9 +6010,9 @@
       <c r="Q73" s="8"/>
       <c r="R73" s="23"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="25"/>
-    </row>
-    <row r="74" spans="1:24" ht="18.75" customHeight="1">
+      <c r="T73" s="30"/>
+    </row>
+    <row r="74" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>96</v>
       </c>
@@ -5818,9 +6034,9 @@
       <c r="Q74" s="8"/>
       <c r="R74" s="23"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="25"/>
-    </row>
-    <row r="75" spans="1:24" ht="18.75" customHeight="1">
+      <c r="T74" s="30"/>
+    </row>
+    <row r="75" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>97</v>
       </c>
@@ -5842,9 +6058,9 @@
       <c r="Q75" s="8"/>
       <c r="R75" s="23"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="25"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1">
+      <c r="T75" s="30"/>
+    </row>
+    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>98</v>
       </c>
@@ -5866,9 +6082,9 @@
       <c r="Q76" s="8"/>
       <c r="R76" s="23"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="25"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1">
+      <c r="T76" s="30"/>
+    </row>
+    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>99</v>
       </c>
@@ -5890,9 +6106,9 @@
       <c r="Q77" s="8"/>
       <c r="R77" s="23"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="25"/>
-    </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1">
+      <c r="T77" s="30"/>
+    </row>
+    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>100</v>
       </c>
@@ -5914,9 +6130,9 @@
       <c r="Q78" s="8"/>
       <c r="R78" s="23"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="25"/>
-    </row>
-    <row r="79" spans="1:24" ht="15" customHeight="1">
+      <c r="T78" s="30"/>
+    </row>
+    <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
@@ -5940,9 +6156,9 @@
       <c r="S79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T79" s="25"/>
-    </row>
-    <row r="80" spans="1:24" ht="15" customHeight="1">
+      <c r="T79" s="30"/>
+    </row>
+    <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>102</v>
       </c>
@@ -5968,9 +6184,9 @@
       <c r="S80" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T80" s="25"/>
-    </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1">
+      <c r="T80" s="30"/>
+    </row>
+    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -5996,9 +6212,9 @@
       <c r="S81" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="25"/>
-    </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1">
+      <c r="T81" s="30"/>
+    </row>
+    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -6024,12 +6240,12 @@
       <c r="S82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T82" s="25"/>
+      <c r="T82" s="30"/>
       <c r="U82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1">
+    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -6055,12 +6271,12 @@
       <c r="S83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="25"/>
+      <c r="T83" s="30"/>
       <c r="U83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1">
+    <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>106</v>
       </c>
@@ -6086,12 +6302,12 @@
       <c r="S84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T84" s="25"/>
+      <c r="T84" s="30"/>
       <c r="U84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="18" customHeight="1">
+    <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>107</v>
       </c>
@@ -6117,12 +6333,12 @@
       <c r="S85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="26"/>
+      <c r="T85" s="31"/>
       <c r="U85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.75">
+    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -6178,7 +6394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.75">
+    <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>108</v>
       </c>
@@ -6202,11 +6418,11 @@
         <v>9</v>
       </c>
       <c r="S89" s="6"/>
-      <c r="T89" s="27" t="s">
+      <c r="T89" s="28" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.75">
+    <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>110</v>
       </c>
@@ -6228,9 +6444,9 @@
       <c r="Q90" s="8"/>
       <c r="R90" s="23"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="27"/>
-    </row>
-    <row r="91" spans="1:21" ht="15.75">
+      <c r="T90" s="28"/>
+    </row>
+    <row r="91" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>111</v>
       </c>
@@ -6252,9 +6468,9 @@
       <c r="Q91" s="8"/>
       <c r="R91" s="23"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="27"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75">
+      <c r="T91" s="28"/>
+    </row>
+    <row r="92" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>112</v>
       </c>
@@ -6276,9 +6492,9 @@
       <c r="Q92" s="8"/>
       <c r="R92" s="23"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="27"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75">
+      <c r="T92" s="28"/>
+    </row>
+    <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
@@ -6300,9 +6516,9 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="23"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="27"/>
-    </row>
-    <row r="94" spans="1:21" ht="15.75">
+      <c r="T93" s="28"/>
+    </row>
+    <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>114</v>
       </c>
@@ -6324,9 +6540,9 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="23"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="27"/>
-    </row>
-    <row r="95" spans="1:21" ht="15.75">
+      <c r="T94" s="28"/>
+    </row>
+    <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>115</v>
       </c>
@@ -6348,9 +6564,9 @@
       <c r="Q95" s="8"/>
       <c r="R95" s="23"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="27"/>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="T95" s="28"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>116</v>
       </c>
@@ -6374,9 +6590,9 @@
       <c r="S96" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T96" s="27"/>
-    </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1">
+      <c r="T96" s="28"/>
+    </row>
+    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>117</v>
       </c>
@@ -6402,9 +6618,9 @@
       <c r="S97" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T97" s="27"/>
-    </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1">
+      <c r="T97" s="28"/>
+    </row>
+    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>118</v>
       </c>
@@ -6430,9 +6646,9 @@
       <c r="S98" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T98" s="27"/>
-    </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1">
+      <c r="T98" s="28"/>
+    </row>
+    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
@@ -6458,12 +6674,12 @@
       <c r="S99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T99" s="27"/>
+      <c r="T99" s="28"/>
       <c r="U99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1">
+    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
         <v>120</v>
       </c>
@@ -6489,12 +6705,12 @@
       <c r="S100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T100" s="27"/>
+      <c r="T100" s="28"/>
       <c r="U100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" customHeight="1">
+    <row r="101" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>121</v>
       </c>
@@ -6520,12 +6736,12 @@
       <c r="S101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="27"/>
+      <c r="T101" s="28"/>
       <c r="U101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" customHeight="1">
+    <row r="102" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
         <v>122</v>
       </c>
@@ -6551,12 +6767,12 @@
       <c r="S102" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T102" s="27"/>
+      <c r="T102" s="28"/>
       <c r="U102" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.75">
+    <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -6612,7 +6828,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.75">
+    <row r="106" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>123</v>
       </c>
@@ -6636,11 +6852,11 @@
         <v>9</v>
       </c>
       <c r="S106" s="22"/>
-      <c r="T106" s="36" t="s">
+      <c r="T106" s="24" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.75">
+    <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -6662,9 +6878,9 @@
       <c r="Q107" s="8"/>
       <c r="R107" s="23"/>
       <c r="S107" s="22"/>
-      <c r="T107" s="36"/>
-    </row>
-    <row r="108" spans="1:21" ht="15.75">
+      <c r="T107" s="24"/>
+    </row>
+    <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -6686,9 +6902,9 @@
       <c r="Q108" s="8"/>
       <c r="R108" s="23"/>
       <c r="S108" s="22"/>
-      <c r="T108" s="36"/>
-    </row>
-    <row r="109" spans="1:21" ht="15.75">
+      <c r="T108" s="24"/>
+    </row>
+    <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>127</v>
       </c>
@@ -6710,9 +6926,9 @@
       <c r="Q109" s="8"/>
       <c r="R109" s="23"/>
       <c r="S109" s="22"/>
-      <c r="T109" s="36"/>
-    </row>
-    <row r="110" spans="1:21" ht="15.75">
+      <c r="T109" s="24"/>
+    </row>
+    <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>128</v>
       </c>
@@ -6734,9 +6950,9 @@
       <c r="Q110" s="8"/>
       <c r="R110" s="23"/>
       <c r="S110" s="22"/>
-      <c r="T110" s="36"/>
-    </row>
-    <row r="111" spans="1:21" ht="15.75">
+      <c r="T110" s="24"/>
+    </row>
+    <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>129</v>
       </c>
@@ -6758,9 +6974,9 @@
       <c r="Q111" s="8"/>
       <c r="R111" s="23"/>
       <c r="S111" s="22"/>
-      <c r="T111" s="36"/>
-    </row>
-    <row r="112" spans="1:21" ht="15.75">
+      <c r="T111" s="24"/>
+    </row>
+    <row r="112" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>130</v>
       </c>
@@ -6782,9 +6998,9 @@
       <c r="Q112" s="8"/>
       <c r="R112" s="23"/>
       <c r="S112" s="22"/>
-      <c r="T112" s="36"/>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="T112" s="24"/>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>131</v>
       </c>
@@ -6808,9 +7024,9 @@
       <c r="S113" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T113" s="36"/>
-    </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1">
+      <c r="T113" s="24"/>
+    </row>
+    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>132</v>
       </c>
@@ -6836,9 +7052,9 @@
       <c r="S114" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T114" s="36"/>
-    </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1">
+      <c r="T114" s="24"/>
+    </row>
+    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>133</v>
       </c>
@@ -6864,11 +7080,11 @@
       <c r="S115" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T115" s="36"/>
-    </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1">
+      <c r="T115" s="24"/>
+    </row>
+    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -6886,1201 +7102,1027 @@
       <c r="O116" s="12"/>
       <c r="P116" s="12"/>
       <c r="Q116" s="12"/>
-      <c r="R116" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="S116" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="T116" s="36"/>
-    </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1">
+      <c r="R116" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="S116" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T116" s="24"/>
+    </row>
+    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="31"/>
-      <c r="S117" s="34"/>
-      <c r="T117" s="36"/>
-    </row>
-    <row r="118" spans="1:21" ht="15" customHeight="1">
+        <v>134</v>
+      </c>
+      <c r="B117" s="15"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="16"/>
+      <c r="R117" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S117" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T117" s="24"/>
+      <c r="U117" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-      <c r="E118" s="12"/>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="12"/>
-      <c r="I118" s="12"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="12"/>
-      <c r="N118" s="12"/>
-      <c r="O118" s="12"/>
-      <c r="P118" s="12"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="31"/>
-      <c r="S118" s="34"/>
-      <c r="T118" s="36"/>
-    </row>
-    <row r="119" spans="1:21" ht="15" customHeight="1">
+        <v>135</v>
+      </c>
+      <c r="B118" s="15"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="15"/>
+      <c r="K118" s="15"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="15"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="15"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="16"/>
+      <c r="R118" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S118" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T118" s="24"/>
+      <c r="U118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="31"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="36"/>
-    </row>
-    <row r="120" spans="1:21" ht="15" customHeight="1">
+        <v>136</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="6"/>
+      <c r="H119" s="6"/>
+      <c r="I119" s="6"/>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="6"/>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="16"/>
+      <c r="R119" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S119" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T119" s="24"/>
+      <c r="U119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="12"/>
-      <c r="I120" s="12"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="12"/>
-      <c r="N120" s="12"/>
-      <c r="O120" s="12"/>
-      <c r="P120" s="12"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="31"/>
-      <c r="S120" s="34"/>
-      <c r="T120" s="36"/>
-    </row>
-    <row r="121" spans="1:21" ht="15" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="12"/>
-      <c r="I121" s="12"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="12"/>
-      <c r="N121" s="12"/>
-      <c r="O121" s="12"/>
-      <c r="P121" s="12"/>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="31"/>
-      <c r="S121" s="34"/>
-      <c r="T121" s="36"/>
-    </row>
-    <row r="122" spans="1:21" ht="15" customHeight="1">
-      <c r="A122" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="12"/>
-      <c r="I122" s="12"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="12"/>
-      <c r="N122" s="12"/>
-      <c r="O122" s="12"/>
-      <c r="P122" s="12"/>
-      <c r="Q122" s="12"/>
-      <c r="R122" s="32"/>
-      <c r="S122" s="35"/>
-      <c r="T122" s="36"/>
-    </row>
-    <row r="123" spans="1:21" ht="15" customHeight="1">
-      <c r="A123" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="S123" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B120" s="6"/>
+      <c r="C120" s="6"/>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="6"/>
+      <c r="H120" s="6"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="6"/>
+      <c r="M120" s="6"/>
+      <c r="N120" s="6"/>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="16"/>
+      <c r="R120" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S120" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T120" s="24"/>
+      <c r="U120" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H123" s="1">
+        <v>9</v>
+      </c>
+      <c r="I123" s="2">
+        <v>8</v>
+      </c>
+      <c r="J123" s="2">
+        <v>7</v>
+      </c>
+      <c r="K123" s="2">
+        <v>6</v>
+      </c>
+      <c r="L123" s="2">
+        <v>5</v>
+      </c>
+      <c r="M123" s="2">
+        <v>4</v>
+      </c>
+      <c r="N123" s="2">
+        <v>3</v>
+      </c>
+      <c r="O123" s="2">
+        <v>2</v>
+      </c>
+      <c r="P123" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>0</v>
+      </c>
+      <c r="R123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="8"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="8"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="8"/>
+      <c r="P124" s="8"/>
+      <c r="Q124" s="8"/>
+      <c r="R124" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S124" s="22"/>
+      <c r="T124" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="8"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="8"/>
+      <c r="P125" s="8"/>
+      <c r="Q125" s="8"/>
+      <c r="R125" s="23"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="24"/>
+    </row>
+    <row r="126" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="8"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="23"/>
+      <c r="S126" s="22"/>
+      <c r="T126" s="24"/>
+    </row>
+    <row r="127" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="7"/>
+      <c r="I127" s="8"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="8"/>
+      <c r="P127" s="8"/>
+      <c r="Q127" s="8"/>
+      <c r="R127" s="23"/>
+      <c r="S127" s="22"/>
+      <c r="T127" s="24"/>
+    </row>
+    <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="8"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="8"/>
+      <c r="P128" s="8"/>
+      <c r="Q128" s="8"/>
+      <c r="R128" s="23"/>
+      <c r="S128" s="22"/>
+      <c r="T128" s="24"/>
+    </row>
+    <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="8"/>
+      <c r="P129" s="8"/>
+      <c r="Q129" s="8"/>
+      <c r="R129" s="23"/>
+      <c r="S129" s="22"/>
+      <c r="T129" s="24"/>
+    </row>
+    <row r="130" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="8"/>
+      <c r="P130" s="8"/>
+      <c r="Q130" s="8"/>
+      <c r="R130" s="23"/>
+      <c r="S130" s="22"/>
+      <c r="T130" s="24"/>
+    </row>
+    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="17"/>
+      <c r="L131" s="17"/>
+      <c r="M131" s="17"/>
+      <c r="N131" s="17"/>
+      <c r="O131" s="17"/>
+      <c r="P131" s="17"/>
+      <c r="Q131" s="17"/>
+      <c r="R131" s="23"/>
+      <c r="S131" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="T131" s="24"/>
+    </row>
+    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+      <c r="H132" s="14"/>
+      <c r="I132" s="14"/>
+      <c r="J132" s="14"/>
+      <c r="K132" s="14"/>
+      <c r="L132" s="14"/>
+      <c r="M132" s="14"/>
+      <c r="N132" s="14"/>
+      <c r="O132" s="14"/>
+      <c r="P132" s="14"/>
+      <c r="Q132" s="14"/>
+      <c r="R132" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S132" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T123" s="36"/>
-    </row>
-    <row r="124" spans="1:21" ht="15" customHeight="1">
-      <c r="A124" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
-      <c r="H124" s="15"/>
-      <c r="I124" s="15"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="15"/>
-      <c r="L124" s="15"/>
-      <c r="M124" s="15"/>
-      <c r="N124" s="15"/>
-      <c r="O124" s="15"/>
-      <c r="P124" s="15"/>
-      <c r="Q124" s="16"/>
-      <c r="R124" s="6" t="s">
+      <c r="T132" s="24"/>
+    </row>
+    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+      <c r="H133" s="14"/>
+      <c r="I133" s="14"/>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
+      <c r="O133" s="14"/>
+      <c r="P133" s="14"/>
+      <c r="Q133" s="14"/>
+      <c r="R133" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S133" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T133" s="24"/>
+    </row>
+    <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B134" s="6"/>
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6"/>
+      <c r="N134" s="6"/>
+      <c r="O134" s="6"/>
+      <c r="P134" s="6"/>
+      <c r="Q134" s="16"/>
+      <c r="R134" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S124" s="22" t="s">
+      <c r="S134" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T124" s="36"/>
-      <c r="U124" t="s">
+      <c r="T134" s="24"/>
+      <c r="U134" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:21" ht="15" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
-      <c r="H125" s="15"/>
-      <c r="I125" s="15"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="15"/>
-      <c r="L125" s="15"/>
-      <c r="M125" s="15"/>
-      <c r="N125" s="15"/>
-      <c r="O125" s="15"/>
-      <c r="P125" s="15"/>
-      <c r="Q125" s="16"/>
-      <c r="R125" s="6" t="s">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="6"/>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6"/>
+      <c r="N135" s="6"/>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6"/>
+      <c r="Q135" s="16"/>
+      <c r="R135" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S125" s="22" t="s">
+      <c r="S135" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T125" s="36"/>
-      <c r="U125" t="s">
+      <c r="T135" s="24"/>
+      <c r="U135" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
-      <c r="A126" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B126" s="6"/>
-      <c r="C126" s="6"/>
-      <c r="D126" s="6"/>
-      <c r="E126" s="6"/>
-      <c r="F126" s="6"/>
-      <c r="G126" s="6"/>
-      <c r="H126" s="6"/>
-      <c r="I126" s="6"/>
-      <c r="J126" s="6"/>
-      <c r="K126" s="6"/>
-      <c r="L126" s="6"/>
-      <c r="M126" s="6"/>
-      <c r="N126" s="6"/>
-      <c r="O126" s="6"/>
-      <c r="P126" s="6"/>
-      <c r="Q126" s="16"/>
-      <c r="R126" s="6" t="s">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="6"/>
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6"/>
+      <c r="N136" s="6"/>
+      <c r="O136" s="6"/>
+      <c r="P136" s="6"/>
+      <c r="Q136" s="16"/>
+      <c r="R136" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S126" s="22" t="s">
+      <c r="S136" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T126" s="36"/>
-      <c r="U126" t="s">
+      <c r="T136" s="24"/>
+      <c r="U136" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
-      <c r="A127" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B127" s="6"/>
-      <c r="C127" s="6"/>
-      <c r="D127" s="6"/>
-      <c r="E127" s="6"/>
-      <c r="F127" s="6"/>
-      <c r="G127" s="6"/>
-      <c r="H127" s="6"/>
-      <c r="I127" s="6"/>
-      <c r="J127" s="6"/>
-      <c r="K127" s="6"/>
-      <c r="L127" s="6"/>
-      <c r="M127" s="6"/>
-      <c r="N127" s="6"/>
-      <c r="O127" s="6"/>
-      <c r="P127" s="6"/>
-      <c r="Q127" s="16"/>
-      <c r="R127" s="6" t="s">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q137" s="16"/>
+      <c r="R137" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S127" s="22" t="s">
+      <c r="S137" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T127" s="36"/>
-      <c r="U127" t="s">
+      <c r="U137" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:21" ht="15.75">
-      <c r="A130" s="3" t="s">
+    <row r="140" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B140" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="C140" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D140" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="E140" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="F140" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="G140" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H140" s="1">
         <v>9</v>
       </c>
-      <c r="I130" s="2">
+      <c r="I140" s="2">
         <v>8</v>
       </c>
-      <c r="J130" s="2">
+      <c r="J140" s="2">
         <v>7</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K140" s="2">
         <v>6</v>
       </c>
-      <c r="L130" s="2">
+      <c r="L140" s="2">
         <v>5</v>
       </c>
-      <c r="M130" s="2">
+      <c r="M140" s="2">
         <v>4</v>
       </c>
-      <c r="N130" s="2">
+      <c r="N140" s="2">
         <v>3</v>
       </c>
-      <c r="O130" s="2">
+      <c r="O140" s="2">
         <v>2</v>
       </c>
-      <c r="P130" s="2">
+      <c r="P140" s="2">
         <v>1</v>
       </c>
-      <c r="Q130" s="2">
+      <c r="Q140" s="2">
         <v>0</v>
       </c>
-      <c r="R130" t="s">
+      <c r="R140" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:21" ht="15.75">
-      <c r="A131" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B131" s="7"/>
-      <c r="C131" s="7"/>
-      <c r="D131" s="7"/>
-      <c r="E131" s="7"/>
-      <c r="F131" s="7"/>
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="8"/>
-      <c r="J131" s="8"/>
-      <c r="K131" s="8"/>
-      <c r="L131" s="8"/>
-      <c r="M131" s="8"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="8"/>
-      <c r="P131" s="8"/>
-      <c r="Q131" s="8"/>
-      <c r="R131" s="23" t="s">
+    <row r="141" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="7"/>
+      <c r="I141" s="8"/>
+      <c r="J141" s="8"/>
+      <c r="K141" s="8"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="8"/>
+      <c r="P141" s="8"/>
+      <c r="Q141" s="8"/>
+      <c r="R141" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S131" s="22"/>
-      <c r="T131" s="36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" ht="15.75">
-      <c r="A132" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="B132" s="7"/>
-      <c r="C132" s="7"/>
-      <c r="D132" s="7"/>
-      <c r="E132" s="7"/>
-      <c r="F132" s="7"/>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
-      <c r="I132" s="8"/>
-      <c r="J132" s="8"/>
-      <c r="K132" s="8"/>
-      <c r="L132" s="8"/>
-      <c r="M132" s="8"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="8"/>
-      <c r="P132" s="8"/>
-      <c r="Q132" s="8"/>
-      <c r="R132" s="23"/>
-      <c r="S132" s="22"/>
-      <c r="T132" s="36"/>
-    </row>
-    <row r="133" spans="1:21" ht="15.75">
-      <c r="A133" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B133" s="7"/>
-      <c r="C133" s="7"/>
-      <c r="D133" s="7"/>
-      <c r="E133" s="7"/>
-      <c r="F133" s="7"/>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
-      <c r="I133" s="8"/>
-      <c r="J133" s="8"/>
-      <c r="K133" s="8"/>
-      <c r="L133" s="8"/>
-      <c r="M133" s="8"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="8"/>
-      <c r="P133" s="8"/>
-      <c r="Q133" s="8"/>
-      <c r="R133" s="23"/>
-      <c r="S133" s="22"/>
-      <c r="T133" s="36"/>
-    </row>
-    <row r="134" spans="1:21" ht="15.75">
-      <c r="A134" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B134" s="7"/>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
-      <c r="F134" s="7"/>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-      <c r="M134" s="8"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="8"/>
-      <c r="P134" s="8"/>
-      <c r="Q134" s="8"/>
-      <c r="R134" s="23"/>
-      <c r="S134" s="22"/>
-      <c r="T134" s="36"/>
-    </row>
-    <row r="135" spans="1:21" ht="15.75">
-      <c r="A135" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
-      <c r="I135" s="8"/>
-      <c r="J135" s="8"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="23"/>
-      <c r="S135" s="22"/>
-      <c r="T135" s="36"/>
-    </row>
-    <row r="136" spans="1:21" ht="15.75">
-      <c r="A136" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
-      <c r="I136" s="8"/>
-      <c r="J136" s="8"/>
-      <c r="K136" s="8"/>
-      <c r="L136" s="8"/>
-      <c r="M136" s="8"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="8"/>
-      <c r="P136" s="8"/>
-      <c r="Q136" s="8"/>
-      <c r="R136" s="23"/>
-      <c r="S136" s="22"/>
-      <c r="T136" s="36"/>
-    </row>
-    <row r="137" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A137" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B137" s="7"/>
-      <c r="C137" s="7"/>
-      <c r="D137" s="7"/>
-      <c r="E137" s="7"/>
-      <c r="F137" s="7"/>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
-      <c r="I137" s="8"/>
-      <c r="J137" s="8"/>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="8"/>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="23"/>
-      <c r="S137" s="22"/>
-      <c r="T137" s="36"/>
-    </row>
-    <row r="138" spans="1:21" ht="15" customHeight="1">
-      <c r="A138" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="17"/>
-      <c r="K138" s="17"/>
-      <c r="L138" s="17"/>
-      <c r="M138" s="17"/>
-      <c r="N138" s="17"/>
-      <c r="O138" s="17"/>
-      <c r="P138" s="17"/>
-      <c r="Q138" s="17"/>
-      <c r="R138" s="23"/>
-      <c r="S138" s="13" t="s">
+      <c r="S141" s="22"/>
+      <c r="T141" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="7"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="7"/>
+      <c r="I142" s="8"/>
+      <c r="J142" s="8"/>
+      <c r="K142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="8"/>
+      <c r="P142" s="8"/>
+      <c r="Q142" s="8"/>
+      <c r="R142" s="23"/>
+      <c r="S142" s="22"/>
+      <c r="T142" s="26"/>
+    </row>
+    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="7"/>
+      <c r="I143" s="8"/>
+      <c r="J143" s="8"/>
+      <c r="K143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="8"/>
+      <c r="P143" s="8"/>
+      <c r="Q143" s="8"/>
+      <c r="R143" s="23"/>
+      <c r="S143" s="22"/>
+      <c r="T143" s="26"/>
+    </row>
+    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="7"/>
+      <c r="I144" s="8"/>
+      <c r="J144" s="8"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="23"/>
+      <c r="S144" s="22"/>
+      <c r="T144" s="26"/>
+    </row>
+    <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="7"/>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="7"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="8"/>
+      <c r="P145" s="8"/>
+      <c r="Q145" s="8"/>
+      <c r="R145" s="23"/>
+      <c r="S145" s="22"/>
+      <c r="T145" s="26"/>
+    </row>
+    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="7"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="8"/>
+      <c r="P146" s="8"/>
+      <c r="Q146" s="8"/>
+      <c r="R146" s="23"/>
+      <c r="S146" s="22"/>
+      <c r="T146" s="26"/>
+    </row>
+    <row r="147" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="7"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="8"/>
+      <c r="P147" s="8"/>
+      <c r="Q147" s="8"/>
+      <c r="R147" s="23"/>
+      <c r="S147" s="22"/>
+      <c r="T147" s="26"/>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B148" s="17"/>
+      <c r="C148" s="17"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="17"/>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="17"/>
+      <c r="L148" s="17"/>
+      <c r="M148" s="17"/>
+      <c r="N148" s="17"/>
+      <c r="O148" s="17"/>
+      <c r="P148" s="17"/>
+      <c r="Q148" s="17"/>
+      <c r="R148" s="23"/>
+      <c r="S148" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T138" s="36"/>
-    </row>
-    <row r="139" spans="1:21" ht="15" customHeight="1">
-      <c r="A139" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="14"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="14"/>
-      <c r="K139" s="14"/>
-      <c r="L139" s="14"/>
-      <c r="M139" s="14"/>
-      <c r="N139" s="14"/>
-      <c r="O139" s="14"/>
-      <c r="P139" s="14"/>
-      <c r="Q139" s="14"/>
-      <c r="R139" s="6" t="s">
+      <c r="T148" s="26"/>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+      <c r="H149" s="14"/>
+      <c r="I149" s="14"/>
+      <c r="J149" s="14"/>
+      <c r="K149" s="14"/>
+      <c r="L149" s="14"/>
+      <c r="M149" s="14"/>
+      <c r="N149" s="14"/>
+      <c r="O149" s="14"/>
+      <c r="P149" s="14"/>
+      <c r="Q149" s="14"/>
+      <c r="R149" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S139" s="22" t="s">
+      <c r="S149" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T139" s="36"/>
-    </row>
-    <row r="140" spans="1:21" ht="15" customHeight="1">
-      <c r="A140" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="14"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="14"/>
-      <c r="K140" s="14"/>
-      <c r="L140" s="14"/>
-      <c r="M140" s="14"/>
-      <c r="N140" s="14"/>
-      <c r="O140" s="14"/>
-      <c r="P140" s="14"/>
-      <c r="Q140" s="14"/>
-      <c r="R140" s="6" t="s">
+      <c r="T149" s="26"/>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+      <c r="H150" s="14"/>
+      <c r="I150" s="14"/>
+      <c r="J150" s="14"/>
+      <c r="K150" s="14"/>
+      <c r="L150" s="14"/>
+      <c r="M150" s="14"/>
+      <c r="N150" s="14"/>
+      <c r="O150" s="14"/>
+      <c r="P150" s="14"/>
+      <c r="Q150" s="14"/>
+      <c r="R150" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S140" s="22" t="s">
+      <c r="S150" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T140" s="36"/>
-    </row>
-    <row r="141" spans="1:21" ht="15" customHeight="1">
-      <c r="A141" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="B141" s="6"/>
-      <c r="C141" s="6"/>
-      <c r="D141" s="6"/>
-      <c r="E141" s="6"/>
-      <c r="F141" s="6"/>
-      <c r="G141" s="6"/>
-      <c r="H141" s="6"/>
-      <c r="I141" s="6"/>
-      <c r="J141" s="6"/>
-      <c r="K141" s="6"/>
-      <c r="L141" s="6"/>
-      <c r="M141" s="6"/>
-      <c r="N141" s="6"/>
-      <c r="O141" s="6"/>
-      <c r="P141" s="6"/>
-      <c r="Q141" s="16"/>
-      <c r="R141" s="6" t="s">
+      <c r="T150" s="26"/>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="6"/>
+      <c r="H151" s="6"/>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="6"/>
+      <c r="M151" s="6"/>
+      <c r="N151" s="6"/>
+      <c r="O151" s="6"/>
+      <c r="P151" s="6"/>
+      <c r="Q151" s="6"/>
+      <c r="R151" s="6"/>
+      <c r="T151" s="26"/>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" s="6"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="6"/>
+      <c r="H152" s="6"/>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="6"/>
+      <c r="M152" s="6"/>
+      <c r="N152" s="6"/>
+      <c r="O152" s="6"/>
+      <c r="P152" s="6"/>
+      <c r="Q152" s="16"/>
+      <c r="R152" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S141" s="22" t="s">
+      <c r="S152" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T141" s="36"/>
-      <c r="U141" t="s">
+      <c r="T152" s="26"/>
+      <c r="U152" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:21">
-      <c r="A142" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B142" s="6"/>
-      <c r="C142" s="6"/>
-      <c r="D142" s="6"/>
-      <c r="E142" s="6"/>
-      <c r="F142" s="6"/>
-      <c r="G142" s="6"/>
-      <c r="H142" s="6"/>
-      <c r="I142" s="6"/>
-      <c r="J142" s="6"/>
-      <c r="K142" s="6"/>
-      <c r="L142" s="6"/>
-      <c r="M142" s="6"/>
-      <c r="N142" s="6"/>
-      <c r="O142" s="6"/>
-      <c r="P142" s="6"/>
-      <c r="Q142" s="16"/>
-      <c r="R142" s="6" t="s">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="6"/>
+      <c r="H153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="6"/>
+      <c r="M153" s="6"/>
+      <c r="N153" s="6"/>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6"/>
+      <c r="Q153" s="16"/>
+      <c r="R153" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S142" s="22" t="s">
+      <c r="S153" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T142" s="36"/>
-      <c r="U142" t="s">
+      <c r="T153" s="26"/>
+      <c r="U153" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
-      <c r="A143" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B143" s="6"/>
-      <c r="C143" s="6"/>
-      <c r="D143" s="6"/>
-      <c r="E143" s="6"/>
-      <c r="F143" s="6"/>
-      <c r="G143" s="6"/>
-      <c r="H143" s="6"/>
-      <c r="I143" s="6"/>
-      <c r="J143" s="6"/>
-      <c r="K143" s="6"/>
-      <c r="L143" s="6"/>
-      <c r="M143" s="6"/>
-      <c r="N143" s="6"/>
-      <c r="O143" s="6"/>
-      <c r="P143" s="6"/>
-      <c r="Q143" s="16"/>
-      <c r="R143" s="6" t="s">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" s="6"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="6"/>
+      <c r="H154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="6"/>
+      <c r="M154" s="6"/>
+      <c r="N154" s="6"/>
+      <c r="O154" s="6"/>
+      <c r="P154" s="6"/>
+      <c r="Q154" s="16"/>
+      <c r="R154" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S143" s="22" t="s">
+      <c r="S154" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T143" s="36"/>
-      <c r="U143" t="s">
+      <c r="T154" s="27"/>
+      <c r="U154" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
-      <c r="Q144" s="16"/>
-      <c r="R144" s="6" t="s">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="6"/>
+      <c r="C155" s="6"/>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6"/>
+      <c r="N155" s="6"/>
+      <c r="O155" s="6"/>
+      <c r="P155" s="6"/>
+      <c r="Q155" s="16"/>
+      <c r="R155" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S144" s="22" t="s">
+      <c r="S155" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U144" t="s">
+      <c r="U155" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="147" spans="1:21" ht="15.75">
-      <c r="A147" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F147" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H147" s="1">
-        <v>9</v>
-      </c>
-      <c r="I147" s="2">
-        <v>8</v>
-      </c>
-      <c r="J147" s="2">
-        <v>7</v>
-      </c>
-      <c r="K147" s="2">
-        <v>6</v>
-      </c>
-      <c r="L147" s="2">
-        <v>5</v>
-      </c>
-      <c r="M147" s="2">
-        <v>4</v>
-      </c>
-      <c r="N147" s="2">
-        <v>3</v>
-      </c>
-      <c r="O147" s="2">
-        <v>2</v>
-      </c>
-      <c r="P147" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="2">
-        <v>0</v>
-      </c>
-      <c r="R147" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" ht="15.75">
-      <c r="A148" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="B148" s="7"/>
-      <c r="C148" s="7"/>
-      <c r="D148" s="7"/>
-      <c r="E148" s="7"/>
-      <c r="F148" s="7"/>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
-      <c r="I148" s="8"/>
-      <c r="J148" s="8"/>
-      <c r="K148" s="8"/>
-      <c r="L148" s="8"/>
-      <c r="M148" s="8"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="8"/>
-      <c r="P148" s="8"/>
-      <c r="Q148" s="8"/>
-      <c r="R148" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S148" s="22"/>
-      <c r="T148" s="37" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" ht="15.75">
-      <c r="A149" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="B149" s="7"/>
-      <c r="C149" s="7"/>
-      <c r="D149" s="7"/>
-      <c r="E149" s="7"/>
-      <c r="F149" s="7"/>
-      <c r="G149" s="7"/>
-      <c r="H149" s="7"/>
-      <c r="I149" s="8"/>
-      <c r="J149" s="8"/>
-      <c r="K149" s="8"/>
-      <c r="L149" s="8"/>
-      <c r="M149" s="8"/>
-      <c r="N149" s="8"/>
-      <c r="O149" s="8"/>
-      <c r="P149" s="8"/>
-      <c r="Q149" s="8"/>
-      <c r="R149" s="23"/>
-      <c r="S149" s="22"/>
-      <c r="T149" s="38"/>
-    </row>
-    <row r="150" spans="1:21" ht="15.75">
-      <c r="A150" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="B150" s="7"/>
-      <c r="C150" s="7"/>
-      <c r="D150" s="7"/>
-      <c r="E150" s="7"/>
-      <c r="F150" s="7"/>
-      <c r="G150" s="7"/>
-      <c r="H150" s="7"/>
-      <c r="I150" s="8"/>
-      <c r="J150" s="8"/>
-      <c r="K150" s="8"/>
-      <c r="L150" s="8"/>
-      <c r="M150" s="8"/>
-      <c r="N150" s="8"/>
-      <c r="O150" s="8"/>
-      <c r="P150" s="8"/>
-      <c r="Q150" s="8"/>
-      <c r="R150" s="23"/>
-      <c r="S150" s="22"/>
-      <c r="T150" s="38"/>
-    </row>
-    <row r="151" spans="1:21" ht="15.75">
-      <c r="A151" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
-      <c r="F151" s="7"/>
-      <c r="G151" s="7"/>
-      <c r="H151" s="7"/>
-      <c r="I151" s="8"/>
-      <c r="J151" s="8"/>
-      <c r="K151" s="8"/>
-      <c r="L151" s="8"/>
-      <c r="M151" s="8"/>
-      <c r="N151" s="8"/>
-      <c r="O151" s="8"/>
-      <c r="P151" s="8"/>
-      <c r="Q151" s="8"/>
-      <c r="R151" s="23"/>
-      <c r="S151" s="22"/>
-      <c r="T151" s="38"/>
-    </row>
-    <row r="152" spans="1:21" ht="15.75">
-      <c r="A152" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B152" s="7"/>
-      <c r="C152" s="7"/>
-      <c r="D152" s="7"/>
-      <c r="E152" s="7"/>
-      <c r="F152" s="7"/>
-      <c r="G152" s="7"/>
-      <c r="H152" s="7"/>
-      <c r="I152" s="8"/>
-      <c r="J152" s="8"/>
-      <c r="K152" s="8"/>
-      <c r="L152" s="8"/>
-      <c r="M152" s="8"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="8"/>
-      <c r="P152" s="8"/>
-      <c r="Q152" s="8"/>
-      <c r="R152" s="23"/>
-      <c r="S152" s="22"/>
-      <c r="T152" s="38"/>
-    </row>
-    <row r="153" spans="1:21" ht="15.75">
-      <c r="A153" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="B153" s="7"/>
-      <c r="C153" s="7"/>
-      <c r="D153" s="7"/>
-      <c r="E153" s="7"/>
-      <c r="F153" s="7"/>
-      <c r="G153" s="7"/>
-      <c r="H153" s="7"/>
-      <c r="I153" s="8"/>
-      <c r="J153" s="8"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="23"/>
-      <c r="S153" s="22"/>
-      <c r="T153" s="38"/>
-    </row>
-    <row r="154" spans="1:21" ht="15.75">
-      <c r="A154" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
-      <c r="F154" s="7"/>
-      <c r="G154" s="7"/>
-      <c r="H154" s="7"/>
-      <c r="I154" s="8"/>
-      <c r="J154" s="8"/>
-      <c r="K154" s="8"/>
-      <c r="L154" s="8"/>
-      <c r="M154" s="8"/>
-      <c r="N154" s="8"/>
-      <c r="O154" s="8"/>
-      <c r="P154" s="8"/>
-      <c r="Q154" s="8"/>
-      <c r="R154" s="23"/>
-      <c r="S154" s="22"/>
-      <c r="T154" s="38"/>
-    </row>
-    <row r="155" spans="1:21">
-      <c r="A155" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="17"/>
-      <c r="K155" s="17"/>
-      <c r="L155" s="17"/>
-      <c r="M155" s="17"/>
-      <c r="N155" s="17"/>
-      <c r="O155" s="17"/>
-      <c r="P155" s="17"/>
-      <c r="Q155" s="17"/>
-      <c r="R155" s="23"/>
-      <c r="S155" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="T155" s="38"/>
-    </row>
-    <row r="156" spans="1:21">
-      <c r="A156" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B156" s="14"/>
-      <c r="C156" s="14"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="14"/>
-      <c r="K156" s="14"/>
-      <c r="L156" s="14"/>
-      <c r="M156" s="14"/>
-      <c r="N156" s="14"/>
-      <c r="O156" s="14"/>
-      <c r="P156" s="14"/>
-      <c r="Q156" s="14"/>
-      <c r="R156" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S156" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T156" s="38"/>
-    </row>
-    <row r="157" spans="1:21">
-      <c r="A157" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B157" s="14"/>
-      <c r="C157" s="14"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="14"/>
-      <c r="K157" s="14"/>
-      <c r="L157" s="14"/>
-      <c r="M157" s="14"/>
-      <c r="N157" s="14"/>
-      <c r="O157" s="14"/>
-      <c r="P157" s="14"/>
-      <c r="Q157" s="14"/>
-      <c r="R157" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S157" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T157" s="38"/>
-    </row>
-    <row r="158" spans="1:21">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="6"/>
-      <c r="G158" s="6"/>
-      <c r="H158" s="6"/>
-      <c r="I158" s="6"/>
-      <c r="J158" s="6"/>
-      <c r="K158" s="6"/>
-      <c r="L158" s="6"/>
-      <c r="M158" s="6"/>
-      <c r="N158" s="6"/>
-      <c r="O158" s="6"/>
-      <c r="P158" s="6"/>
-      <c r="Q158" s="6"/>
-      <c r="R158" s="6"/>
-      <c r="T158" s="38"/>
-    </row>
-    <row r="159" spans="1:21">
-      <c r="A159" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="6"/>
-      <c r="G159" s="6"/>
-      <c r="H159" s="6"/>
-      <c r="I159" s="6"/>
-      <c r="J159" s="6"/>
-      <c r="K159" s="6"/>
-      <c r="L159" s="6"/>
-      <c r="M159" s="6"/>
-      <c r="N159" s="6"/>
-      <c r="O159" s="6"/>
-      <c r="P159" s="6"/>
-      <c r="Q159" s="16"/>
-      <c r="R159" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S159" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T159" s="38"/>
-      <c r="U159" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21">
-      <c r="A160" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B160" s="6"/>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
-      <c r="G160" s="6"/>
-      <c r="H160" s="6"/>
-      <c r="I160" s="6"/>
-      <c r="J160" s="6"/>
-      <c r="K160" s="6"/>
-      <c r="L160" s="6"/>
-      <c r="M160" s="6"/>
-      <c r="N160" s="6"/>
-      <c r="O160" s="6"/>
-      <c r="P160" s="6"/>
-      <c r="Q160" s="16"/>
-      <c r="R160" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S160" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T160" s="38"/>
-      <c r="U160" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21">
-      <c r="A161" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B161" s="6"/>
-      <c r="C161" s="6"/>
-      <c r="D161" s="6"/>
-      <c r="E161" s="6"/>
-      <c r="F161" s="6"/>
-      <c r="G161" s="6"/>
-      <c r="H161" s="6"/>
-      <c r="I161" s="6"/>
-      <c r="J161" s="6"/>
-      <c r="K161" s="6"/>
-      <c r="L161" s="6"/>
-      <c r="M161" s="6"/>
-      <c r="N161" s="6"/>
-      <c r="O161" s="6"/>
-      <c r="P161" s="6"/>
-      <c r="Q161" s="16"/>
-      <c r="R161" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S161" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T161" s="39"/>
-      <c r="U161" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21">
-      <c r="A162" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B162" s="6"/>
-      <c r="C162" s="6"/>
-      <c r="D162" s="6"/>
-      <c r="E162" s="6"/>
-      <c r="F162" s="6"/>
-      <c r="G162" s="6"/>
-      <c r="H162" s="6"/>
-      <c r="I162" s="6"/>
-      <c r="J162" s="6"/>
-      <c r="K162" s="6"/>
-      <c r="L162" s="6"/>
-      <c r="M162" s="6"/>
-      <c r="N162" s="6"/>
-      <c r="O162" s="6"/>
-      <c r="P162" s="6"/>
-      <c r="Q162" s="16"/>
-      <c r="R162" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S162" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="U162" t="s">
-        <v>34</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="R106:R113"/>
-    <mergeCell ref="T106:T127"/>
-    <mergeCell ref="R131:R138"/>
-    <mergeCell ref="T131:T143"/>
-    <mergeCell ref="R148:R155"/>
-    <mergeCell ref="T148:T161"/>
-    <mergeCell ref="R116:R122"/>
-    <mergeCell ref="S116:S122"/>
+  <mergeCells count="18">
+    <mergeCell ref="R4:R11"/>
+    <mergeCell ref="T11:T17"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="T21:T34"/>
+    <mergeCell ref="R38:R45"/>
+    <mergeCell ref="T38:T51"/>
     <mergeCell ref="T54:T68"/>
     <mergeCell ref="R55:R62"/>
     <mergeCell ref="R72:R79"/>
     <mergeCell ref="T72:T85"/>
     <mergeCell ref="R89:R96"/>
     <mergeCell ref="T89:T102"/>
-    <mergeCell ref="R4:R11"/>
-    <mergeCell ref="T11:T17"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="T21:T34"/>
-    <mergeCell ref="R38:R45"/>
-    <mergeCell ref="T38:T51"/>
+    <mergeCell ref="R106:R113"/>
+    <mergeCell ref="T106:T120"/>
+    <mergeCell ref="R124:R131"/>
+    <mergeCell ref="T124:T136"/>
+    <mergeCell ref="R141:R148"/>
+    <mergeCell ref="T141:T154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8090,36 +8132,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MemoryMap/NI.xlsx
+++ b/MemoryMap/NI.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C020BE4-138A-43E1-88D3-3F66B061EC71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="NI.1" sheetId="4" r:id="rId1"/>
@@ -18,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="S11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -31,7 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -43,14 +42,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="Q14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -66,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="Q15" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="Q16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q17" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="Q17" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="S28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -132,14 +131,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q31" authorId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="Q32" authorId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +169,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q33" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="Q33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -186,7 +185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="Q34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S45" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
+    <comment ref="S45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -221,14 +220,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
+    <comment ref="Q48" authorId="0">
       <text>
         <r>
           <rPr>
@@ -244,7 +243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q49" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
+    <comment ref="Q49" authorId="0">
       <text>
         <r>
           <rPr>
@@ -259,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q50" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
+    <comment ref="Q50" authorId="0">
       <text>
         <r>
           <rPr>
@@ -275,7 +274,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+    <comment ref="Q51" authorId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S62" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
+    <comment ref="S62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -310,14 +309,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q65" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
+    <comment ref="Q65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -333,7 +332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q66" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
+    <comment ref="Q66" authorId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q67" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
+    <comment ref="Q67" authorId="0">
       <text>
         <r>
           <rPr>
@@ -364,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
+    <comment ref="Q68" authorId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
+    <comment ref="S79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -387,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -399,14 +398,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q82" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000016000000}">
+    <comment ref="Q82" authorId="0">
       <text>
         <r>
           <rPr>
@@ -422,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q83" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000017000000}">
+    <comment ref="Q83" authorId="0">
       <text>
         <r>
           <rPr>
@@ -437,7 +436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q84" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000018000000}">
+    <comment ref="Q84" authorId="0">
       <text>
         <r>
           <rPr>
@@ -453,7 +452,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q85" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000019000000}">
+    <comment ref="Q85" authorId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S96" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001A000000}">
+    <comment ref="S96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +475,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -488,14 +487,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q99" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001B000000}">
+    <comment ref="Q99" authorId="0">
       <text>
         <r>
           <rPr>
@@ -511,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q100" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001C000000}">
+    <comment ref="Q100" authorId="0">
       <text>
         <r>
           <rPr>
@@ -526,7 +525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q101" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001D000000}">
+    <comment ref="Q101" authorId="0">
       <text>
         <r>
           <rPr>
@@ -542,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q102" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001E000000}">
+    <comment ref="Q102" authorId="0">
       <text>
         <r>
           <rPr>
@@ -557,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S113" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00001F000000}">
+    <comment ref="S113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -577,14 +576,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q117" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000020000000}">
+    <comment ref="Q116" authorId="0">
       <text>
         <r>
           <rPr>
@@ -600,7 +599,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q118" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000021000000}">
+    <comment ref="Q117" authorId="0">
       <text>
         <r>
           <rPr>
@@ -615,7 +614,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q119" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000022000000}">
+    <comment ref="Q118" authorId="0">
       <text>
         <r>
           <rPr>
@@ -631,7 +630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q120" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000023000000}">
+    <comment ref="Q119" authorId="0">
       <text>
         <r>
           <rPr>
@@ -646,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S131" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000024000000}">
+    <comment ref="S130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -654,7 +653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -666,14 +665,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000025000000}">
+    <comment ref="Q133" authorId="0">
       <text>
         <r>
           <rPr>
@@ -689,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q135" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000026000000}">
+    <comment ref="Q134" authorId="0">
       <text>
         <r>
           <rPr>
@@ -704,7 +703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q136" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000027000000}">
+    <comment ref="Q135" authorId="0">
       <text>
         <r>
           <rPr>
@@ -720,7 +719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q137" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000028000000}">
+    <comment ref="Q136" authorId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S148" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000029000000}">
+    <comment ref="S147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -743,7 +742,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -755,14 +754,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q152" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002A000000}">
+    <comment ref="Q151" authorId="0">
       <text>
         <r>
           <rPr>
@@ -778,7 +777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q153" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002B000000}">
+    <comment ref="Q152" authorId="0">
       <text>
         <r>
           <rPr>
@@ -793,7 +792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q154" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002C000000}">
+    <comment ref="Q153" authorId="0">
       <text>
         <r>
           <rPr>
@@ -809,7 +808,185 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q155" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00002D000000}">
+    <comment ref="Q154" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select LH,RH Type
+1=LH  
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S165" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1=RHD-VAC
+2=RHD-HVAC 
+3=LHD-VAC
+4=LHD-HVAC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q168" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Change Part No . confirm
+NI   Wirte 1 = Change Part No . confirm
+PLC  Wite  0 = Change  complete
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q169" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select LH,RH Type
+ 1=RH
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q170" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Action/don't action
+0= don't action   
+1= Action
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q171" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select LH,RH Type
+1=LH  
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S182" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>1=RHD-VAC
+2=RHD-HVAC 
+3=LHD-VAC
+4=LHD-HVAC</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q193" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> Change Part No . confirm
+NI   Wirte 1 = Change Part No . confirm
+PLC  Wite  0 = Change  complete
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q194" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Select LH,RH Type
+ 1=RH
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q195" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Action/don't action
+0= don't action   
+1= Action
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="206">
   <si>
     <t>Device name</t>
   </si>
@@ -1332,14 +1509,128 @@
     <t>m4123</t>
   </si>
   <si>
-    <t>D8137</t>
+    <t>ST20</t>
+  </si>
+  <si>
+    <t>EOL MACHINE</t>
+  </si>
+  <si>
+    <t>ST21</t>
+  </si>
+  <si>
+    <t>VISUAL CHECK MACHINE</t>
+  </si>
+  <si>
+    <t>CUSTOMER PART NO.</t>
+  </si>
+  <si>
+    <t>M4200</t>
+  </si>
+  <si>
+    <t>M4201</t>
+  </si>
+  <si>
+    <t>M4202</t>
+  </si>
+  <si>
+    <t>D8300</t>
+  </si>
+  <si>
+    <t>D8301</t>
+  </si>
+  <si>
+    <t>D8302</t>
+  </si>
+  <si>
+    <t>D8303</t>
+  </si>
+  <si>
+    <t>D8304</t>
+  </si>
+  <si>
+    <t>D8305</t>
+  </si>
+  <si>
+    <t>D8306</t>
+  </si>
+  <si>
+    <t>D8307</t>
+  </si>
+  <si>
+    <t>D8308</t>
+  </si>
+  <si>
+    <t>D8309</t>
+  </si>
+  <si>
+    <t>D8320</t>
+  </si>
+  <si>
+    <t>D8321</t>
+  </si>
+  <si>
+    <t>D8322</t>
+  </si>
+  <si>
+    <t>D8323</t>
+  </si>
+  <si>
+    <t>D8324</t>
+  </si>
+  <si>
+    <t>D8325</t>
+  </si>
+  <si>
+    <t>D8326</t>
+  </si>
+  <si>
+    <t>D8327</t>
+  </si>
+  <si>
+    <t>D8328</t>
+  </si>
+  <si>
+    <t>D8329</t>
+  </si>
+  <si>
+    <t>D8330</t>
+  </si>
+  <si>
+    <t>D8331</t>
+  </si>
+  <si>
+    <t>D8332</t>
+  </si>
+  <si>
+    <t>D8333</t>
+  </si>
+  <si>
+    <t>D8334</t>
+  </si>
+  <si>
+    <t>D8335</t>
+  </si>
+  <si>
+    <t>D8336</t>
+  </si>
+  <si>
+    <t>D8337</t>
+  </si>
+  <si>
+    <t>M4210</t>
+  </si>
+  <si>
+    <t>M4211</t>
+  </si>
+  <si>
+    <t>M4212</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1375,7 +1666,13 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1390,7 +1687,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1427,8 +1724,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1534,12 +1837,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1612,21 +1926,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1647,13 +1969,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1704,13 +2020,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1761,13 +2071,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1818,13 +2122,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Straight Arrow Connector 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1875,13 +2173,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1932,13 +2224,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1989,13 +2275,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Straight Arrow Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Straight Arrow Connector 7"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2046,13 +2326,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Straight Arrow Connector 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2103,13 +2377,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2160,13 +2428,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2217,13 +2479,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Arrow Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2274,13 +2530,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2331,13 +2581,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2388,13 +2632,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2445,13 +2683,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2502,13 +2734,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="Straight Arrow Connector 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2559,13 +2785,7 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Straight Arrow Connector 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="Straight Arrow Connector 17"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2616,18 +2836,63 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
           <a:off x="6172200" y="20431125"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Straight Arrow Connector 19"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="23402925"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2673,18 +2938,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="20" name="Straight Arrow Connector 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Straight Arrow Connector 20"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="23402925"/>
+          <a:off x="6172200" y="23593425"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2730,18 +2989,675 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="Straight Arrow Connector 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Straight Arrow Connector 21"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="23593425"/>
+          <a:off x="6172200" y="23783925"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Arrow Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="26717625"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Straight Arrow Connector 23"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="26908125"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Straight Arrow Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="27098625"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Straight Arrow Connector 25"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="30222825"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="Straight Arrow Connector 26"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="30413325"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Straight Arrow Connector 27"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="30603825"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="3552825"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Arrow Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="30794325"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="6838950"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Arrow Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="10239375"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Straight Arrow Connector 32"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="13649325"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Straight Arrow Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="17268825"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Arrow Connector 34"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="20640675"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2787,132 +3703,12 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="22" name="Straight Arrow Connector 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="23783925"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>133</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Straight Arrow Connector 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="26717625"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>134</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="26908125"/>
+          <a:off x="6172200" y="23974425"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -2958,13 +3754,160 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="25" name="Straight Arrow Connector 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="Straight Arrow Connector 36"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="27289125"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="Straight Arrow Connector 37"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="26717625"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6172200" y="26908125"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="Straight Arrow Connector 39"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3004,29 +3947,23 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>151</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="26" name="Straight Arrow Connector 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="30222825"/>
+          <a:off x="6172200" y="27289125"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3061,29 +3998,23 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="42" name="Straight Arrow Connector 41"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="30413325"/>
+          <a:off x="6172200" y="33537525"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3118,29 +4049,23 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>153</xdr:row>
+      <xdr:row>193</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Straight Arrow Connector 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="43" name="Straight Arrow Connector 42"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="30603825"/>
+          <a:off x="6172200" y="33728025"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3175,29 +4100,23 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="29" name="Straight Arrow Connector 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="44" name="Straight Arrow Connector 43"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="3552825"/>
+          <a:off x="6172200" y="33918525"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3232,428 +4151,23 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>154</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="30794325"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="6838950"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Straight Arrow Connector 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="10239375"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="13649325"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Arrow Connector 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="17268825"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="Straight Arrow Connector 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="20640675"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="23974425"/>
-          <a:ext cx="295275" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:headEnd type="arrow"/>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>136</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="Straight Arrow Connector 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6172200" y="27289125"/>
+          <a:off x="6172200" y="34109025"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -3730,7 +4244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3762,27 +4276,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3814,24 +4310,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4007,14 +4485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:X155"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:X196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W114" sqref="W114"/>
+    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
+      <selection activeCell="V182" sqref="V182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="17" width="4.7109375" customWidth="1"/>
@@ -4025,7 +4503,7 @@
     <col min="24" max="24" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="15.75">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4043,7 +4521,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4099,7 +4577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4126,7 +4604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="18.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -4151,7 +4629,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4176,7 +4654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4201,7 +4679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -4223,7 +4701,7 @@
       <c r="Q8" s="8"/>
       <c r="R8" s="23"/>
     </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -4245,7 +4723,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -4270,7 +4748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4298,7 +4776,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -4326,7 +4804,7 @@
       </c>
       <c r="T12" s="30"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -4354,7 +4832,7 @@
       </c>
       <c r="T13" s="30"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -4385,7 +4863,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -4416,7 +4894,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -4447,7 +4925,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -4476,7 +4954,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -4532,7 +5010,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -4562,7 +5040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
@@ -4588,7 +5066,7 @@
       </c>
       <c r="T22" s="28"/>
     </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -4612,7 +5090,7 @@
       <c r="S23" s="15"/>
       <c r="T23" s="28"/>
     </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -4638,7 +5116,7 @@
       </c>
       <c r="T24" s="28"/>
     </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -4664,7 +5142,7 @@
       </c>
       <c r="T25" s="28"/>
     </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -4690,7 +5168,7 @@
       </c>
       <c r="T26" s="28"/>
     </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
@@ -4716,7 +5194,7 @@
       </c>
       <c r="T27" s="28"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
@@ -4742,7 +5220,7 @@
       </c>
       <c r="T28" s="28"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -4768,7 +5246,7 @@
       <c r="S29" s="6"/>
       <c r="T29" s="28"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
@@ -4794,7 +5272,7 @@
       <c r="S30" s="6"/>
       <c r="T30" s="28"/>
     </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -4825,7 +5303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="15" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
@@ -4856,7 +5334,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="16.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -4887,7 +5365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
@@ -4918,7 +5396,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -4938,7 +5416,7 @@
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -4958,7 +5436,7 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
     </row>
-    <row r="37" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -5014,7 +5492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
@@ -5042,7 +5520,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -5066,7 +5544,7 @@
       <c r="S39" s="6"/>
       <c r="T39" s="33"/>
     </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
@@ -5090,7 +5568,7 @@
       <c r="S40" s="15"/>
       <c r="T40" s="33"/>
     </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>54</v>
       </c>
@@ -5114,7 +5592,7 @@
       <c r="S41" s="15"/>
       <c r="T41" s="33"/>
     </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>55</v>
       </c>
@@ -5138,7 +5616,7 @@
       <c r="S42" s="15"/>
       <c r="T42" s="33"/>
     </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
@@ -5162,7 +5640,7 @@
       <c r="S43" s="15"/>
       <c r="T43" s="33"/>
     </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>57</v>
       </c>
@@ -5188,7 +5666,7 @@
       </c>
       <c r="T44" s="33"/>
     </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
@@ -5214,7 +5692,7 @@
       </c>
       <c r="T45" s="33"/>
     </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>59</v>
       </c>
@@ -5242,7 +5720,7 @@
       </c>
       <c r="T46" s="33"/>
     </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -5270,7 +5748,7 @@
       </c>
       <c r="T47" s="33"/>
     </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>61</v>
       </c>
@@ -5301,7 +5779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" ht="15" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
@@ -5332,7 +5810,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" ht="21" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
@@ -5363,7 +5841,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" ht="21" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>64</v>
       </c>
@@ -5394,7 +5872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" ht="15.75">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -5460,7 +5938,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" ht="15.75">
       <c r="A55" s="6" t="s">
         <v>68</v>
       </c>
@@ -5492,7 +5970,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" ht="15.75">
       <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
@@ -5522,7 +6000,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" ht="15.75">
       <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
@@ -5552,7 +6030,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -5582,7 +6060,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" ht="15.75">
       <c r="A59" s="6" t="s">
         <v>76</v>
       </c>
@@ -5612,7 +6090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" ht="15.75">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -5642,7 +6120,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="15.75">
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
@@ -5674,7 +6152,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24">
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
@@ -5706,7 +6184,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24">
       <c r="A63" s="6" t="s">
         <v>84</v>
       </c>
@@ -5740,7 +6218,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" ht="15" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>86</v>
       </c>
@@ -5774,7 +6252,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" ht="15" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>88</v>
       </c>
@@ -5811,7 +6289,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" ht="15" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
@@ -5842,7 +6320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" ht="16.5" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>91</v>
       </c>
@@ -5873,7 +6351,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" ht="21" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>92</v>
       </c>
@@ -5904,7 +6382,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" ht="18.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -5960,7 +6438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" ht="18.75" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>93</v>
       </c>
@@ -5988,7 +6466,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" ht="18.75" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>95</v>
       </c>
@@ -6012,7 +6490,7 @@
       <c r="S73" s="6"/>
       <c r="T73" s="30"/>
     </row>
-    <row r="74" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" ht="18.75" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>96</v>
       </c>
@@ -6036,7 +6514,7 @@
       <c r="S74" s="6"/>
       <c r="T74" s="30"/>
     </row>
-    <row r="75" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" ht="18.75" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>97</v>
       </c>
@@ -6060,7 +6538,7 @@
       <c r="S75" s="6"/>
       <c r="T75" s="30"/>
     </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>98</v>
       </c>
@@ -6084,7 +6562,7 @@
       <c r="S76" s="6"/>
       <c r="T76" s="30"/>
     </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
         <v>99</v>
       </c>
@@ -6108,7 +6586,7 @@
       <c r="S77" s="6"/>
       <c r="T77" s="30"/>
     </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>100</v>
       </c>
@@ -6132,7 +6610,7 @@
       <c r="S78" s="6"/>
       <c r="T78" s="30"/>
     </row>
-    <row r="79" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:24" ht="15" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
@@ -6158,7 +6636,7 @@
       </c>
       <c r="T79" s="30"/>
     </row>
-    <row r="80" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:24" ht="15" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>102</v>
       </c>
@@ -6186,7 +6664,7 @@
       </c>
       <c r="T80" s="30"/>
     </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="15" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -6214,7 +6692,7 @@
       </c>
       <c r="T81" s="30"/>
     </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="15" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -6245,7 +6723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="15" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -6276,7 +6754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="18" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>106</v>
       </c>
@@ -6307,7 +6785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="18" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>107</v>
       </c>
@@ -6338,7 +6816,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="15.75">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -6394,7 +6872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="15.75">
       <c r="A89" s="6" t="s">
         <v>108</v>
       </c>
@@ -6422,7 +6900,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>110</v>
       </c>
@@ -6446,7 +6924,7 @@
       <c r="S90" s="6"/>
       <c r="T90" s="28"/>
     </row>
-    <row r="91" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="15.75">
       <c r="A91" s="6" t="s">
         <v>111</v>
       </c>
@@ -6470,7 +6948,7 @@
       <c r="S91" s="6"/>
       <c r="T91" s="28"/>
     </row>
-    <row r="92" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="15.75">
       <c r="A92" s="6" t="s">
         <v>112</v>
       </c>
@@ -6494,7 +6972,7 @@
       <c r="S92" s="6"/>
       <c r="T92" s="28"/>
     </row>
-    <row r="93" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="15.75">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
@@ -6518,7 +6996,7 @@
       <c r="S93" s="6"/>
       <c r="T93" s="28"/>
     </row>
-    <row r="94" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="15.75">
       <c r="A94" s="6" t="s">
         <v>114</v>
       </c>
@@ -6542,7 +7020,7 @@
       <c r="S94" s="6"/>
       <c r="T94" s="28"/>
     </row>
-    <row r="95" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="15.75">
       <c r="A95" s="6" t="s">
         <v>115</v>
       </c>
@@ -6566,7 +7044,7 @@
       <c r="S95" s="6"/>
       <c r="T95" s="28"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21">
       <c r="A96" s="6" t="s">
         <v>116</v>
       </c>
@@ -6592,7 +7070,7 @@
       </c>
       <c r="T96" s="28"/>
     </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>117</v>
       </c>
@@ -6620,7 +7098,7 @@
       </c>
       <c r="T97" s="28"/>
     </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>118</v>
       </c>
@@ -6648,7 +7126,7 @@
       </c>
       <c r="T98" s="28"/>
     </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="15" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
@@ -6679,7 +7157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="15" customHeight="1">
       <c r="A100" s="21" t="s">
         <v>120</v>
       </c>
@@ -6710,7 +7188,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="16.5" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>121</v>
       </c>
@@ -6741,7 +7219,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="s">
         <v>122</v>
       </c>
@@ -6772,7 +7250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="15.75">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -6828,7 +7306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>123</v>
       </c>
@@ -6856,7 +7334,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="15.75">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -6880,7 +7358,7 @@
       <c r="S107" s="22"/>
       <c r="T107" s="24"/>
     </row>
-    <row r="108" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="15.75">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -6904,7 +7382,7 @@
       <c r="S108" s="22"/>
       <c r="T108" s="24"/>
     </row>
-    <row r="109" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="15.75">
       <c r="A109" s="6" t="s">
         <v>127</v>
       </c>
@@ -6928,7 +7406,7 @@
       <c r="S109" s="22"/>
       <c r="T109" s="24"/>
     </row>
-    <row r="110" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="15.75">
       <c r="A110" s="6" t="s">
         <v>128</v>
       </c>
@@ -6952,7 +7430,7 @@
       <c r="S110" s="22"/>
       <c r="T110" s="24"/>
     </row>
-    <row r="111" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="15.75">
       <c r="A111" s="6" t="s">
         <v>129</v>
       </c>
@@ -6976,7 +7454,7 @@
       <c r="S111" s="22"/>
       <c r="T111" s="24"/>
     </row>
-    <row r="112" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="15.75">
       <c r="A112" s="6" t="s">
         <v>130</v>
       </c>
@@ -7000,7 +7478,7 @@
       <c r="S112" s="22"/>
       <c r="T112" s="24"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21">
       <c r="A113" s="6" t="s">
         <v>131</v>
       </c>
@@ -7026,7 +7504,7 @@
       </c>
       <c r="T113" s="24"/>
     </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" ht="15" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>132</v>
       </c>
@@ -7054,7 +7532,7 @@
       </c>
       <c r="T114" s="24"/>
     </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" ht="15" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>133</v>
       </c>
@@ -7082,37 +7560,40 @@
       </c>
       <c r="T115" s="24"/>
     </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" ht="15" customHeight="1">
       <c r="A116" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
+        <v>134</v>
+      </c>
+      <c r="B116" s="15"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="15"/>
+      <c r="K116" s="15"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="15"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="15"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="16"/>
       <c r="R116" s="6" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="S116" s="22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T116" s="24"/>
-    </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U116" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15" customHeight="1">
       <c r="A117" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B117" s="15"/>
       <c r="C117" s="15"/>
@@ -7138,28 +7619,28 @@
       </c>
       <c r="T117" s="24"/>
       <c r="U117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
-      <c r="H118" s="15"/>
-      <c r="I118" s="15"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="15"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="15"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="15"/>
-      <c r="P118" s="15"/>
+        <v>136</v>
+      </c>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="6"/>
+      <c r="K118" s="6"/>
+      <c r="L118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="6"/>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
       <c r="Q118" s="16"/>
       <c r="R118" s="6" t="s">
         <v>27</v>
@@ -7169,12 +7650,12 @@
       </c>
       <c r="T118" s="24"/>
       <c r="U118" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21">
       <c r="A119" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="6"/>
@@ -7200,99 +7681,96 @@
       </c>
       <c r="T119" s="24"/>
       <c r="U119" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A120" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="6"/>
-      <c r="I120" s="6"/>
-      <c r="J120" s="6"/>
-      <c r="K120" s="6"/>
-      <c r="L120" s="6"/>
-      <c r="M120" s="6"/>
-      <c r="N120" s="6"/>
-      <c r="O120" s="6"/>
-      <c r="P120" s="6"/>
-      <c r="Q120" s="16"/>
-      <c r="R120" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S120" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" ht="15.75">
+      <c r="A122" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H122" s="1">
+        <v>9</v>
+      </c>
+      <c r="I122" s="2">
+        <v>8</v>
+      </c>
+      <c r="J122" s="2">
         <v>7</v>
       </c>
-      <c r="T120" s="24"/>
-      <c r="U120" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="3" t="s">
+      <c r="K122" s="2">
+        <v>6</v>
+      </c>
+      <c r="L122" s="2">
+        <v>5</v>
+      </c>
+      <c r="M122" s="2">
+        <v>4</v>
+      </c>
+      <c r="N122" s="2">
+        <v>3</v>
+      </c>
+      <c r="O122" s="2">
+        <v>2</v>
+      </c>
+      <c r="P122" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q122" s="2">
         <v>0</v>
       </c>
-      <c r="B123" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F123" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H123" s="1">
+      <c r="R122" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" ht="15.75">
+      <c r="A123" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="8"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="8"/>
+      <c r="P123" s="8"/>
+      <c r="Q123" s="8"/>
+      <c r="R123" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I123" s="2">
-        <v>8</v>
-      </c>
-      <c r="J123" s="2">
-        <v>7</v>
-      </c>
-      <c r="K123" s="2">
-        <v>6</v>
-      </c>
-      <c r="L123" s="2">
-        <v>5</v>
-      </c>
-      <c r="M123" s="2">
-        <v>4</v>
-      </c>
-      <c r="N123" s="2">
-        <v>3</v>
-      </c>
-      <c r="O123" s="2">
-        <v>2</v>
-      </c>
-      <c r="P123" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="2">
-        <v>0</v>
-      </c>
-      <c r="R123" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S123" s="22"/>
+      <c r="T123" s="24" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" ht="15.75">
       <c r="A124" s="6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -7310,17 +7788,13 @@
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
-      <c r="R124" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="R124" s="23"/>
       <c r="S124" s="22"/>
-      <c r="T124" s="24" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T124" s="24"/>
+    </row>
+    <row r="125" spans="1:21" ht="15.75">
       <c r="A125" s="6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -7342,9 +7816,9 @@
       <c r="S125" s="22"/>
       <c r="T125" s="24"/>
     </row>
-    <row r="126" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" ht="15.75">
       <c r="A126" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -7366,9 +7840,9 @@
       <c r="S126" s="22"/>
       <c r="T126" s="24"/>
     </row>
-    <row r="127" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" ht="15.75">
       <c r="A127" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -7390,9 +7864,9 @@
       <c r="S127" s="22"/>
       <c r="T127" s="24"/>
     </row>
-    <row r="128" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" ht="15.75">
       <c r="A128" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -7414,9 +7888,9 @@
       <c r="S128" s="22"/>
       <c r="T128" s="24"/>
     </row>
-    <row r="129" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" ht="15.75" customHeight="1">
       <c r="A129" s="6" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -7438,59 +7912,63 @@
       <c r="S129" s="22"/>
       <c r="T129" s="24"/>
     </row>
-    <row r="130" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" ht="15" customHeight="1">
       <c r="A130" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
-      <c r="I130" s="8"/>
-      <c r="J130" s="8"/>
-      <c r="K130" s="8"/>
-      <c r="L130" s="8"/>
-      <c r="M130" s="8"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="8"/>
-      <c r="P130" s="8"/>
-      <c r="Q130" s="8"/>
+        <v>146</v>
+      </c>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="17"/>
+      <c r="L130" s="17"/>
+      <c r="M130" s="17"/>
+      <c r="N130" s="17"/>
+      <c r="O130" s="17"/>
+      <c r="P130" s="17"/>
+      <c r="Q130" s="17"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="22"/>
+      <c r="S130" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="T130" s="24"/>
     </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" ht="15" customHeight="1">
       <c r="A131" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="17"/>
-      <c r="K131" s="17"/>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
-      <c r="R131" s="23"/>
-      <c r="S131" s="13" t="s">
-        <v>19</v>
+        <v>147</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+      <c r="H131" s="14"/>
+      <c r="I131" s="14"/>
+      <c r="J131" s="14"/>
+      <c r="K131" s="14"/>
+      <c r="L131" s="14"/>
+      <c r="M131" s="14"/>
+      <c r="N131" s="14"/>
+      <c r="O131" s="14"/>
+      <c r="P131" s="14"/>
+      <c r="Q131" s="14"/>
+      <c r="R131" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S131" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="T131" s="24"/>
     </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" ht="15" customHeight="1">
       <c r="A132" s="6" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B132" s="14"/>
       <c r="C132" s="14"/>
@@ -7509,44 +7987,47 @@
       <c r="P132" s="14"/>
       <c r="Q132" s="14"/>
       <c r="R132" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S132" s="22" t="s">
         <v>23</v>
       </c>
       <c r="T132" s="24"/>
     </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" ht="15" customHeight="1">
       <c r="A133" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B133" s="14"/>
-      <c r="C133" s="14"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="14"/>
-      <c r="K133" s="14"/>
-      <c r="L133" s="14"/>
-      <c r="M133" s="14"/>
-      <c r="N133" s="14"/>
-      <c r="O133" s="14"/>
-      <c r="P133" s="14"/>
-      <c r="Q133" s="14"/>
+        <v>149</v>
+      </c>
+      <c r="B133" s="6"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6"/>
+      <c r="N133" s="6"/>
+      <c r="O133" s="6"/>
+      <c r="P133" s="6"/>
+      <c r="Q133" s="16"/>
       <c r="R133" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="S133" s="22" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="T133" s="24"/>
-    </row>
-    <row r="134" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U133" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21">
       <c r="A134" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B134" s="6"/>
       <c r="C134" s="6"/>
@@ -7572,12 +8053,12 @@
       </c>
       <c r="T134" s="24"/>
       <c r="U134" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21">
       <c r="A135" s="6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B135" s="6"/>
       <c r="C135" s="6"/>
@@ -7603,28 +8084,10 @@
       </c>
       <c r="T135" s="24"/>
       <c r="U135" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A136" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="B136" s="6"/>
-      <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
-      <c r="E136" s="6"/>
-      <c r="F136" s="6"/>
-      <c r="G136" s="6"/>
-      <c r="H136" s="6"/>
-      <c r="I136" s="6"/>
-      <c r="J136" s="6"/>
-      <c r="K136" s="6"/>
-      <c r="L136" s="6"/>
-      <c r="M136" s="6"/>
-      <c r="N136" s="6"/>
-      <c r="O136" s="6"/>
-      <c r="P136" s="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21">
       <c r="Q136" s="16"/>
       <c r="R136" s="6" t="s">
         <v>27</v>
@@ -7632,82 +8095,97 @@
       <c r="S136" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T136" s="24"/>
       <c r="U136" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="Q137" s="16"/>
-      <c r="R137" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S137" s="22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" ht="15.75">
+      <c r="A139" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H139" s="1">
+        <v>9</v>
+      </c>
+      <c r="I139" s="2">
+        <v>8</v>
+      </c>
+      <c r="J139" s="2">
         <v>7</v>
       </c>
-      <c r="U137" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="K139" s="2">
+        <v>6</v>
+      </c>
+      <c r="L139" s="2">
+        <v>5</v>
+      </c>
+      <c r="M139" s="2">
+        <v>4</v>
+      </c>
+      <c r="N139" s="2">
+        <v>3</v>
+      </c>
+      <c r="O139" s="2">
+        <v>2</v>
+      </c>
+      <c r="P139" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q139" s="2">
         <v>0</v>
       </c>
-      <c r="B140" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G140" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H140" s="1">
+      <c r="R139" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" ht="15.75">
+      <c r="A140" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="8"/>
+      <c r="J140" s="8"/>
+      <c r="K140" s="8"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="8"/>
+      <c r="P140" s="8"/>
+      <c r="Q140" s="8"/>
+      <c r="R140" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I140" s="2">
-        <v>8</v>
-      </c>
-      <c r="J140" s="2">
-        <v>7</v>
-      </c>
-      <c r="K140" s="2">
-        <v>6</v>
-      </c>
-      <c r="L140" s="2">
-        <v>5</v>
-      </c>
-      <c r="M140" s="2">
-        <v>4</v>
-      </c>
-      <c r="N140" s="2">
-        <v>3</v>
-      </c>
-      <c r="O140" s="2">
-        <v>2</v>
-      </c>
-      <c r="P140" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q140" s="2">
-        <v>0</v>
-      </c>
-      <c r="R140" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="S140" s="22"/>
+      <c r="T140" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" ht="15.75">
       <c r="A141" s="6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -7725,17 +8203,13 @@
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
-      <c r="R141" s="23" t="s">
-        <v>9</v>
-      </c>
+      <c r="R141" s="23"/>
       <c r="S141" s="22"/>
-      <c r="T141" s="25" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="T141" s="26"/>
+    </row>
+    <row r="142" spans="1:21" ht="15.75">
       <c r="A142" s="6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -7757,9 +8231,9 @@
       <c r="S142" s="22"/>
       <c r="T142" s="26"/>
     </row>
-    <row r="143" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" ht="15.75">
       <c r="A143" s="6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -7781,9 +8255,9 @@
       <c r="S143" s="22"/>
       <c r="T143" s="26"/>
     </row>
-    <row r="144" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" ht="15.75">
       <c r="A144" s="6" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -7805,9 +8279,9 @@
       <c r="S144" s="22"/>
       <c r="T144" s="26"/>
     </row>
-    <row r="145" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:22" ht="15.75">
       <c r="A145" s="6" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -7829,9 +8303,9 @@
       <c r="S145" s="22"/>
       <c r="T145" s="26"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:22" ht="15.75">
       <c r="A146" s="6" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -7853,59 +8327,63 @@
       <c r="S146" s="22"/>
       <c r="T146" s="26"/>
     </row>
-    <row r="147" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:22">
       <c r="A147" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B147" s="7"/>
-      <c r="C147" s="7"/>
-      <c r="D147" s="7"/>
-      <c r="E147" s="7"/>
-      <c r="F147" s="7"/>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
-      <c r="I147" s="8"/>
-      <c r="J147" s="8"/>
-      <c r="K147" s="8"/>
-      <c r="L147" s="8"/>
-      <c r="M147" s="8"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="8"/>
-      <c r="P147" s="8"/>
-      <c r="Q147" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="B147" s="17"/>
+      <c r="C147" s="17"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="17"/>
+      <c r="L147" s="17"/>
+      <c r="M147" s="17"/>
+      <c r="N147" s="17"/>
+      <c r="O147" s="17"/>
+      <c r="P147" s="17"/>
+      <c r="Q147" s="17"/>
       <c r="R147" s="23"/>
-      <c r="S147" s="22"/>
+      <c r="S147" s="13" t="s">
+        <v>19</v>
+      </c>
       <c r="T147" s="26"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:22">
       <c r="A148" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="17"/>
-      <c r="K148" s="17"/>
-      <c r="L148" s="17"/>
-      <c r="M148" s="17"/>
-      <c r="N148" s="17"/>
-      <c r="O148" s="17"/>
-      <c r="P148" s="17"/>
-      <c r="Q148" s="17"/>
-      <c r="R148" s="23"/>
-      <c r="S148" s="13" t="s">
-        <v>19</v>
+        <v>161</v>
+      </c>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+      <c r="H148" s="14"/>
+      <c r="I148" s="14"/>
+      <c r="J148" s="14"/>
+      <c r="K148" s="14"/>
+      <c r="L148" s="14"/>
+      <c r="M148" s="14"/>
+      <c r="N148" s="14"/>
+      <c r="O148" s="14"/>
+      <c r="P148" s="14"/>
+      <c r="Q148" s="14"/>
+      <c r="R148" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S148" s="22" t="s">
+        <v>23</v>
       </c>
       <c r="T148" s="26"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:22">
       <c r="A149" s="6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B149" s="14"/>
       <c r="C149" s="14"/>
@@ -7924,43 +8402,38 @@
       <c r="P149" s="14"/>
       <c r="Q149" s="14"/>
       <c r="R149" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="S149" s="22" t="s">
         <v>23</v>
       </c>
       <c r="T149" s="26"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B150" s="14"/>
-      <c r="C150" s="14"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="14"/>
-      <c r="K150" s="14"/>
-      <c r="L150" s="14"/>
-      <c r="M150" s="14"/>
-      <c r="N150" s="14"/>
-      <c r="O150" s="14"/>
-      <c r="P150" s="14"/>
-      <c r="Q150" s="14"/>
-      <c r="R150" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S150" s="22" t="s">
-        <v>23</v>
-      </c>
+    <row r="150" spans="1:22">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="6"/>
+      <c r="H150" s="6"/>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="6"/>
+      <c r="M150" s="6"/>
+      <c r="N150" s="6"/>
+      <c r="O150" s="6"/>
+      <c r="P150" s="6"/>
+      <c r="Q150" s="6"/>
+      <c r="R150" s="6"/>
       <c r="T150" s="26"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
+    <row r="151" spans="1:22">
+      <c r="A151" s="6" t="s">
+        <v>163</v>
+      </c>
       <c r="B151" s="6"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -7976,13 +8449,21 @@
       <c r="N151" s="6"/>
       <c r="O151" s="6"/>
       <c r="P151" s="6"/>
-      <c r="Q151" s="6"/>
-      <c r="R151" s="6"/>
+      <c r="Q151" s="16"/>
+      <c r="R151" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S151" s="22" t="s">
+        <v>7</v>
+      </c>
       <c r="T151" s="26"/>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:22">
       <c r="A152" s="6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B152" s="6"/>
       <c r="C152" s="6"/>
@@ -8008,12 +8489,12 @@
       </c>
       <c r="T152" s="26"/>
       <c r="U152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="153" spans="1:22">
       <c r="A153" s="6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B153" s="6"/>
       <c r="C153" s="6"/>
@@ -8037,14 +8518,14 @@
       <c r="S153" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T153" s="26"/>
+      <c r="T153" s="27"/>
       <c r="U153" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:22">
       <c r="A154" s="6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B154" s="6"/>
       <c r="C154" s="6"/>
@@ -8068,43 +8549,1053 @@
       <c r="S154" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T154" s="27"/>
       <c r="U154" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:22" ht="15.75">
+      <c r="A157" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H157" s="1">
+        <v>9</v>
+      </c>
+      <c r="I157" s="2">
+        <v>8</v>
+      </c>
+      <c r="J157" s="2">
+        <v>7</v>
+      </c>
+      <c r="K157" s="2">
+        <v>6</v>
+      </c>
+      <c r="L157" s="2">
+        <v>5</v>
+      </c>
+      <c r="M157" s="2">
+        <v>4</v>
+      </c>
+      <c r="N157" s="2">
+        <v>3</v>
+      </c>
+      <c r="O157" s="2">
+        <v>2</v>
+      </c>
+      <c r="P157" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>0</v>
+      </c>
+      <c r="R157" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="158" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A158" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="7"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7"/>
+      <c r="I158" s="8"/>
+      <c r="J158" s="8"/>
+      <c r="K158" s="8"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="8"/>
+      <c r="P158" s="8"/>
+      <c r="Q158" s="8"/>
+      <c r="R158" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S158" s="22"/>
+      <c r="T158" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="U158" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="V158" s="34"/>
+    </row>
+    <row r="159" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A159" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="7"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7"/>
+      <c r="H159" s="7"/>
+      <c r="I159" s="8"/>
+      <c r="J159" s="8"/>
+      <c r="K159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="8"/>
+      <c r="P159" s="8"/>
+      <c r="Q159" s="8"/>
+      <c r="R159" s="23"/>
+      <c r="S159" s="22"/>
+      <c r="T159" s="24"/>
+    </row>
+    <row r="160" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A160" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7"/>
+      <c r="H160" s="7"/>
+      <c r="I160" s="8"/>
+      <c r="J160" s="8"/>
+      <c r="K160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="8"/>
+      <c r="P160" s="8"/>
+      <c r="Q160" s="8"/>
+      <c r="R160" s="23"/>
+      <c r="S160" s="22"/>
+      <c r="T160" s="24"/>
+    </row>
+    <row r="161" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A161" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="7"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7"/>
+      <c r="I161" s="8"/>
+      <c r="J161" s="8"/>
+      <c r="K161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="8"/>
+      <c r="P161" s="8"/>
+      <c r="Q161" s="8"/>
+      <c r="R161" s="23"/>
+      <c r="S161" s="22"/>
+      <c r="T161" s="24"/>
+    </row>
+    <row r="162" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A162" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" s="7"/>
+      <c r="C162" s="7"/>
+      <c r="D162" s="7"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7"/>
+      <c r="I162" s="8"/>
+      <c r="J162" s="8"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="23"/>
+      <c r="S162" s="22"/>
+      <c r="T162" s="24"/>
+    </row>
+    <row r="163" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A163" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="7"/>
+      <c r="I163" s="8"/>
+      <c r="J163" s="8"/>
+      <c r="K163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="8"/>
+      <c r="P163" s="8"/>
+      <c r="Q163" s="8"/>
+      <c r="R163" s="23"/>
+      <c r="S163" s="22"/>
+      <c r="T163" s="24"/>
+    </row>
+    <row r="164" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A164" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="8"/>
+      <c r="J164" s="8"/>
+      <c r="K164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="8"/>
+      <c r="P164" s="8"/>
+      <c r="Q164" s="8"/>
+      <c r="R164" s="23"/>
+      <c r="S164" s="22"/>
+      <c r="T164" s="24"/>
+    </row>
+    <row r="165" spans="1:22" ht="15" customHeight="1">
+      <c r="A165" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" s="17"/>
+      <c r="C165" s="17"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="17"/>
+      <c r="L165" s="17"/>
+      <c r="M165" s="17"/>
+      <c r="N165" s="17"/>
+      <c r="O165" s="17"/>
+      <c r="P165" s="17"/>
+      <c r="Q165" s="17"/>
+      <c r="R165" s="23"/>
+      <c r="S165" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T165" s="24"/>
+    </row>
+    <row r="166" spans="1:22" ht="15" customHeight="1">
+      <c r="A166" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+      <c r="H166" s="14"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="14"/>
+      <c r="K166" s="14"/>
+      <c r="L166" s="14"/>
+      <c r="M166" s="14"/>
+      <c r="N166" s="14"/>
+      <c r="O166" s="14"/>
+      <c r="P166" s="14"/>
+      <c r="Q166" s="14"/>
+      <c r="R166" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S166" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T166" s="24"/>
+    </row>
+    <row r="167" spans="1:22" ht="15" customHeight="1">
+      <c r="A167" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+      <c r="H167" s="14"/>
+      <c r="I167" s="14"/>
+      <c r="J167" s="14"/>
+      <c r="K167" s="14"/>
+      <c r="L167" s="14"/>
+      <c r="M167" s="14"/>
+      <c r="N167" s="14"/>
+      <c r="O167" s="14"/>
+      <c r="P167" s="14"/>
+      <c r="Q167" s="14"/>
+      <c r="R167" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S167" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T167" s="24"/>
+    </row>
+    <row r="168" spans="1:22" ht="15" customHeight="1">
+      <c r="A168" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168" s="6"/>
+      <c r="C168" s="6"/>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6"/>
+      <c r="N168" s="6"/>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6"/>
+      <c r="Q168" s="16"/>
+      <c r="R168" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S168" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T168" s="24"/>
+      <c r="U168" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:22" ht="15" customHeight="1">
+      <c r="A169" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169" s="6"/>
+      <c r="C169" s="6"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6"/>
+      <c r="N169" s="6"/>
+      <c r="O169" s="6"/>
+      <c r="P169" s="6"/>
+      <c r="Q169" s="16"/>
+      <c r="R169" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S169" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T169" s="24"/>
+      <c r="U169" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:22" ht="15" customHeight="1">
+      <c r="A170" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170" s="6"/>
+      <c r="C170" s="6"/>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6"/>
+      <c r="N170" s="6"/>
+      <c r="O170" s="6"/>
+      <c r="P170" s="6"/>
+      <c r="Q170" s="16"/>
+      <c r="R170" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S170" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T170" s="24"/>
+      <c r="U170" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A155" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" s="6"/>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="6"/>
-      <c r="G155" s="6"/>
-      <c r="H155" s="6"/>
-      <c r="I155" s="6"/>
-      <c r="J155" s="6"/>
-      <c r="K155" s="6"/>
-      <c r="L155" s="6"/>
-      <c r="M155" s="6"/>
-      <c r="N155" s="6"/>
-      <c r="O155" s="6"/>
-      <c r="P155" s="6"/>
-      <c r="Q155" s="16"/>
-      <c r="R155" s="6" t="s">
+    <row r="171" spans="1:22">
+      <c r="Q171" s="16"/>
+      <c r="R171" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S155" s="22" t="s">
+      <c r="S171" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U155" t="s">
+      <c r="T171" s="24"/>
+      <c r="U171" t="s">
         <v>34</v>
       </c>
     </row>
+    <row r="174" spans="1:22" ht="15.75">
+      <c r="A174" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H174" s="1">
+        <v>9</v>
+      </c>
+      <c r="I174" s="2">
+        <v>8</v>
+      </c>
+      <c r="J174" s="2">
+        <v>7</v>
+      </c>
+      <c r="K174" s="2">
+        <v>6</v>
+      </c>
+      <c r="L174" s="2">
+        <v>5</v>
+      </c>
+      <c r="M174" s="2">
+        <v>4</v>
+      </c>
+      <c r="N174" s="2">
+        <v>3</v>
+      </c>
+      <c r="O174" s="2">
+        <v>2</v>
+      </c>
+      <c r="P174" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="2">
+        <v>0</v>
+      </c>
+      <c r="R174" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175" spans="1:22" ht="15.75">
+      <c r="A175" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" s="7"/>
+      <c r="C175" s="7"/>
+      <c r="D175" s="7"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7"/>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="8"/>
+      <c r="J175" s="8"/>
+      <c r="K175" s="8"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
+      <c r="N175" s="8"/>
+      <c r="O175" s="8"/>
+      <c r="P175" s="8"/>
+      <c r="Q175" s="8"/>
+      <c r="R175" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S175" s="22"/>
+      <c r="T175" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="U175" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="V175" s="34"/>
+    </row>
+    <row r="176" spans="1:22" ht="15.75">
+      <c r="A176" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176" s="7"/>
+      <c r="C176" s="7"/>
+      <c r="D176" s="7"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7"/>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="8"/>
+      <c r="J176" s="8"/>
+      <c r="K176" s="8"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="8"/>
+      <c r="N176" s="8"/>
+      <c r="O176" s="8"/>
+      <c r="P176" s="8"/>
+      <c r="Q176" s="8"/>
+      <c r="R176" s="23"/>
+      <c r="S176" s="22"/>
+      <c r="T176" s="24"/>
+    </row>
+    <row r="177" spans="1:20" ht="15.75">
+      <c r="A177" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" s="7"/>
+      <c r="C177" s="7"/>
+      <c r="D177" s="7"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7"/>
+      <c r="H177" s="7"/>
+      <c r="I177" s="8"/>
+      <c r="J177" s="8"/>
+      <c r="K177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="8"/>
+      <c r="N177" s="8"/>
+      <c r="O177" s="8"/>
+      <c r="P177" s="8"/>
+      <c r="Q177" s="8"/>
+      <c r="R177" s="23"/>
+      <c r="S177" s="22"/>
+      <c r="T177" s="24"/>
+    </row>
+    <row r="178" spans="1:20" ht="15.75">
+      <c r="A178" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" s="7"/>
+      <c r="C178" s="7"/>
+      <c r="D178" s="7"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7"/>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="8"/>
+      <c r="J178" s="8"/>
+      <c r="K178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="8"/>
+      <c r="N178" s="8"/>
+      <c r="O178" s="8"/>
+      <c r="P178" s="8"/>
+      <c r="Q178" s="8"/>
+      <c r="R178" s="23"/>
+      <c r="S178" s="22"/>
+      <c r="T178" s="24"/>
+    </row>
+    <row r="179" spans="1:20" ht="15.75">
+      <c r="A179" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" s="7"/>
+      <c r="C179" s="7"/>
+      <c r="D179" s="7"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7"/>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="8"/>
+      <c r="J179" s="8"/>
+      <c r="K179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
+      <c r="N179" s="8"/>
+      <c r="O179" s="8"/>
+      <c r="P179" s="8"/>
+      <c r="Q179" s="8"/>
+      <c r="R179" s="23"/>
+      <c r="S179" s="22"/>
+      <c r="T179" s="24"/>
+    </row>
+    <row r="180" spans="1:20" ht="15.75">
+      <c r="A180" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" s="7"/>
+      <c r="C180" s="7"/>
+      <c r="D180" s="7"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7"/>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+      <c r="Q180" s="8"/>
+      <c r="R180" s="23"/>
+      <c r="S180" s="22"/>
+      <c r="T180" s="24"/>
+    </row>
+    <row r="181" spans="1:20" ht="15.75">
+      <c r="A181" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" s="7"/>
+      <c r="C181" s="7"/>
+      <c r="D181" s="7"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7"/>
+      <c r="H181" s="7"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="8"/>
+      <c r="P181" s="8"/>
+      <c r="Q181" s="8"/>
+      <c r="R181" s="23"/>
+      <c r="S181" s="22"/>
+      <c r="T181" s="24"/>
+    </row>
+    <row r="182" spans="1:20">
+      <c r="A182" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B182" s="17"/>
+      <c r="C182" s="17"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
+      <c r="F182" s="17"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="17"/>
+      <c r="K182" s="17"/>
+      <c r="L182" s="17"/>
+      <c r="M182" s="17"/>
+      <c r="N182" s="17"/>
+      <c r="O182" s="17"/>
+      <c r="P182" s="17"/>
+      <c r="Q182" s="17"/>
+      <c r="R182" s="23"/>
+      <c r="S182" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="T182" s="24"/>
+    </row>
+    <row r="183" spans="1:20">
+      <c r="A183" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" s="12"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="12"/>
+      <c r="F183" s="12"/>
+      <c r="G183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="I183" s="12"/>
+      <c r="J183" s="12"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="12"/>
+      <c r="N183" s="12"/>
+      <c r="O183" s="12"/>
+      <c r="P183" s="12"/>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="37" t="s">
+        <v>171</v>
+      </c>
+      <c r="S183" s="35"/>
+      <c r="T183" s="24"/>
+    </row>
+    <row r="184" spans="1:20">
+      <c r="A184" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" s="12"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="12"/>
+      <c r="F184" s="12"/>
+      <c r="G184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="I184" s="12"/>
+      <c r="J184" s="12"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="12"/>
+      <c r="N184" s="12"/>
+      <c r="O184" s="12"/>
+      <c r="P184" s="12"/>
+      <c r="Q184" s="12"/>
+      <c r="R184" s="38"/>
+      <c r="S184" s="35"/>
+      <c r="T184" s="24"/>
+    </row>
+    <row r="185" spans="1:20">
+      <c r="A185" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" s="12"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="12"/>
+      <c r="F185" s="12"/>
+      <c r="G185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="I185" s="12"/>
+      <c r="J185" s="12"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="12"/>
+      <c r="N185" s="12"/>
+      <c r="O185" s="12"/>
+      <c r="P185" s="12"/>
+      <c r="Q185" s="12"/>
+      <c r="R185" s="38"/>
+      <c r="S185" s="35"/>
+      <c r="T185" s="24"/>
+    </row>
+    <row r="186" spans="1:20">
+      <c r="A186" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" s="12"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="12"/>
+      <c r="F186" s="12"/>
+      <c r="G186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="I186" s="12"/>
+      <c r="J186" s="12"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="12"/>
+      <c r="N186" s="12"/>
+      <c r="O186" s="12"/>
+      <c r="P186" s="12"/>
+      <c r="Q186" s="12"/>
+      <c r="R186" s="38"/>
+      <c r="S186" s="35"/>
+      <c r="T186" s="24"/>
+    </row>
+    <row r="187" spans="1:20">
+      <c r="A187" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" s="12"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="12"/>
+      <c r="F187" s="12"/>
+      <c r="G187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="I187" s="12"/>
+      <c r="J187" s="12"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="12"/>
+      <c r="N187" s="12"/>
+      <c r="O187" s="12"/>
+      <c r="P187" s="12"/>
+      <c r="Q187" s="12"/>
+      <c r="R187" s="38"/>
+      <c r="S187" s="35"/>
+      <c r="T187" s="24"/>
+    </row>
+    <row r="188" spans="1:20">
+      <c r="A188" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" s="12"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="12"/>
+      <c r="F188" s="12"/>
+      <c r="G188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="I188" s="12"/>
+      <c r="J188" s="12"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="12"/>
+      <c r="N188" s="12"/>
+      <c r="O188" s="12"/>
+      <c r="P188" s="12"/>
+      <c r="Q188" s="12"/>
+      <c r="R188" s="38"/>
+      <c r="S188" s="35"/>
+      <c r="T188" s="24"/>
+    </row>
+    <row r="189" spans="1:20">
+      <c r="A189" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" s="12"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="12"/>
+      <c r="F189" s="12"/>
+      <c r="G189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="I189" s="12"/>
+      <c r="J189" s="12"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="12"/>
+      <c r="N189" s="12"/>
+      <c r="O189" s="12"/>
+      <c r="P189" s="12"/>
+      <c r="Q189" s="12"/>
+      <c r="R189" s="38"/>
+      <c r="S189" s="35"/>
+      <c r="T189" s="24"/>
+    </row>
+    <row r="190" spans="1:20">
+      <c r="A190" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" s="12"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="12"/>
+      <c r="F190" s="12"/>
+      <c r="G190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="I190" s="12"/>
+      <c r="J190" s="12"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="12"/>
+      <c r="N190" s="12"/>
+      <c r="O190" s="12"/>
+      <c r="P190" s="12"/>
+      <c r="Q190" s="12"/>
+      <c r="R190" s="39"/>
+      <c r="S190" s="35"/>
+      <c r="T190" s="24"/>
+    </row>
+    <row r="191" spans="1:20">
+      <c r="A191" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="14"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="14"/>
+      <c r="N191" s="14"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
+      <c r="R191" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="S191" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T191" s="24"/>
+    </row>
+    <row r="192" spans="1:20">
+      <c r="A192" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" s="14"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="14"/>
+      <c r="F192" s="14"/>
+      <c r="G192" s="14"/>
+      <c r="H192" s="14"/>
+      <c r="I192" s="14"/>
+      <c r="J192" s="14"/>
+      <c r="K192" s="14"/>
+      <c r="L192" s="14"/>
+      <c r="M192" s="14"/>
+      <c r="N192" s="14"/>
+      <c r="O192" s="14"/>
+      <c r="P192" s="14"/>
+      <c r="Q192" s="14"/>
+      <c r="R192" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S192" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="T192" s="24"/>
+    </row>
+    <row r="193" spans="1:21">
+      <c r="A193" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193" s="6"/>
+      <c r="C193" s="6"/>
+      <c r="D193" s="6"/>
+      <c r="E193" s="6"/>
+      <c r="F193" s="6"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6"/>
+      <c r="N193" s="6"/>
+      <c r="O193" s="6"/>
+      <c r="P193" s="6"/>
+      <c r="Q193" s="16"/>
+      <c r="R193" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S193" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T193" s="24"/>
+      <c r="U193" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
+      <c r="A194" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" s="6"/>
+      <c r="C194" s="6"/>
+      <c r="D194" s="6"/>
+      <c r="E194" s="6"/>
+      <c r="F194" s="6"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="6"/>
+      <c r="L194" s="6"/>
+      <c r="M194" s="6"/>
+      <c r="N194" s="6"/>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6"/>
+      <c r="Q194" s="16"/>
+      <c r="R194" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S194" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T194" s="24"/>
+      <c r="U194" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
+      <c r="A195" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B195" s="6"/>
+      <c r="C195" s="6"/>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6"/>
+      <c r="F195" s="6"/>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="6"/>
+      <c r="L195" s="6"/>
+      <c r="M195" s="6"/>
+      <c r="N195" s="6"/>
+      <c r="O195" s="6"/>
+      <c r="P195" s="6"/>
+      <c r="Q195" s="16"/>
+      <c r="R195" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S195" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T195" s="24"/>
+      <c r="U195" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
+      <c r="Q196" s="16"/>
+      <c r="R196" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S196" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T196" s="24"/>
+      <c r="U196" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="25">
+    <mergeCell ref="R158:R165"/>
+    <mergeCell ref="U158:V158"/>
+    <mergeCell ref="T158:T171"/>
+    <mergeCell ref="R175:R182"/>
+    <mergeCell ref="T175:T196"/>
+    <mergeCell ref="U175:V175"/>
+    <mergeCell ref="R183:R190"/>
     <mergeCell ref="R4:R11"/>
     <mergeCell ref="T11:T17"/>
     <mergeCell ref="R21:R28"/>
@@ -8118,11 +9609,11 @@
     <mergeCell ref="R89:R96"/>
     <mergeCell ref="T89:T102"/>
     <mergeCell ref="R106:R113"/>
-    <mergeCell ref="T106:T120"/>
-    <mergeCell ref="R124:R131"/>
-    <mergeCell ref="T124:T136"/>
-    <mergeCell ref="R141:R148"/>
-    <mergeCell ref="T141:T154"/>
+    <mergeCell ref="T106:T119"/>
+    <mergeCell ref="R123:R130"/>
+    <mergeCell ref="T123:T135"/>
+    <mergeCell ref="R140:R147"/>
+    <mergeCell ref="T140:T153"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8132,36 +9623,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MemoryMap/NI.xlsx
+++ b/MemoryMap/NI.xlsx
@@ -850,7 +850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q168" authorId="0">
+    <comment ref="Q169" authorId="0">
       <text>
         <r>
           <rPr>
@@ -866,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q169" authorId="0">
+    <comment ref="Q170" authorId="0">
       <text>
         <r>
           <rPr>
@@ -881,7 +881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q170" authorId="0">
+    <comment ref="Q171" authorId="0">
       <text>
         <r>
           <rPr>
@@ -897,7 +897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q171" authorId="0">
+    <comment ref="Q172" authorId="0">
       <text>
         <r>
           <rPr>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S182" authorId="0">
+    <comment ref="S183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -939,7 +939,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q193" authorId="0">
+    <comment ref="Q196" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q194" authorId="0">
+    <comment ref="Q197" authorId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q195" authorId="0">
+    <comment ref="Q198" authorId="0">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q196" authorId="0">
+    <comment ref="Q199" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="211">
   <si>
     <t>Device name</t>
   </si>
@@ -1624,13 +1624,28 @@
   </si>
   <si>
     <t>M4212</t>
+  </si>
+  <si>
+    <t>D8338</t>
+  </si>
+  <si>
+    <t>CAMERA NO.</t>
+  </si>
+  <si>
+    <t>D8310</t>
+  </si>
+  <si>
+    <t>D8339</t>
+  </si>
+  <si>
+    <t>PRODUCT PLAN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1686,8 +1701,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1727,6 +1749,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1893,6 +1921,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1926,11 +1957,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3794,13 +3824,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>167</xdr:row>
+      <xdr:row>168</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3845,13 +3875,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>168</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3896,13 +3926,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>169</xdr:row>
+      <xdr:row>170</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3947,13 +3977,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>170</xdr:row>
+      <xdr:row>171</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3998,13 +4028,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>192</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4049,13 +4079,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>196</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4100,13 +4130,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>194</xdr:row>
+      <xdr:row>197</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4151,13 +4181,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4486,17 +4516,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X196"/>
+  <dimension ref="A2:X199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="V182" sqref="V182"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="A171" sqref="A171:XFD171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="17" width="4.7109375" customWidth="1"/>
-    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
     <col min="20" max="20" width="10.85546875" customWidth="1"/>
     <col min="22" max="22" width="20.140625" customWidth="1"/>
     <col min="23" max="23" width="11.7109375" customWidth="1"/>
@@ -4597,7 +4627,7 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="23" t="s">
+      <c r="R4" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S4" s="9" t="s">
@@ -4624,7 +4654,7 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="23"/>
+      <c r="R5" s="26"/>
       <c r="S5" s="9">
         <v>23</v>
       </c>
@@ -4649,7 +4679,7 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="23"/>
+      <c r="R6" s="26"/>
       <c r="S6" s="9">
         <v>45</v>
       </c>
@@ -4674,7 +4704,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="23"/>
+      <c r="R7" s="26"/>
       <c r="S7" s="9">
         <v>6</v>
       </c>
@@ -4699,7 +4729,7 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="23"/>
+      <c r="R8" s="26"/>
     </row>
     <row r="9" spans="1:21" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
@@ -4721,7 +4751,7 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="23"/>
+      <c r="R9" s="26"/>
     </row>
     <row r="10" spans="1:21" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
@@ -4743,7 +4773,7 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="23"/>
+      <c r="R10" s="26"/>
       <c r="S10" t="s">
         <v>17</v>
       </c>
@@ -4768,11 +4798,11 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="23"/>
+      <c r="R11" s="26"/>
       <c r="S11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="29" t="s">
+      <c r="T11" s="32" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4802,7 +4832,7 @@
       <c r="S12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="30"/>
+      <c r="T12" s="33"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="6" t="s">
@@ -4830,7 +4860,7 @@
       <c r="S13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="30"/>
+      <c r="T13" s="33"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="6" t="s">
@@ -4858,7 +4888,7 @@
       <c r="S14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="30"/>
+      <c r="T14" s="33"/>
       <c r="U14" t="s">
         <v>28</v>
       </c>
@@ -4889,7 +4919,7 @@
       <c r="S15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="30"/>
+      <c r="T15" s="33"/>
       <c r="U15" t="s">
         <v>30</v>
       </c>
@@ -4920,7 +4950,7 @@
       <c r="S16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="30"/>
+      <c r="T16" s="33"/>
       <c r="U16" t="s">
         <v>32</v>
       </c>
@@ -4949,7 +4979,7 @@
         <v>27</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="31"/>
+      <c r="T17" s="34"/>
       <c r="U17" t="s">
         <v>34</v>
       </c>
@@ -5030,13 +5060,13 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="23" t="s">
+      <c r="R21" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="28" t="s">
+      <c r="T21" s="31" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5060,11 +5090,11 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="23"/>
+      <c r="R22" s="26"/>
       <c r="S22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="28"/>
+      <c r="T22" s="31"/>
     </row>
     <row r="23" spans="1:21" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
@@ -5086,9 +5116,9 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="23"/>
+      <c r="R23" s="26"/>
       <c r="S23" s="15"/>
-      <c r="T23" s="28"/>
+      <c r="T23" s="31"/>
     </row>
     <row r="24" spans="1:21" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
@@ -5110,11 +5140,11 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="23"/>
+      <c r="R24" s="26"/>
       <c r="S24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="28"/>
+      <c r="T24" s="31"/>
     </row>
     <row r="25" spans="1:21" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
@@ -5136,11 +5166,11 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="23"/>
+      <c r="R25" s="26"/>
       <c r="S25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="28"/>
+      <c r="T25" s="31"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
@@ -5162,11 +5192,11 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="23"/>
+      <c r="R26" s="26"/>
       <c r="S26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="28"/>
+      <c r="T26" s="31"/>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
@@ -5188,11 +5218,11 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="23"/>
+      <c r="R27" s="26"/>
       <c r="S27" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="28"/>
+      <c r="T27" s="31"/>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="6" t="s">
@@ -5214,11 +5244,11 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="23"/>
+      <c r="R28" s="26"/>
       <c r="S28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="28"/>
+      <c r="T28" s="31"/>
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="6" t="s">
@@ -5244,7 +5274,7 @@
         <v>22</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="28"/>
+      <c r="T29" s="31"/>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="6" t="s">
@@ -5270,7 +5300,7 @@
         <v>25</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="28"/>
+      <c r="T30" s="31"/>
     </row>
     <row r="31" spans="1:21" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
@@ -5298,7 +5328,7 @@
       <c r="S31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T31" s="28"/>
+      <c r="T31" s="31"/>
       <c r="U31" t="s">
         <v>28</v>
       </c>
@@ -5329,7 +5359,7 @@
       <c r="S32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="28"/>
+      <c r="T32" s="31"/>
       <c r="U32" t="s">
         <v>30</v>
       </c>
@@ -5360,7 +5390,7 @@
       <c r="S33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="28"/>
+      <c r="T33" s="31"/>
       <c r="U33" t="s">
         <v>32</v>
       </c>
@@ -5391,7 +5421,7 @@
       <c r="S34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T34" s="28"/>
+      <c r="T34" s="31"/>
       <c r="U34" t="s">
         <v>34</v>
       </c>
@@ -5512,11 +5542,11 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="23" t="s">
+      <c r="R38" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S38" s="6"/>
-      <c r="T38" s="32" t="s">
+      <c r="T38" s="35" t="s">
         <v>51</v>
       </c>
     </row>
@@ -5540,9 +5570,9 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-      <c r="R39" s="23"/>
+      <c r="R39" s="26"/>
       <c r="S39" s="6"/>
-      <c r="T39" s="33"/>
+      <c r="T39" s="36"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
@@ -5564,9 +5594,9 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="23"/>
+      <c r="R40" s="26"/>
       <c r="S40" s="15"/>
-      <c r="T40" s="33"/>
+      <c r="T40" s="36"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
@@ -5588,9 +5618,9 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="23"/>
+      <c r="R41" s="26"/>
       <c r="S41" s="15"/>
-      <c r="T41" s="33"/>
+      <c r="T41" s="36"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
@@ -5612,9 +5642,9 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="23"/>
+      <c r="R42" s="26"/>
       <c r="S42" s="15"/>
-      <c r="T42" s="33"/>
+      <c r="T42" s="36"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
@@ -5636,9 +5666,9 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
-      <c r="R43" s="23"/>
+      <c r="R43" s="26"/>
       <c r="S43" s="15"/>
-      <c r="T43" s="33"/>
+      <c r="T43" s="36"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
@@ -5660,11 +5690,11 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
-      <c r="R44" s="23"/>
+      <c r="R44" s="26"/>
       <c r="S44" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="33"/>
+      <c r="T44" s="36"/>
     </row>
     <row r="45" spans="1:21" ht="15" customHeight="1">
       <c r="A45" s="6" t="s">
@@ -5686,11 +5716,11 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="23"/>
+      <c r="R45" s="26"/>
       <c r="S45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="33"/>
+      <c r="T45" s="36"/>
     </row>
     <row r="46" spans="1:21" ht="15" customHeight="1">
       <c r="A46" s="6" t="s">
@@ -5718,7 +5748,7 @@
       <c r="S46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="33"/>
+      <c r="T46" s="36"/>
     </row>
     <row r="47" spans="1:21" ht="15" customHeight="1">
       <c r="A47" s="6" t="s">
@@ -5746,7 +5776,7 @@
       <c r="S47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T47" s="33"/>
+      <c r="T47" s="36"/>
     </row>
     <row r="48" spans="1:21" ht="15" customHeight="1">
       <c r="A48" s="6" t="s">
@@ -5774,7 +5804,7 @@
       <c r="S48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T48" s="33"/>
+      <c r="T48" s="36"/>
       <c r="U48" t="s">
         <v>28</v>
       </c>
@@ -5805,7 +5835,7 @@
       <c r="S49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T49" s="33"/>
+      <c r="T49" s="36"/>
       <c r="U49" t="s">
         <v>30</v>
       </c>
@@ -5836,7 +5866,7 @@
       <c r="S50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T50" s="33"/>
+      <c r="T50" s="36"/>
       <c r="U50" t="s">
         <v>32</v>
       </c>
@@ -5867,7 +5897,7 @@
       <c r="S51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="33"/>
+      <c r="T51" s="36"/>
       <c r="U51" t="s">
         <v>34</v>
       </c>
@@ -5928,7 +5958,7 @@
         <v>7</v>
       </c>
       <c r="S54" s="6"/>
-      <c r="T54" s="28" t="s">
+      <c r="T54" s="31" t="s">
         <v>65</v>
       </c>
       <c r="W54" s="20" t="s">
@@ -5958,11 +5988,11 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-      <c r="R55" s="23" t="s">
+      <c r="R55" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S55" s="6"/>
-      <c r="T55" s="28"/>
+      <c r="T55" s="31"/>
       <c r="W55" s="20">
         <v>2</v>
       </c>
@@ -5990,9 +6020,9 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-      <c r="R56" s="23"/>
+      <c r="R56" s="26"/>
       <c r="S56" s="6"/>
-      <c r="T56" s="28"/>
+      <c r="T56" s="31"/>
       <c r="W56" s="20">
         <v>3</v>
       </c>
@@ -6020,9 +6050,9 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-      <c r="R57" s="23"/>
+      <c r="R57" s="26"/>
       <c r="S57" s="6"/>
-      <c r="T57" s="28"/>
+      <c r="T57" s="31"/>
       <c r="W57" s="20">
         <v>4</v>
       </c>
@@ -6050,9 +6080,9 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-      <c r="R58" s="23"/>
+      <c r="R58" s="26"/>
       <c r="S58" s="6"/>
-      <c r="T58" s="28"/>
+      <c r="T58" s="31"/>
       <c r="W58" s="20">
         <v>5</v>
       </c>
@@ -6080,9 +6110,9 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-      <c r="R59" s="23"/>
+      <c r="R59" s="26"/>
       <c r="S59" s="6"/>
-      <c r="T59" s="28"/>
+      <c r="T59" s="31"/>
       <c r="W59" s="20">
         <v>6</v>
       </c>
@@ -6110,9 +6140,9 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-      <c r="R60" s="23"/>
+      <c r="R60" s="26"/>
       <c r="S60" s="6"/>
-      <c r="T60" s="28"/>
+      <c r="T60" s="31"/>
       <c r="W60" s="20">
         <v>7</v>
       </c>
@@ -6140,11 +6170,11 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="R61" s="23"/>
+      <c r="R61" s="26"/>
       <c r="S61" t="s">
         <v>17</v>
       </c>
-      <c r="T61" s="28"/>
+      <c r="T61" s="31"/>
       <c r="W61" s="20">
         <v>8</v>
       </c>
@@ -6172,11 +6202,11 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="23"/>
+      <c r="R62" s="26"/>
       <c r="S62" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T62" s="28"/>
+      <c r="T62" s="31"/>
       <c r="W62" s="20">
         <v>9</v>
       </c>
@@ -6210,7 +6240,7 @@
       <c r="S63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T63" s="28"/>
+      <c r="T63" s="31"/>
       <c r="W63" s="20">
         <v>10</v>
       </c>
@@ -6244,7 +6274,7 @@
       <c r="S64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="28"/>
+      <c r="T64" s="31"/>
       <c r="W64" s="20">
         <v>11</v>
       </c>
@@ -6278,7 +6308,7 @@
       <c r="S65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T65" s="28"/>
+      <c r="T65" s="31"/>
       <c r="U65" t="s">
         <v>28</v>
       </c>
@@ -6315,7 +6345,7 @@
       <c r="S66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T66" s="28"/>
+      <c r="T66" s="31"/>
       <c r="U66" t="s">
         <v>30</v>
       </c>
@@ -6346,7 +6376,7 @@
       <c r="S67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T67" s="28"/>
+      <c r="T67" s="31"/>
       <c r="U67" t="s">
         <v>32</v>
       </c>
@@ -6377,7 +6407,7 @@
       <c r="S68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T68" s="28"/>
+      <c r="T68" s="31"/>
       <c r="U68" t="s">
         <v>34</v>
       </c>
@@ -6458,11 +6488,11 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="23" t="s">
+      <c r="R72" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S72" s="6"/>
-      <c r="T72" s="29" t="s">
+      <c r="T72" s="32" t="s">
         <v>94</v>
       </c>
     </row>
@@ -6486,9 +6516,9 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="23"/>
+      <c r="R73" s="26"/>
       <c r="S73" s="6"/>
-      <c r="T73" s="30"/>
+      <c r="T73" s="33"/>
     </row>
     <row r="74" spans="1:24" ht="18.75" customHeight="1">
       <c r="A74" s="6" t="s">
@@ -6510,9 +6540,9 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
-      <c r="R74" s="23"/>
+      <c r="R74" s="26"/>
       <c r="S74" s="6"/>
-      <c r="T74" s="30"/>
+      <c r="T74" s="33"/>
     </row>
     <row r="75" spans="1:24" ht="18.75" customHeight="1">
       <c r="A75" s="6" t="s">
@@ -6534,9 +6564,9 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-      <c r="R75" s="23"/>
+      <c r="R75" s="26"/>
       <c r="S75" s="6"/>
-      <c r="T75" s="30"/>
+      <c r="T75" s="33"/>
     </row>
     <row r="76" spans="1:24" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
@@ -6558,9 +6588,9 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
-      <c r="R76" s="23"/>
+      <c r="R76" s="26"/>
       <c r="S76" s="6"/>
-      <c r="T76" s="30"/>
+      <c r="T76" s="33"/>
     </row>
     <row r="77" spans="1:24" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
@@ -6582,9 +6612,9 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
-      <c r="R77" s="23"/>
+      <c r="R77" s="26"/>
       <c r="S77" s="6"/>
-      <c r="T77" s="30"/>
+      <c r="T77" s="33"/>
     </row>
     <row r="78" spans="1:24" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
@@ -6606,9 +6636,9 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="23"/>
+      <c r="R78" s="26"/>
       <c r="S78" s="6"/>
-      <c r="T78" s="30"/>
+      <c r="T78" s="33"/>
     </row>
     <row r="79" spans="1:24" ht="15" customHeight="1">
       <c r="A79" s="6" t="s">
@@ -6630,11 +6660,11 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="23"/>
+      <c r="R79" s="26"/>
       <c r="S79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T79" s="30"/>
+      <c r="T79" s="33"/>
     </row>
     <row r="80" spans="1:24" ht="15" customHeight="1">
       <c r="A80" s="6" t="s">
@@ -6662,7 +6692,7 @@
       <c r="S80" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T80" s="30"/>
+      <c r="T80" s="33"/>
     </row>
     <row r="81" spans="1:21" ht="15" customHeight="1">
       <c r="A81" s="6" t="s">
@@ -6690,7 +6720,7 @@
       <c r="S81" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="30"/>
+      <c r="T81" s="33"/>
     </row>
     <row r="82" spans="1:21" ht="15" customHeight="1">
       <c r="A82" s="6" t="s">
@@ -6718,7 +6748,7 @@
       <c r="S82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T82" s="30"/>
+      <c r="T82" s="33"/>
       <c r="U82" t="s">
         <v>28</v>
       </c>
@@ -6749,7 +6779,7 @@
       <c r="S83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="30"/>
+      <c r="T83" s="33"/>
       <c r="U83" t="s">
         <v>30</v>
       </c>
@@ -6780,7 +6810,7 @@
       <c r="S84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T84" s="30"/>
+      <c r="T84" s="33"/>
       <c r="U84" t="s">
         <v>32</v>
       </c>
@@ -6811,7 +6841,7 @@
       <c r="S85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="31"/>
+      <c r="T85" s="34"/>
       <c r="U85" t="s">
         <v>34</v>
       </c>
@@ -6892,11 +6922,11 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-      <c r="R89" s="23" t="s">
+      <c r="R89" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S89" s="6"/>
-      <c r="T89" s="28" t="s">
+      <c r="T89" s="31" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6920,9 +6950,9 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="23"/>
+      <c r="R90" s="26"/>
       <c r="S90" s="6"/>
-      <c r="T90" s="28"/>
+      <c r="T90" s="31"/>
     </row>
     <row r="91" spans="1:21" ht="15.75">
       <c r="A91" s="6" t="s">
@@ -6944,9 +6974,9 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
-      <c r="R91" s="23"/>
+      <c r="R91" s="26"/>
       <c r="S91" s="6"/>
-      <c r="T91" s="28"/>
+      <c r="T91" s="31"/>
     </row>
     <row r="92" spans="1:21" ht="15.75">
       <c r="A92" s="6" t="s">
@@ -6968,9 +6998,9 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
-      <c r="R92" s="23"/>
+      <c r="R92" s="26"/>
       <c r="S92" s="6"/>
-      <c r="T92" s="28"/>
+      <c r="T92" s="31"/>
     </row>
     <row r="93" spans="1:21" ht="15.75">
       <c r="A93" s="6" t="s">
@@ -6992,9 +7022,9 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
-      <c r="R93" s="23"/>
+      <c r="R93" s="26"/>
       <c r="S93" s="6"/>
-      <c r="T93" s="28"/>
+      <c r="T93" s="31"/>
     </row>
     <row r="94" spans="1:21" ht="15.75">
       <c r="A94" s="6" t="s">
@@ -7016,9 +7046,9 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
-      <c r="R94" s="23"/>
+      <c r="R94" s="26"/>
       <c r="S94" s="6"/>
-      <c r="T94" s="28"/>
+      <c r="T94" s="31"/>
     </row>
     <row r="95" spans="1:21" ht="15.75">
       <c r="A95" s="6" t="s">
@@ -7040,9 +7070,9 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-      <c r="R95" s="23"/>
+      <c r="R95" s="26"/>
       <c r="S95" s="6"/>
-      <c r="T95" s="28"/>
+      <c r="T95" s="31"/>
     </row>
     <row r="96" spans="1:21">
       <c r="A96" s="6" t="s">
@@ -7064,11 +7094,11 @@
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
-      <c r="R96" s="23"/>
+      <c r="R96" s="26"/>
       <c r="S96" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T96" s="28"/>
+      <c r="T96" s="31"/>
     </row>
     <row r="97" spans="1:21" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
@@ -7096,7 +7126,7 @@
       <c r="S97" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T97" s="28"/>
+      <c r="T97" s="31"/>
     </row>
     <row r="98" spans="1:21" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
@@ -7124,7 +7154,7 @@
       <c r="S98" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T98" s="28"/>
+      <c r="T98" s="31"/>
     </row>
     <row r="99" spans="1:21" ht="15" customHeight="1">
       <c r="A99" s="6" t="s">
@@ -7152,7 +7182,7 @@
       <c r="S99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T99" s="28"/>
+      <c r="T99" s="31"/>
       <c r="U99" t="s">
         <v>28</v>
       </c>
@@ -7183,7 +7213,7 @@
       <c r="S100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T100" s="28"/>
+      <c r="T100" s="31"/>
       <c r="U100" t="s">
         <v>30</v>
       </c>
@@ -7214,7 +7244,7 @@
       <c r="S101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="28"/>
+      <c r="T101" s="31"/>
       <c r="U101" t="s">
         <v>32</v>
       </c>
@@ -7245,7 +7275,7 @@
       <c r="S102" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T102" s="28"/>
+      <c r="T102" s="31"/>
       <c r="U102" t="s">
         <v>34</v>
       </c>
@@ -7326,11 +7356,11 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
-      <c r="R106" s="23" t="s">
+      <c r="R106" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S106" s="22"/>
-      <c r="T106" s="24" t="s">
+      <c r="T106" s="27" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7354,9 +7384,9 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
-      <c r="R107" s="23"/>
+      <c r="R107" s="26"/>
       <c r="S107" s="22"/>
-      <c r="T107" s="24"/>
+      <c r="T107" s="27"/>
     </row>
     <row r="108" spans="1:21" ht="15.75">
       <c r="A108" s="6" t="s">
@@ -7378,9 +7408,9 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
-      <c r="R108" s="23"/>
+      <c r="R108" s="26"/>
       <c r="S108" s="22"/>
-      <c r="T108" s="24"/>
+      <c r="T108" s="27"/>
     </row>
     <row r="109" spans="1:21" ht="15.75">
       <c r="A109" s="6" t="s">
@@ -7402,9 +7432,9 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
-      <c r="R109" s="23"/>
+      <c r="R109" s="26"/>
       <c r="S109" s="22"/>
-      <c r="T109" s="24"/>
+      <c r="T109" s="27"/>
     </row>
     <row r="110" spans="1:21" ht="15.75">
       <c r="A110" s="6" t="s">
@@ -7426,9 +7456,9 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
-      <c r="R110" s="23"/>
+      <c r="R110" s="26"/>
       <c r="S110" s="22"/>
-      <c r="T110" s="24"/>
+      <c r="T110" s="27"/>
     </row>
     <row r="111" spans="1:21" ht="15.75">
       <c r="A111" s="6" t="s">
@@ -7450,9 +7480,9 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
-      <c r="R111" s="23"/>
+      <c r="R111" s="26"/>
       <c r="S111" s="22"/>
-      <c r="T111" s="24"/>
+      <c r="T111" s="27"/>
     </row>
     <row r="112" spans="1:21" ht="15.75">
       <c r="A112" s="6" t="s">
@@ -7474,9 +7504,9 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
-      <c r="R112" s="23"/>
+      <c r="R112" s="26"/>
       <c r="S112" s="22"/>
-      <c r="T112" s="24"/>
+      <c r="T112" s="27"/>
     </row>
     <row r="113" spans="1:21">
       <c r="A113" s="6" t="s">
@@ -7498,11 +7528,11 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
-      <c r="R113" s="23"/>
+      <c r="R113" s="26"/>
       <c r="S113" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T113" s="24"/>
+      <c r="T113" s="27"/>
     </row>
     <row r="114" spans="1:21" ht="15" customHeight="1">
       <c r="A114" s="6" t="s">
@@ -7530,7 +7560,7 @@
       <c r="S114" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T114" s="24"/>
+      <c r="T114" s="27"/>
     </row>
     <row r="115" spans="1:21" ht="15" customHeight="1">
       <c r="A115" s="6" t="s">
@@ -7558,7 +7588,7 @@
       <c r="S115" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T115" s="24"/>
+      <c r="T115" s="27"/>
     </row>
     <row r="116" spans="1:21" ht="15" customHeight="1">
       <c r="A116" s="6" t="s">
@@ -7586,7 +7616,7 @@
       <c r="S116" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T116" s="24"/>
+      <c r="T116" s="27"/>
       <c r="U116" t="s">
         <v>28</v>
       </c>
@@ -7617,7 +7647,7 @@
       <c r="S117" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T117" s="24"/>
+      <c r="T117" s="27"/>
       <c r="U117" t="s">
         <v>30</v>
       </c>
@@ -7648,7 +7678,7 @@
       <c r="S118" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T118" s="24"/>
+      <c r="T118" s="27"/>
       <c r="U118" t="s">
         <v>32</v>
       </c>
@@ -7679,7 +7709,7 @@
       <c r="S119" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T119" s="24"/>
+      <c r="T119" s="27"/>
       <c r="U119" t="s">
         <v>34</v>
       </c>
@@ -7760,11 +7790,11 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
-      <c r="R123" s="23" t="s">
+      <c r="R123" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S123" s="22"/>
-      <c r="T123" s="24" t="s">
+      <c r="T123" s="27" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7788,9 +7818,9 @@
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
-      <c r="R124" s="23"/>
+      <c r="R124" s="26"/>
       <c r="S124" s="22"/>
-      <c r="T124" s="24"/>
+      <c r="T124" s="27"/>
     </row>
     <row r="125" spans="1:21" ht="15.75">
       <c r="A125" s="6" t="s">
@@ -7812,9 +7842,9 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
-      <c r="R125" s="23"/>
+      <c r="R125" s="26"/>
       <c r="S125" s="22"/>
-      <c r="T125" s="24"/>
+      <c r="T125" s="27"/>
     </row>
     <row r="126" spans="1:21" ht="15.75">
       <c r="A126" s="6" t="s">
@@ -7836,9 +7866,9 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
-      <c r="R126" s="23"/>
+      <c r="R126" s="26"/>
       <c r="S126" s="22"/>
-      <c r="T126" s="24"/>
+      <c r="T126" s="27"/>
     </row>
     <row r="127" spans="1:21" ht="15.75">
       <c r="A127" s="6" t="s">
@@ -7860,9 +7890,9 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
-      <c r="R127" s="23"/>
+      <c r="R127" s="26"/>
       <c r="S127" s="22"/>
-      <c r="T127" s="24"/>
+      <c r="T127" s="27"/>
     </row>
     <row r="128" spans="1:21" ht="15.75">
       <c r="A128" s="6" t="s">
@@ -7884,9 +7914,9 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
-      <c r="R128" s="23"/>
+      <c r="R128" s="26"/>
       <c r="S128" s="22"/>
-      <c r="T128" s="24"/>
+      <c r="T128" s="27"/>
     </row>
     <row r="129" spans="1:21" ht="15.75" customHeight="1">
       <c r="A129" s="6" t="s">
@@ -7908,9 +7938,9 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
-      <c r="R129" s="23"/>
+      <c r="R129" s="26"/>
       <c r="S129" s="22"/>
-      <c r="T129" s="24"/>
+      <c r="T129" s="27"/>
     </row>
     <row r="130" spans="1:21" ht="15" customHeight="1">
       <c r="A130" s="6" t="s">
@@ -7932,11 +7962,11 @@
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
-      <c r="R130" s="23"/>
+      <c r="R130" s="26"/>
       <c r="S130" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T130" s="24"/>
+      <c r="T130" s="27"/>
     </row>
     <row r="131" spans="1:21" ht="15" customHeight="1">
       <c r="A131" s="6" t="s">
@@ -7964,7 +7994,7 @@
       <c r="S131" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T131" s="24"/>
+      <c r="T131" s="27"/>
     </row>
     <row r="132" spans="1:21" ht="15" customHeight="1">
       <c r="A132" s="6" t="s">
@@ -7992,7 +8022,7 @@
       <c r="S132" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T132" s="24"/>
+      <c r="T132" s="27"/>
     </row>
     <row r="133" spans="1:21" ht="15" customHeight="1">
       <c r="A133" s="6" t="s">
@@ -8020,7 +8050,7 @@
       <c r="S133" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T133" s="24"/>
+      <c r="T133" s="27"/>
       <c r="U133" t="s">
         <v>28</v>
       </c>
@@ -8051,7 +8081,7 @@
       <c r="S134" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T134" s="24"/>
+      <c r="T134" s="27"/>
       <c r="U134" t="s">
         <v>30</v>
       </c>
@@ -8082,7 +8112,7 @@
       <c r="S135" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T135" s="24"/>
+      <c r="T135" s="27"/>
       <c r="U135" t="s">
         <v>32</v>
       </c>
@@ -8175,11 +8205,11 @@
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
-      <c r="R140" s="23" t="s">
+      <c r="R140" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S140" s="22"/>
-      <c r="T140" s="25" t="s">
+      <c r="T140" s="28" t="s">
         <v>153</v>
       </c>
     </row>
@@ -8203,9 +8233,9 @@
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
-      <c r="R141" s="23"/>
+      <c r="R141" s="26"/>
       <c r="S141" s="22"/>
-      <c r="T141" s="26"/>
+      <c r="T141" s="29"/>
     </row>
     <row r="142" spans="1:21" ht="15.75">
       <c r="A142" s="6" t="s">
@@ -8227,9 +8257,9 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
-      <c r="R142" s="23"/>
+      <c r="R142" s="26"/>
       <c r="S142" s="22"/>
-      <c r="T142" s="26"/>
+      <c r="T142" s="29"/>
     </row>
     <row r="143" spans="1:21" ht="15.75">
       <c r="A143" s="6" t="s">
@@ -8251,9 +8281,9 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
-      <c r="R143" s="23"/>
+      <c r="R143" s="26"/>
       <c r="S143" s="22"/>
-      <c r="T143" s="26"/>
+      <c r="T143" s="29"/>
     </row>
     <row r="144" spans="1:21" ht="15.75">
       <c r="A144" s="6" t="s">
@@ -8275,9 +8305,9 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
-      <c r="R144" s="23"/>
+      <c r="R144" s="26"/>
       <c r="S144" s="22"/>
-      <c r="T144" s="26"/>
+      <c r="T144" s="29"/>
     </row>
     <row r="145" spans="1:22" ht="15.75">
       <c r="A145" s="6" t="s">
@@ -8299,9 +8329,9 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
-      <c r="R145" s="23"/>
+      <c r="R145" s="26"/>
       <c r="S145" s="22"/>
-      <c r="T145" s="26"/>
+      <c r="T145" s="29"/>
     </row>
     <row r="146" spans="1:22" ht="15.75">
       <c r="A146" s="6" t="s">
@@ -8323,9 +8353,9 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
-      <c r="R146" s="23"/>
+      <c r="R146" s="26"/>
       <c r="S146" s="22"/>
-      <c r="T146" s="26"/>
+      <c r="T146" s="29"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="6" t="s">
@@ -8347,11 +8377,11 @@
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
       <c r="Q147" s="17"/>
-      <c r="R147" s="23"/>
+      <c r="R147" s="26"/>
       <c r="S147" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T147" s="26"/>
+      <c r="T147" s="29"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="6" t="s">
@@ -8379,7 +8409,7 @@
       <c r="S148" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T148" s="26"/>
+      <c r="T148" s="29"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="6" t="s">
@@ -8407,7 +8437,7 @@
       <c r="S149" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T149" s="26"/>
+      <c r="T149" s="29"/>
     </row>
     <row r="150" spans="1:22">
       <c r="A150" s="6"/>
@@ -8428,7 +8458,7 @@
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
-      <c r="T150" s="26"/>
+      <c r="T150" s="29"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="6" t="s">
@@ -8456,7 +8486,7 @@
       <c r="S151" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T151" s="26"/>
+      <c r="T151" s="29"/>
       <c r="U151" t="s">
         <v>28</v>
       </c>
@@ -8487,7 +8517,7 @@
       <c r="S152" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T152" s="26"/>
+      <c r="T152" s="29"/>
       <c r="U152" t="s">
         <v>30</v>
       </c>
@@ -8518,7 +8548,7 @@
       <c r="S153" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T153" s="27"/>
+      <c r="T153" s="30"/>
       <c r="U153" t="s">
         <v>32</v>
       </c>
@@ -8629,17 +8659,17 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
-      <c r="R158" s="23" t="s">
+      <c r="R158" s="26" t="s">
         <v>9</v>
       </c>
       <c r="S158" s="22"/>
-      <c r="T158" s="24" t="s">
+      <c r="T158" s="27" t="s">
         <v>167</v>
       </c>
-      <c r="U158" s="36" t="s">
+      <c r="U158" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="V158" s="34"/>
+      <c r="V158" s="38"/>
     </row>
     <row r="159" spans="1:22" ht="15.75" customHeight="1">
       <c r="A159" s="6" t="s">
@@ -8661,9 +8691,9 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
-      <c r="R159" s="23"/>
+      <c r="R159" s="26"/>
       <c r="S159" s="22"/>
-      <c r="T159" s="24"/>
+      <c r="T159" s="27"/>
     </row>
     <row r="160" spans="1:22" ht="15.75" customHeight="1">
       <c r="A160" s="6" t="s">
@@ -8685,9 +8715,9 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
-      <c r="R160" s="23"/>
+      <c r="R160" s="26"/>
       <c r="S160" s="22"/>
-      <c r="T160" s="24"/>
+      <c r="T160" s="27"/>
     </row>
     <row r="161" spans="1:22" ht="15.75" customHeight="1">
       <c r="A161" s="6" t="s">
@@ -8709,9 +8739,9 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
-      <c r="R161" s="23"/>
+      <c r="R161" s="26"/>
       <c r="S161" s="22"/>
-      <c r="T161" s="24"/>
+      <c r="T161" s="27"/>
     </row>
     <row r="162" spans="1:22" ht="15.75" customHeight="1">
       <c r="A162" s="6" t="s">
@@ -8733,9 +8763,9 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
-      <c r="R162" s="23"/>
+      <c r="R162" s="26"/>
       <c r="S162" s="22"/>
-      <c r="T162" s="24"/>
+      <c r="T162" s="27"/>
     </row>
     <row r="163" spans="1:22" ht="15.75" customHeight="1">
       <c r="A163" s="6" t="s">
@@ -8757,9 +8787,9 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
-      <c r="R163" s="23"/>
+      <c r="R163" s="26"/>
       <c r="S163" s="22"/>
-      <c r="T163" s="24"/>
+      <c r="T163" s="27"/>
     </row>
     <row r="164" spans="1:22" ht="15.75" customHeight="1">
       <c r="A164" s="6" t="s">
@@ -8781,9 +8811,9 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
-      <c r="R164" s="23"/>
+      <c r="R164" s="26"/>
       <c r="S164" s="22"/>
-      <c r="T164" s="24"/>
+      <c r="T164" s="27"/>
     </row>
     <row r="165" spans="1:22" ht="15" customHeight="1">
       <c r="A165" s="6" t="s">
@@ -8805,11 +8835,11 @@
       <c r="O165" s="17"/>
       <c r="P165" s="17"/>
       <c r="Q165" s="17"/>
-      <c r="R165" s="23"/>
-      <c r="S165" s="35" t="s">
+      <c r="R165" s="26"/>
+      <c r="S165" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="T165" s="24"/>
+      <c r="T165" s="27"/>
     </row>
     <row r="166" spans="1:22" ht="15" customHeight="1">
       <c r="A166" s="6" t="s">
@@ -8837,7 +8867,7 @@
       <c r="S166" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T166" s="24"/>
+      <c r="T166" s="27"/>
     </row>
     <row r="167" spans="1:22" ht="15" customHeight="1">
       <c r="A167" s="6" t="s">
@@ -8865,42 +8895,37 @@
       <c r="S167" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T167" s="24"/>
+      <c r="T167" s="27"/>
     </row>
     <row r="168" spans="1:22" ht="15" customHeight="1">
       <c r="A168" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B168" s="6"/>
-      <c r="C168" s="6"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="6"/>
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="6"/>
-      <c r="K168" s="6"/>
-      <c r="L168" s="6"/>
-      <c r="M168" s="6"/>
-      <c r="N168" s="6"/>
-      <c r="O168" s="6"/>
-      <c r="P168" s="6"/>
-      <c r="Q168" s="16"/>
-      <c r="R168" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S168" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T168" s="24"/>
-      <c r="U168" t="s">
-        <v>28</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B168" s="12"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="12"/>
+      <c r="F168" s="12"/>
+      <c r="G168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="I168" s="12"/>
+      <c r="J168" s="12"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="12"/>
+      <c r="N168" s="12"/>
+      <c r="O168" s="12"/>
+      <c r="P168" s="12"/>
+      <c r="Q168" s="12"/>
+      <c r="R168" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="S168" s="22"/>
+      <c r="T168" s="27"/>
     </row>
     <row r="169" spans="1:22" ht="15" customHeight="1">
       <c r="A169" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B169" s="6"/>
       <c r="C169" s="6"/>
@@ -8924,14 +8949,14 @@
       <c r="S169" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T169" s="24"/>
+      <c r="T169" s="27"/>
       <c r="U169" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170" spans="1:22" ht="15" customHeight="1">
       <c r="A170" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B170" s="6"/>
       <c r="C170" s="6"/>
@@ -8955,12 +8980,30 @@
       <c r="S170" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T170" s="24"/>
+      <c r="T170" s="27"/>
       <c r="U170" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="171" spans="1:22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" ht="15" customHeight="1">
+      <c r="A171" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B171" s="6"/>
+      <c r="C171" s="6"/>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="6"/>
+      <c r="L171" s="6"/>
+      <c r="M171" s="6"/>
+      <c r="N171" s="6"/>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6"/>
       <c r="Q171" s="16"/>
       <c r="R171" s="6" t="s">
         <v>27</v>
@@ -8968,102 +9011,83 @@
       <c r="S171" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T171" s="24"/>
+      <c r="T171" s="27"/>
       <c r="U171" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22">
+      <c r="Q172" s="16"/>
+      <c r="R172" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S172" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T172" s="27"/>
+      <c r="U172" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="174" spans="1:22" ht="15.75">
-      <c r="A174" s="3" t="s">
+    <row r="175" spans="1:22" ht="15.75">
+      <c r="A175" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B175" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C175" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D175" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E175" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F175" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G175" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H174" s="1">
+      <c r="H175" s="1">
         <v>9</v>
       </c>
-      <c r="I174" s="2">
+      <c r="I175" s="2">
         <v>8</v>
       </c>
-      <c r="J174" s="2">
+      <c r="J175" s="2">
         <v>7</v>
       </c>
-      <c r="K174" s="2">
+      <c r="K175" s="2">
         <v>6</v>
       </c>
-      <c r="L174" s="2">
+      <c r="L175" s="2">
         <v>5</v>
       </c>
-      <c r="M174" s="2">
+      <c r="M175" s="2">
         <v>4</v>
       </c>
-      <c r="N174" s="2">
+      <c r="N175" s="2">
         <v>3</v>
       </c>
-      <c r="O174" s="2">
+      <c r="O175" s="2">
         <v>2</v>
       </c>
-      <c r="P174" s="2">
+      <c r="P175" s="2">
         <v>1</v>
       </c>
-      <c r="Q174" s="2">
+      <c r="Q175" s="2">
         <v>0</v>
       </c>
-      <c r="R174" t="s">
+      <c r="R175" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="175" spans="1:22" ht="15.75">
-      <c r="A175" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B175" s="7"/>
-      <c r="C175" s="7"/>
-      <c r="D175" s="7"/>
-      <c r="E175" s="7"/>
-      <c r="F175" s="7"/>
-      <c r="G175" s="7"/>
-      <c r="H175" s="7"/>
-      <c r="I175" s="8"/>
-      <c r="J175" s="8"/>
-      <c r="K175" s="8"/>
-      <c r="L175" s="8"/>
-      <c r="M175" s="8"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="8"/>
-      <c r="P175" s="8"/>
-      <c r="Q175" s="8"/>
-      <c r="R175" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S175" s="22"/>
-      <c r="T175" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="U175" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="V175" s="34"/>
     </row>
     <row r="176" spans="1:22" ht="15.75">
       <c r="A176" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -9081,13 +9105,21 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
-      <c r="R176" s="23"/>
+      <c r="R176" s="26" t="s">
+        <v>9</v>
+      </c>
       <c r="S176" s="22"/>
-      <c r="T176" s="24"/>
+      <c r="T176" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="U176" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="V176" s="38"/>
     </row>
     <row r="177" spans="1:20" ht="15.75">
       <c r="A177" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -9105,13 +9137,13 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
-      <c r="R177" s="23"/>
+      <c r="R177" s="26"/>
       <c r="S177" s="22"/>
-      <c r="T177" s="24"/>
+      <c r="T177" s="27"/>
     </row>
     <row r="178" spans="1:20" ht="15.75">
       <c r="A178" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -9129,13 +9161,13 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
-      <c r="R178" s="23"/>
+      <c r="R178" s="26"/>
       <c r="S178" s="22"/>
-      <c r="T178" s="24"/>
+      <c r="T178" s="27"/>
     </row>
     <row r="179" spans="1:20" ht="15.75">
       <c r="A179" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -9153,13 +9185,13 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
-      <c r="R179" s="23"/>
+      <c r="R179" s="26"/>
       <c r="S179" s="22"/>
-      <c r="T179" s="24"/>
+      <c r="T179" s="27"/>
     </row>
     <row r="180" spans="1:20" ht="15.75">
       <c r="A180" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -9177,13 +9209,13 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
-      <c r="R180" s="23"/>
+      <c r="R180" s="26"/>
       <c r="S180" s="22"/>
-      <c r="T180" s="24"/>
+      <c r="T180" s="27"/>
     </row>
     <row r="181" spans="1:20" ht="15.75">
       <c r="A181" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -9201,65 +9233,63 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
-      <c r="R181" s="23"/>
+      <c r="R181" s="26"/>
       <c r="S181" s="22"/>
-      <c r="T181" s="24"/>
-    </row>
-    <row r="182" spans="1:20">
+      <c r="T181" s="27"/>
+    </row>
+    <row r="182" spans="1:20" ht="15.75">
       <c r="A182" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="17"/>
-      <c r="K182" s="17"/>
-      <c r="L182" s="17"/>
-      <c r="M182" s="17"/>
-      <c r="N182" s="17"/>
-      <c r="O182" s="17"/>
-      <c r="P182" s="17"/>
-      <c r="Q182" s="17"/>
-      <c r="R182" s="23"/>
-      <c r="S182" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="T182" s="24"/>
+        <v>191</v>
+      </c>
+      <c r="B182" s="7"/>
+      <c r="C182" s="7"/>
+      <c r="D182" s="7"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="8"/>
+      <c r="P182" s="8"/>
+      <c r="Q182" s="8"/>
+      <c r="R182" s="26"/>
+      <c r="S182" s="22"/>
+      <c r="T182" s="27"/>
     </row>
     <row r="183" spans="1:20">
       <c r="A183" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-      <c r="E183" s="12"/>
-      <c r="F183" s="12"/>
-      <c r="G183" s="12"/>
-      <c r="H183" s="12"/>
-      <c r="I183" s="12"/>
-      <c r="J183" s="12"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="12"/>
-      <c r="N183" s="12"/>
-      <c r="O183" s="12"/>
-      <c r="P183" s="12"/>
-      <c r="Q183" s="12"/>
-      <c r="R183" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="S183" s="35"/>
-      <c r="T183" s="24"/>
+        <v>192</v>
+      </c>
+      <c r="B183" s="17"/>
+      <c r="C183" s="17"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="17"/>
+      <c r="K183" s="17"/>
+      <c r="L183" s="17"/>
+      <c r="M183" s="17"/>
+      <c r="N183" s="17"/>
+      <c r="O183" s="17"/>
+      <c r="P183" s="17"/>
+      <c r="Q183" s="17"/>
+      <c r="R183" s="26"/>
+      <c r="S183" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T183" s="27"/>
     </row>
     <row r="184" spans="1:20">
       <c r="A184" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -9277,13 +9307,15 @@
       <c r="O184" s="12"/>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
-      <c r="R184" s="38"/>
-      <c r="S184" s="35"/>
-      <c r="T184" s="24"/>
+      <c r="R184" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="S184" s="23"/>
+      <c r="T184" s="27"/>
     </row>
     <row r="185" spans="1:20">
       <c r="A185" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -9301,13 +9333,13 @@
       <c r="O185" s="12"/>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
-      <c r="R185" s="38"/>
-      <c r="S185" s="35"/>
-      <c r="T185" s="24"/>
+      <c r="R185" s="40"/>
+      <c r="S185" s="23"/>
+      <c r="T185" s="27"/>
     </row>
     <row r="186" spans="1:20">
       <c r="A186" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -9325,13 +9357,13 @@
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
-      <c r="R186" s="38"/>
-      <c r="S186" s="35"/>
-      <c r="T186" s="24"/>
+      <c r="R186" s="40"/>
+      <c r="S186" s="23"/>
+      <c r="T186" s="27"/>
     </row>
     <row r="187" spans="1:20">
       <c r="A187" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -9349,13 +9381,13 @@
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
-      <c r="R187" s="38"/>
-      <c r="S187" s="35"/>
-      <c r="T187" s="24"/>
+      <c r="R187" s="40"/>
+      <c r="S187" s="23"/>
+      <c r="T187" s="27"/>
     </row>
     <row r="188" spans="1:20">
       <c r="A188" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -9373,13 +9405,13 @@
       <c r="O188" s="12"/>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
-      <c r="R188" s="38"/>
-      <c r="S188" s="35"/>
-      <c r="T188" s="24"/>
+      <c r="R188" s="40"/>
+      <c r="S188" s="23"/>
+      <c r="T188" s="27"/>
     </row>
     <row r="189" spans="1:20">
       <c r="A189" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -9397,13 +9429,13 @@
       <c r="O189" s="12"/>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
-      <c r="R189" s="38"/>
-      <c r="S189" s="35"/>
-      <c r="T189" s="24"/>
+      <c r="R189" s="40"/>
+      <c r="S189" s="23"/>
+      <c r="T189" s="27"/>
     </row>
     <row r="190" spans="1:20">
       <c r="A190" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -9421,41 +9453,37 @@
       <c r="O190" s="12"/>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
-      <c r="R190" s="39"/>
-      <c r="S190" s="35"/>
-      <c r="T190" s="24"/>
+      <c r="R190" s="40"/>
+      <c r="S190" s="23"/>
+      <c r="T190" s="27"/>
     </row>
     <row r="191" spans="1:20">
       <c r="A191" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="B191" s="14"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="14"/>
-      <c r="K191" s="14"/>
-      <c r="L191" s="14"/>
-      <c r="M191" s="14"/>
-      <c r="N191" s="14"/>
-      <c r="O191" s="14"/>
-      <c r="P191" s="14"/>
-      <c r="Q191" s="14"/>
-      <c r="R191" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="S191" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T191" s="24"/>
+        <v>200</v>
+      </c>
+      <c r="B191" s="12"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="12"/>
+      <c r="F191" s="12"/>
+      <c r="G191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="I191" s="12"/>
+      <c r="J191" s="12"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="12"/>
+      <c r="N191" s="12"/>
+      <c r="O191" s="12"/>
+      <c r="P191" s="12"/>
+      <c r="Q191" s="12"/>
+      <c r="R191" s="41"/>
+      <c r="S191" s="23"/>
+      <c r="T191" s="27"/>
     </row>
     <row r="192" spans="1:20">
       <c r="A192" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B192" s="14"/>
       <c r="C192" s="14"/>
@@ -9474,107 +9502,114 @@
       <c r="P192" s="14"/>
       <c r="Q192" s="14"/>
       <c r="R192" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="S192" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T192" s="24"/>
+      <c r="T192" s="27"/>
     </row>
     <row r="193" spans="1:21">
       <c r="A193" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="6"/>
-      <c r="D193" s="6"/>
-      <c r="E193" s="6"/>
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="6"/>
-      <c r="K193" s="6"/>
-      <c r="L193" s="6"/>
-      <c r="M193" s="6"/>
-      <c r="N193" s="6"/>
-      <c r="O193" s="6"/>
-      <c r="P193" s="6"/>
-      <c r="Q193" s="16"/>
+        <v>202</v>
+      </c>
+      <c r="B193" s="14"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="14"/>
+      <c r="K193" s="14"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="14"/>
+      <c r="N193" s="14"/>
+      <c r="O193" s="14"/>
+      <c r="P193" s="14"/>
+      <c r="Q193" s="14"/>
       <c r="R193" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S193" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T193" s="24"/>
-      <c r="U193" t="s">
-        <v>28</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="T193" s="27"/>
     </row>
     <row r="194" spans="1:21">
       <c r="A194" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="6"/>
-      <c r="D194" s="6"/>
-      <c r="E194" s="6"/>
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="6"/>
-      <c r="K194" s="6"/>
-      <c r="L194" s="6"/>
-      <c r="M194" s="6"/>
-      <c r="N194" s="6"/>
-      <c r="O194" s="6"/>
-      <c r="P194" s="6"/>
-      <c r="Q194" s="16"/>
-      <c r="R194" s="6" t="s">
-        <v>27</v>
+        <v>206</v>
+      </c>
+      <c r="B194" s="25"/>
+      <c r="C194" s="25"/>
+      <c r="D194" s="25"/>
+      <c r="E194" s="25"/>
+      <c r="F194" s="25"/>
+      <c r="G194" s="25"/>
+      <c r="H194" s="25"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
+      <c r="K194" s="25"/>
+      <c r="L194" s="25"/>
+      <c r="M194" s="25"/>
+      <c r="N194" s="25"/>
+      <c r="O194" s="25"/>
+      <c r="P194" s="25"/>
+      <c r="Q194" s="25"/>
+      <c r="R194" s="24" t="s">
+        <v>207</v>
       </c>
       <c r="S194" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T194" s="24"/>
-      <c r="U194" t="s">
-        <v>30</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="T194" s="27"/>
     </row>
     <row r="195" spans="1:21">
       <c r="A195" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="6"/>
-      <c r="D195" s="6"/>
-      <c r="E195" s="6"/>
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="6"/>
-      <c r="K195" s="6"/>
-      <c r="L195" s="6"/>
-      <c r="M195" s="6"/>
-      <c r="N195" s="6"/>
-      <c r="O195" s="6"/>
-      <c r="P195" s="6"/>
-      <c r="Q195" s="16"/>
-      <c r="R195" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="S195" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="T195" s="24"/>
-      <c r="U195" t="s">
-        <v>32</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
+      <c r="F195" s="12"/>
+      <c r="G195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="I195" s="12"/>
+      <c r="J195" s="12"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="12"/>
+      <c r="N195" s="12"/>
+      <c r="O195" s="12"/>
+      <c r="P195" s="12"/>
+      <c r="Q195" s="12"/>
+      <c r="R195" s="24" t="s">
+        <v>210</v>
+      </c>
+      <c r="S195" s="22"/>
+      <c r="T195" s="27"/>
     </row>
     <row r="196" spans="1:21">
+      <c r="A196" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B196" s="6"/>
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="6"/>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="6"/>
+      <c r="L196" s="6"/>
+      <c r="M196" s="6"/>
+      <c r="N196" s="6"/>
+      <c r="O196" s="6"/>
+      <c r="P196" s="6"/>
       <c r="Q196" s="16"/>
       <c r="R196" s="6" t="s">
         <v>27</v>
@@ -9582,8 +9617,83 @@
       <c r="S196" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T196" s="24"/>
+      <c r="T196" s="27"/>
       <c r="U196" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
+      <c r="A197" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="6"/>
+      <c r="C197" s="6"/>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6"/>
+      <c r="F197" s="6"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="6"/>
+      <c r="L197" s="6"/>
+      <c r="M197" s="6"/>
+      <c r="N197" s="6"/>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6"/>
+      <c r="Q197" s="16"/>
+      <c r="R197" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S197" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T197" s="27"/>
+      <c r="U197" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
+      <c r="A198" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B198" s="6"/>
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="6"/>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="6"/>
+      <c r="L198" s="6"/>
+      <c r="M198" s="6"/>
+      <c r="N198" s="6"/>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6"/>
+      <c r="Q198" s="16"/>
+      <c r="R198" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S198" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T198" s="27"/>
+      <c r="U198" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
+      <c r="Q199" s="16"/>
+      <c r="R199" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S199" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="T199" s="27"/>
+      <c r="U199" t="s">
         <v>34</v>
       </c>
     </row>
@@ -9591,11 +9701,11 @@
   <mergeCells count="25">
     <mergeCell ref="R158:R165"/>
     <mergeCell ref="U158:V158"/>
-    <mergeCell ref="T158:T171"/>
-    <mergeCell ref="R175:R182"/>
-    <mergeCell ref="T175:T196"/>
-    <mergeCell ref="U175:V175"/>
-    <mergeCell ref="R183:R190"/>
+    <mergeCell ref="T158:T172"/>
+    <mergeCell ref="R176:R183"/>
+    <mergeCell ref="T176:T199"/>
+    <mergeCell ref="U176:V176"/>
+    <mergeCell ref="R184:R191"/>
     <mergeCell ref="R4:R11"/>
     <mergeCell ref="T11:T17"/>
     <mergeCell ref="R21:R28"/>

--- a/MemoryMap/NI.xlsx
+++ b/MemoryMap/NI.xlsx
@@ -22,7 +22,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="S11" authorId="0">
+    <comment ref="T11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -30,7 +30,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S28" authorId="0">
+    <comment ref="T28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -131,7 +131,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -200,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S45" authorId="0">
+    <comment ref="T45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,7 +208,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -220,7 +220,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -289,7 +289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S62" authorId="0">
+    <comment ref="T62" authorId="0">
       <text>
         <r>
           <rPr>
@@ -297,7 +297,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -309,7 +309,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -378,7 +378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S79" authorId="0">
+    <comment ref="T79" authorId="0">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -398,7 +398,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -467,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S96" authorId="0">
+    <comment ref="T96" authorId="0">
       <text>
         <r>
           <rPr>
@@ -475,7 +475,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -487,7 +487,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -556,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S113" authorId="0">
+    <comment ref="T113" authorId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +564,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -576,7 +576,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -645,7 +645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S130" authorId="0">
+    <comment ref="T130" authorId="0">
       <text>
         <r>
           <rPr>
@@ -653,7 +653,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -665,7 +665,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -734,7 +734,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S147" authorId="0">
+    <comment ref="T147" authorId="0">
       <text>
         <r>
           <rPr>
@@ -742,7 +742,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -754,7 +754,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -823,7 +823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S165" authorId="0">
+    <comment ref="T165" authorId="0">
       <text>
         <r>
           <rPr>
@@ -831,7 +831,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -843,7 +843,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -912,7 +912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S183" authorId="0">
+    <comment ref="T183" authorId="0">
       <text>
         <r>
           <rPr>
@@ -920,7 +920,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>1=RHD-VAC
 2=RHD-HVAC 
@@ -932,14 +932,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q196" authorId="0">
+    <comment ref="Q207" authorId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +955,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q197" authorId="0">
+    <comment ref="Q208" authorId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q198" authorId="0">
+    <comment ref="Q209" authorId="0">
       <text>
         <r>
           <rPr>
@@ -986,7 +986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q199" authorId="0">
+    <comment ref="Q210" authorId="0">
       <text>
         <r>
           <rPr>
@@ -1006,7 +1006,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="233">
   <si>
     <t>Device name</t>
   </si>
@@ -1639,13 +1639,79 @@
   </si>
   <si>
     <t>PRODUCT PLAN</t>
+  </si>
+  <si>
+    <t>B1200</t>
+  </si>
+  <si>
+    <t>Operation end</t>
+  </si>
+  <si>
+    <t>B1220</t>
+  </si>
+  <si>
+    <t>OPERATION END</t>
+  </si>
+  <si>
+    <t>D8340</t>
+  </si>
+  <si>
+    <t>D8341</t>
+  </si>
+  <si>
+    <t>D8342</t>
+  </si>
+  <si>
+    <t>D8343</t>
+  </si>
+  <si>
+    <t>D8344</t>
+  </si>
+  <si>
+    <t>D8345</t>
+  </si>
+  <si>
+    <t>D8346</t>
+  </si>
+  <si>
+    <t>D8347</t>
+  </si>
+  <si>
+    <t>D8348</t>
+  </si>
+  <si>
+    <t>D8349</t>
+  </si>
+  <si>
+    <t>D8350</t>
+  </si>
+  <si>
+    <t>WRITE</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>SERIAL NO.</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>B1221</t>
+  </si>
+  <si>
+    <t>Printer start</t>
+  </si>
+  <si>
+    <t>SHIFT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1681,13 +1747,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1709,7 +1769,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1755,6 +1815,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,9 +1945,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1922,25 +1988,40 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1957,20 +2038,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4028,13 +4158,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>195</xdr:row>
+      <xdr:row>206</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4079,13 +4209,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>207</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4130,13 +4260,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>197</xdr:row>
+      <xdr:row>208</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4181,23 +4311,125 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>198</xdr:row>
+      <xdr:row>172</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Arrow Connector 44"/>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="6172200" y="34109025"/>
+          <a:off x="6228292" y="34446633"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>210</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="47" name="Straight Arrow Connector 46"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6228292" y="39674800"/>
+          <a:ext cx="295275" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="arrow"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="Straight Arrow Connector 47"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6228292" y="41960800"/>
           <a:ext cx="295275" cy="1"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -4516,10 +4748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X199"/>
+  <dimension ref="A2:Y212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171:XFD171"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W198" sqref="W198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4527,13 +4759,14 @@
     <col min="1" max="1" width="13.5703125" customWidth="1"/>
     <col min="2" max="17" width="4.7109375" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" customWidth="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" customWidth="1"/>
-    <col min="23" max="23" width="11.7109375" customWidth="1"/>
-    <col min="24" max="24" width="36.85546875" customWidth="1"/>
+    <col min="19" max="19" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="15.75">
+    <row r="2" spans="1:22" ht="15.75">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4551,7 +4784,7 @@
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
     </row>
-    <row r="3" spans="1:21" ht="18.75" customHeight="1">
+    <row r="3" spans="1:22" ht="18.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -4607,7 +4840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="18.75" customHeight="1">
+    <row r="4" spans="1:22" ht="18.75" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -4627,14 +4860,15 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-      <c r="R4" s="26" t="s">
+      <c r="R4" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="45"/>
+      <c r="T4" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="18.75" customHeight="1">
+    <row r="5" spans="1:22" ht="18.75" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
@@ -4654,12 +4888,13 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="9">
+      <c r="R5" s="27"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="18.75" customHeight="1">
+    <row r="6" spans="1:22" ht="18.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>12</v>
       </c>
@@ -4679,12 +4914,13 @@
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="9">
+      <c r="R6" s="27"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="18.75" customHeight="1">
+    <row r="7" spans="1:22" ht="18.75" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>13</v>
       </c>
@@ -4704,12 +4940,13 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
       <c r="Q7" s="8"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="9">
+      <c r="R7" s="27"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="9">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="18.75" customHeight="1">
+    <row r="8" spans="1:22" ht="18.75" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
@@ -4729,9 +4966,10 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
       <c r="Q8" s="8"/>
-      <c r="R8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.75" customHeight="1">
+      <c r="R8" s="27"/>
+      <c r="S8" s="45"/>
+    </row>
+    <row r="9" spans="1:22" ht="18.75" customHeight="1">
       <c r="A9" s="6" t="s">
         <v>15</v>
       </c>
@@ -4751,9 +4989,10 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.75" customHeight="1">
+      <c r="R9" s="27"/>
+      <c r="S9" s="45"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" customHeight="1">
       <c r="A10" s="6" t="s">
         <v>16</v>
       </c>
@@ -4773,12 +5012,13 @@
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
-      <c r="R10" s="26"/>
-      <c r="S10" t="s">
+      <c r="R10" s="27"/>
+      <c r="S10" s="45"/>
+      <c r="T10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:22">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -4798,15 +5038,16 @@
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
       <c r="Q11" s="12"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="13" t="s">
+      <c r="R11" s="27"/>
+      <c r="S11" s="46"/>
+      <c r="T11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="U11" s="37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:22">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -4829,12 +5070,13 @@
       <c r="R12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="S12" s="13"/>
+      <c r="T12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T12" s="33"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="U12" s="38"/>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -4857,12 +5099,13 @@
       <c r="R13" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="13"/>
+      <c r="T13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T13" s="33"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="U13" s="38"/>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
@@ -4885,15 +5128,16 @@
       <c r="R14" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="6"/>
+      <c r="T14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T14" s="33"/>
-      <c r="U14" t="s">
+      <c r="U14" s="38"/>
+      <c r="V14" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:22">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -4916,15 +5160,16 @@
       <c r="R15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="S15" s="6"/>
+      <c r="T15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T15" s="33"/>
-      <c r="U15" t="s">
+      <c r="U15" s="38"/>
+      <c r="V15" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:22">
       <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
@@ -4947,15 +5192,16 @@
       <c r="R16" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="6"/>
+      <c r="T16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="33"/>
-      <c r="U16" t="s">
+      <c r="U16" s="38"/>
+      <c r="V16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:22">
       <c r="A17" s="6" t="s">
         <v>33</v>
       </c>
@@ -4979,12 +5225,13 @@
         <v>27</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="34"/>
-      <c r="U17" t="s">
+      <c r="T17" s="6"/>
+      <c r="U17" s="39"/>
+      <c r="V17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75">
+    <row r="20" spans="1:22" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -5040,7 +5287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" customHeight="1">
+    <row r="21" spans="1:22" ht="15" customHeight="1">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -5060,17 +5307,18 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
       <c r="Q21" s="8"/>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="26"/>
+      <c r="T21" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T21" s="31" t="s">
+      <c r="U21" s="33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" customHeight="1">
+    <row r="22" spans="1:22" ht="15" customHeight="1">
       <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
@@ -5090,13 +5338,14 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
       <c r="Q22" s="8"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="6" t="s">
+      <c r="R22" s="27"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T22" s="31"/>
-    </row>
-    <row r="23" spans="1:21" ht="15" customHeight="1">
+      <c r="U22" s="33"/>
+    </row>
+    <row r="23" spans="1:22" ht="15" customHeight="1">
       <c r="A23" s="6" t="s">
         <v>38</v>
       </c>
@@ -5116,11 +5365,12 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="31"/>
-    </row>
-    <row r="24" spans="1:21" ht="15" customHeight="1">
+      <c r="R23" s="27"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="33"/>
+    </row>
+    <row r="24" spans="1:22" ht="15" customHeight="1">
       <c r="A24" s="6" t="s">
         <v>39</v>
       </c>
@@ -5140,13 +5390,14 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
       <c r="Q24" s="8"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="6" t="s">
+      <c r="R24" s="27"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="31"/>
-    </row>
-    <row r="25" spans="1:21" ht="15" customHeight="1">
+      <c r="U24" s="33"/>
+    </row>
+    <row r="25" spans="1:22" ht="15" customHeight="1">
       <c r="A25" s="6" t="s">
         <v>40</v>
       </c>
@@ -5166,13 +5417,14 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="6" t="s">
+      <c r="R25" s="27"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T25" s="31"/>
-    </row>
-    <row r="26" spans="1:21" ht="15.75" customHeight="1">
+      <c r="U25" s="33"/>
+    </row>
+    <row r="26" spans="1:22" ht="15.75" customHeight="1">
       <c r="A26" s="6" t="s">
         <v>41</v>
       </c>
@@ -5192,13 +5444,14 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="6" t="s">
+      <c r="R26" s="27"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T26" s="31"/>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" customHeight="1">
+      <c r="U26" s="33"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" customHeight="1">
       <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
@@ -5218,13 +5471,14 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
-      <c r="R27" s="26"/>
-      <c r="S27" t="s">
+      <c r="R27" s="27"/>
+      <c r="S27" s="45"/>
+      <c r="T27" t="s">
         <v>17</v>
       </c>
-      <c r="T27" s="31"/>
-    </row>
-    <row r="28" spans="1:21">
+      <c r="U27" s="33"/>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28" s="6" t="s">
         <v>43</v>
       </c>
@@ -5244,13 +5498,14 @@
       <c r="O28" s="17"/>
       <c r="P28" s="17"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="13" t="s">
+      <c r="R28" s="27"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T28" s="31"/>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="U28" s="33"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" s="6" t="s">
         <v>44</v>
       </c>
@@ -5274,9 +5529,10 @@
         <v>22</v>
       </c>
       <c r="S29" s="6"/>
-      <c r="T29" s="31"/>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="T29" s="6"/>
+      <c r="U29" s="33"/>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="6" t="s">
         <v>45</v>
       </c>
@@ -5300,9 +5556,10 @@
         <v>25</v>
       </c>
       <c r="S30" s="6"/>
-      <c r="T30" s="31"/>
-    </row>
-    <row r="31" spans="1:21" ht="15" customHeight="1">
+      <c r="T30" s="6"/>
+      <c r="U30" s="33"/>
+    </row>
+    <row r="31" spans="1:22" ht="15" customHeight="1">
       <c r="A31" s="6" t="s">
         <v>46</v>
       </c>
@@ -5325,15 +5582,16 @@
       <c r="R31" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="6"/>
+      <c r="T31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T31" s="31"/>
-      <c r="U31" t="s">
+      <c r="U31" s="33"/>
+      <c r="V31" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" customHeight="1">
+    <row r="32" spans="1:22" ht="15" customHeight="1">
       <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
@@ -5356,15 +5614,16 @@
       <c r="R32" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="S32" s="6"/>
+      <c r="T32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T32" s="31"/>
-      <c r="U32" t="s">
+      <c r="U32" s="33"/>
+      <c r="V32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="16.5" customHeight="1">
+    <row r="33" spans="1:22" ht="16.5" customHeight="1">
       <c r="A33" s="6" t="s">
         <v>48</v>
       </c>
@@ -5387,15 +5646,16 @@
       <c r="R33" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="S33" s="6"/>
+      <c r="T33" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="31"/>
-      <c r="U33" t="s">
+      <c r="U33" s="33"/>
+      <c r="V33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15.75" customHeight="1">
+    <row r="34" spans="1:22" ht="15.75" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>49</v>
       </c>
@@ -5418,15 +5678,16 @@
       <c r="R34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S34" s="6" t="s">
+      <c r="S34" s="6"/>
+      <c r="T34" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T34" s="31"/>
-      <c r="U34" t="s">
+      <c r="U34" s="33"/>
+      <c r="V34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:22">
       <c r="A35" s="18"/>
       <c r="B35" s="18"/>
       <c r="C35" s="18"/>
@@ -5445,8 +5706,9 @@
       <c r="P35" s="18"/>
       <c r="Q35" s="18"/>
       <c r="R35" s="18"/>
-    </row>
-    <row r="36" spans="1:21">
+      <c r="S35" s="18"/>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36" s="18"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -5465,8 +5727,9 @@
       <c r="P36" s="18"/>
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
-    </row>
-    <row r="37" spans="1:21" ht="15.75">
+      <c r="S36" s="18"/>
+    </row>
+    <row r="37" spans="1:22" ht="15.75">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -5522,7 +5785,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1">
+    <row r="38" spans="1:22" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
         <v>50</v>
       </c>
@@ -5542,15 +5805,16 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
-      <c r="R38" s="26" t="s">
+      <c r="R38" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S38" s="6"/>
-      <c r="T38" s="35" t="s">
+      <c r="S38" s="26"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="40" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15.75" customHeight="1">
+    <row r="39" spans="1:22" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
         <v>52</v>
       </c>
@@ -5570,11 +5834,12 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="36"/>
-    </row>
-    <row r="40" spans="1:21" ht="15.75" customHeight="1">
+      <c r="R39" s="27"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="41"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1">
       <c r="A40" s="6" t="s">
         <v>53</v>
       </c>
@@ -5594,11 +5859,12 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
       <c r="Q40" s="8"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="36"/>
-    </row>
-    <row r="41" spans="1:21" ht="15.75" customHeight="1">
+      <c r="R40" s="27"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="41"/>
+    </row>
+    <row r="41" spans="1:22" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
         <v>54</v>
       </c>
@@ -5618,11 +5884,12 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
       <c r="Q41" s="8"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="36"/>
-    </row>
-    <row r="42" spans="1:21" ht="15.75" customHeight="1">
+      <c r="R41" s="27"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="15"/>
+      <c r="U41" s="41"/>
+    </row>
+    <row r="42" spans="1:22" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
         <v>55</v>
       </c>
@@ -5642,11 +5909,12 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
       <c r="Q42" s="8"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="15"/>
-      <c r="T42" s="36"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.75" customHeight="1">
+      <c r="R42" s="27"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="15"/>
+      <c r="U42" s="41"/>
+    </row>
+    <row r="43" spans="1:22" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
         <v>56</v>
       </c>
@@ -5666,11 +5934,12 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
       <c r="Q43" s="8"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="36"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.75" customHeight="1">
+      <c r="R43" s="27"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="15"/>
+      <c r="U43" s="41"/>
+    </row>
+    <row r="44" spans="1:22" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
         <v>57</v>
       </c>
@@ -5690,13 +5959,14 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
       <c r="Q44" s="8"/>
-      <c r="R44" s="26"/>
-      <c r="S44" t="s">
+      <c r="R44" s="27"/>
+      <c r="S44" s="45"/>
+      <c r="T44" t="s">
         <v>17</v>
       </c>
-      <c r="T44" s="36"/>
-    </row>
-    <row r="45" spans="1:21" ht="15" customHeight="1">
+      <c r="U44" s="41"/>
+    </row>
+    <row r="45" spans="1:22" ht="15" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>58</v>
       </c>
@@ -5716,13 +5986,14 @@
       <c r="O45" s="17"/>
       <c r="P45" s="17"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="13" t="s">
+      <c r="R45" s="27"/>
+      <c r="S45" s="46"/>
+      <c r="T45" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T45" s="36"/>
-    </row>
-    <row r="46" spans="1:21" ht="15" customHeight="1">
+      <c r="U45" s="41"/>
+    </row>
+    <row r="46" spans="1:22" ht="15" customHeight="1">
       <c r="A46" s="6" t="s">
         <v>59</v>
       </c>
@@ -5745,12 +6016,13 @@
       <c r="R46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="S46" s="6"/>
+      <c r="T46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T46" s="36"/>
-    </row>
-    <row r="47" spans="1:21" ht="15" customHeight="1">
+      <c r="U46" s="41"/>
+    </row>
+    <row r="47" spans="1:22" ht="15" customHeight="1">
       <c r="A47" s="6" t="s">
         <v>60</v>
       </c>
@@ -5773,12 +6045,13 @@
       <c r="R47" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S47" s="6" t="s">
+      <c r="S47" s="6"/>
+      <c r="T47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T47" s="36"/>
-    </row>
-    <row r="48" spans="1:21" ht="15" customHeight="1">
+      <c r="U47" s="41"/>
+    </row>
+    <row r="48" spans="1:22" ht="15" customHeight="1">
       <c r="A48" s="6" t="s">
         <v>61</v>
       </c>
@@ -5801,15 +6074,16 @@
       <c r="R48" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S48" s="6" t="s">
+      <c r="S48" s="6"/>
+      <c r="T48" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T48" s="36"/>
-      <c r="U48" t="s">
+      <c r="U48" s="41"/>
+      <c r="V48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="15" customHeight="1">
+    <row r="49" spans="1:25" ht="15" customHeight="1">
       <c r="A49" s="6" t="s">
         <v>62</v>
       </c>
@@ -5832,15 +6106,16 @@
       <c r="R49" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S49" s="6" t="s">
+      <c r="S49" s="6"/>
+      <c r="T49" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T49" s="36"/>
-      <c r="U49" t="s">
+      <c r="U49" s="41"/>
+      <c r="V49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="21" customHeight="1">
+    <row r="50" spans="1:25" ht="21" customHeight="1">
       <c r="A50" s="6" t="s">
         <v>63</v>
       </c>
@@ -5863,15 +6138,16 @@
       <c r="R50" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S50" s="6" t="s">
+      <c r="S50" s="6"/>
+      <c r="T50" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T50" s="36"/>
-      <c r="U50" t="s">
+      <c r="U50" s="41"/>
+      <c r="V50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="21" customHeight="1">
+    <row r="51" spans="1:25" ht="21" customHeight="1">
       <c r="A51" s="6" t="s">
         <v>64</v>
       </c>
@@ -5894,15 +6170,16 @@
       <c r="R51" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S51" s="6" t="s">
+      <c r="S51" s="6"/>
+      <c r="T51" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="36"/>
-      <c r="U51" t="s">
+      <c r="U51" s="41"/>
+      <c r="V51" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="15.75">
+    <row r="54" spans="1:25" ht="15.75">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -5958,17 +6235,18 @@
         <v>7</v>
       </c>
       <c r="S54" s="6"/>
-      <c r="T54" s="31" t="s">
+      <c r="T54" s="6"/>
+      <c r="U54" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="W54" s="20" t="s">
+      <c r="X54" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="X54" s="6" t="s">
+      <c r="Y54" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="15.75">
+    <row r="55" spans="1:25" ht="15.75">
       <c r="A55" s="6" t="s">
         <v>68</v>
       </c>
@@ -5988,19 +6266,20 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
-      <c r="R55" s="26" t="s">
+      <c r="R55" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S55" s="6"/>
-      <c r="T55" s="31"/>
-      <c r="W55" s="20">
+      <c r="S55" s="26"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="33"/>
+      <c r="X55" s="20">
         <v>2</v>
       </c>
-      <c r="X55" s="6" t="s">
+      <c r="Y55" s="6" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="15.75">
+    <row r="56" spans="1:25" ht="15.75">
       <c r="A56" s="6" t="s">
         <v>70</v>
       </c>
@@ -6020,17 +6299,18 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
       <c r="Q56" s="8"/>
-      <c r="R56" s="26"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="31"/>
-      <c r="W56" s="20">
+      <c r="R56" s="27"/>
+      <c r="S56" s="26"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="33"/>
+      <c r="X56" s="20">
         <v>3</v>
       </c>
-      <c r="X56" s="6" t="s">
+      <c r="Y56" s="6" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="15.75">
+    <row r="57" spans="1:25" ht="15.75">
       <c r="A57" s="6" t="s">
         <v>72</v>
       </c>
@@ -6050,17 +6330,18 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
       <c r="Q57" s="8"/>
-      <c r="R57" s="26"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="31"/>
-      <c r="W57" s="20">
+      <c r="R57" s="27"/>
+      <c r="S57" s="26"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="33"/>
+      <c r="X57" s="20">
         <v>4</v>
       </c>
-      <c r="X57" s="6" t="s">
+      <c r="Y57" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="15.75">
+    <row r="58" spans="1:25" ht="15.75">
       <c r="A58" s="6" t="s">
         <v>74</v>
       </c>
@@ -6080,17 +6361,18 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
-      <c r="R58" s="26"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="31"/>
-      <c r="W58" s="20">
+      <c r="R58" s="27"/>
+      <c r="S58" s="26"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="33"/>
+      <c r="X58" s="20">
         <v>5</v>
       </c>
-      <c r="X58" s="6" t="s">
+      <c r="Y58" s="6" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="15.75">
+    <row r="59" spans="1:25" ht="15.75">
       <c r="A59" s="6" t="s">
         <v>76</v>
       </c>
@@ -6110,17 +6392,18 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
-      <c r="R59" s="26"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="31"/>
-      <c r="W59" s="20">
+      <c r="R59" s="27"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="33"/>
+      <c r="X59" s="20">
         <v>6</v>
       </c>
-      <c r="X59" s="6" t="s">
+      <c r="Y59" s="6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="15.75">
+    <row r="60" spans="1:25" ht="15.75">
       <c r="A60" s="6" t="s">
         <v>78</v>
       </c>
@@ -6140,17 +6423,18 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
-      <c r="R60" s="26"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="31"/>
-      <c r="W60" s="20">
+      <c r="R60" s="27"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="33"/>
+      <c r="X60" s="20">
         <v>7</v>
       </c>
-      <c r="X60" s="6" t="s">
+      <c r="Y60" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="15.75">
+    <row r="61" spans="1:25" ht="15.75">
       <c r="A61" s="6" t="s">
         <v>80</v>
       </c>
@@ -6170,19 +6454,20 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
       <c r="Q61" s="8"/>
-      <c r="R61" s="26"/>
-      <c r="S61" t="s">
+      <c r="R61" s="27"/>
+      <c r="S61" s="45"/>
+      <c r="T61" t="s">
         <v>17</v>
       </c>
-      <c r="T61" s="31"/>
-      <c r="W61" s="20">
+      <c r="U61" s="33"/>
+      <c r="X61" s="20">
         <v>8</v>
       </c>
-      <c r="X61" s="6" t="s">
+      <c r="Y61" s="6" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:24">
+    <row r="62" spans="1:25">
       <c r="A62" s="6" t="s">
         <v>82</v>
       </c>
@@ -6202,19 +6487,20 @@
       <c r="O62" s="17"/>
       <c r="P62" s="17"/>
       <c r="Q62" s="17"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="13" t="s">
+      <c r="R62" s="27"/>
+      <c r="S62" s="46"/>
+      <c r="T62" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T62" s="31"/>
-      <c r="W62" s="20">
+      <c r="U62" s="33"/>
+      <c r="X62" s="20">
         <v>9</v>
       </c>
-      <c r="X62" s="6" t="s">
+      <c r="Y62" s="6" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:24">
+    <row r="63" spans="1:25">
       <c r="A63" s="6" t="s">
         <v>84</v>
       </c>
@@ -6237,18 +6523,19 @@
       <c r="R63" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S63" s="6" t="s">
+      <c r="S63" s="6"/>
+      <c r="T63" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T63" s="31"/>
-      <c r="W63" s="20">
+      <c r="U63" s="33"/>
+      <c r="X63" s="20">
         <v>10</v>
       </c>
-      <c r="X63" s="6" t="s">
+      <c r="Y63" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="15" customHeight="1">
+    <row r="64" spans="1:25" ht="15" customHeight="1">
       <c r="A64" s="6" t="s">
         <v>86</v>
       </c>
@@ -6271,18 +6558,19 @@
       <c r="R64" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S64" s="6" t="s">
+      <c r="S64" s="6"/>
+      <c r="T64" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T64" s="31"/>
-      <c r="W64" s="20">
+      <c r="U64" s="33"/>
+      <c r="X64" s="20">
         <v>11</v>
       </c>
-      <c r="X64" s="6" t="s">
+      <c r="Y64" s="6" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="15" customHeight="1">
+    <row r="65" spans="1:25" ht="15" customHeight="1">
       <c r="A65" s="6" t="s">
         <v>88</v>
       </c>
@@ -6305,21 +6593,22 @@
       <c r="R65" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S65" s="6" t="s">
+      <c r="S65" s="6"/>
+      <c r="T65" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T65" s="31"/>
-      <c r="U65" t="s">
+      <c r="U65" s="33"/>
+      <c r="V65" t="s">
         <v>28</v>
       </c>
-      <c r="W65" s="20">
+      <c r="X65" s="20">
         <v>12</v>
       </c>
-      <c r="X65" s="6" t="s">
+      <c r="Y65" s="6" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="15" customHeight="1">
+    <row r="66" spans="1:25" ht="15" customHeight="1">
       <c r="A66" s="6" t="s">
         <v>90</v>
       </c>
@@ -6342,15 +6631,16 @@
       <c r="R66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S66" s="6" t="s">
+      <c r="S66" s="6"/>
+      <c r="T66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T66" s="31"/>
-      <c r="U66" t="s">
+      <c r="U66" s="33"/>
+      <c r="V66" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16.5" customHeight="1">
+    <row r="67" spans="1:25" ht="16.5" customHeight="1">
       <c r="A67" s="6" t="s">
         <v>91</v>
       </c>
@@ -6373,15 +6663,16 @@
       <c r="R67" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S67" s="6" t="s">
+      <c r="S67" s="6"/>
+      <c r="T67" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T67" s="31"/>
-      <c r="U67" t="s">
+      <c r="U67" s="33"/>
+      <c r="V67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="21" customHeight="1">
+    <row r="68" spans="1:25" ht="21" customHeight="1">
       <c r="A68" s="6" t="s">
         <v>92</v>
       </c>
@@ -6404,15 +6695,16 @@
       <c r="R68" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S68" s="6" t="s">
+      <c r="S68" s="6"/>
+      <c r="T68" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T68" s="31"/>
-      <c r="U68" t="s">
+      <c r="U68" s="33"/>
+      <c r="V68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="18.75" customHeight="1">
+    <row r="71" spans="1:25" ht="18.75" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>0</v>
       </c>
@@ -6468,7 +6760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="18.75" customHeight="1">
+    <row r="72" spans="1:25" ht="18.75" customHeight="1">
       <c r="A72" s="6" t="s">
         <v>93</v>
       </c>
@@ -6488,15 +6780,16 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
-      <c r="R72" s="26" t="s">
+      <c r="R72" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S72" s="6"/>
-      <c r="T72" s="32" t="s">
+      <c r="S72" s="26"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="37" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="18.75" customHeight="1">
+    <row r="73" spans="1:25" ht="18.75" customHeight="1">
       <c r="A73" s="6" t="s">
         <v>95</v>
       </c>
@@ -6516,11 +6809,12 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="33"/>
-    </row>
-    <row r="74" spans="1:24" ht="18.75" customHeight="1">
+      <c r="R73" s="27"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="38"/>
+    </row>
+    <row r="74" spans="1:25" ht="18.75" customHeight="1">
       <c r="A74" s="6" t="s">
         <v>96</v>
       </c>
@@ -6540,11 +6834,12 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
-      <c r="R74" s="26"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="33"/>
-    </row>
-    <row r="75" spans="1:24" ht="18.75" customHeight="1">
+      <c r="R74" s="27"/>
+      <c r="S74" s="26"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="38"/>
+    </row>
+    <row r="75" spans="1:25" ht="18.75" customHeight="1">
       <c r="A75" s="6" t="s">
         <v>97</v>
       </c>
@@ -6564,11 +6859,12 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
       <c r="Q75" s="8"/>
-      <c r="R75" s="26"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="33"/>
-    </row>
-    <row r="76" spans="1:24" ht="15.75" customHeight="1">
+      <c r="R75" s="27"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="38"/>
+    </row>
+    <row r="76" spans="1:25" ht="15.75" customHeight="1">
       <c r="A76" s="6" t="s">
         <v>98</v>
       </c>
@@ -6588,11 +6884,12 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
       <c r="Q76" s="8"/>
-      <c r="R76" s="26"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="33"/>
-    </row>
-    <row r="77" spans="1:24" ht="15.75" customHeight="1">
+      <c r="R76" s="27"/>
+      <c r="S76" s="26"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="38"/>
+    </row>
+    <row r="77" spans="1:25" ht="15.75" customHeight="1">
       <c r="A77" s="6" t="s">
         <v>99</v>
       </c>
@@ -6612,11 +6909,12 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
-      <c r="R77" s="26"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="33"/>
-    </row>
-    <row r="78" spans="1:24" ht="15.75" customHeight="1">
+      <c r="R77" s="27"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="38"/>
+    </row>
+    <row r="78" spans="1:25" ht="15.75" customHeight="1">
       <c r="A78" s="6" t="s">
         <v>100</v>
       </c>
@@ -6636,11 +6934,12 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
-      <c r="R78" s="26"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="33"/>
-    </row>
-    <row r="79" spans="1:24" ht="15" customHeight="1">
+      <c r="R78" s="27"/>
+      <c r="S78" s="26"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="38"/>
+    </row>
+    <row r="79" spans="1:25" ht="15" customHeight="1">
       <c r="A79" s="6" t="s">
         <v>101</v>
       </c>
@@ -6660,13 +6959,14 @@
       <c r="O79" s="17"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
-      <c r="R79" s="26"/>
-      <c r="S79" s="13" t="s">
+      <c r="R79" s="27"/>
+      <c r="S79" s="46"/>
+      <c r="T79" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T79" s="33"/>
-    </row>
-    <row r="80" spans="1:24" ht="15" customHeight="1">
+      <c r="U79" s="38"/>
+    </row>
+    <row r="80" spans="1:25" ht="15" customHeight="1">
       <c r="A80" s="6" t="s">
         <v>102</v>
       </c>
@@ -6689,12 +6989,13 @@
       <c r="R80" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S80" s="6" t="s">
+      <c r="S80" s="6"/>
+      <c r="T80" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T80" s="33"/>
-    </row>
-    <row r="81" spans="1:21" ht="15" customHeight="1">
+      <c r="U80" s="38"/>
+    </row>
+    <row r="81" spans="1:22" ht="15" customHeight="1">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -6717,12 +7018,13 @@
       <c r="R81" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S81" s="6" t="s">
+      <c r="S81" s="6"/>
+      <c r="T81" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T81" s="33"/>
-    </row>
-    <row r="82" spans="1:21" ht="15" customHeight="1">
+      <c r="U81" s="38"/>
+    </row>
+    <row r="82" spans="1:22" ht="15" customHeight="1">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -6745,15 +7047,16 @@
       <c r="R82" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S82" s="6" t="s">
+      <c r="S82" s="6"/>
+      <c r="T82" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T82" s="33"/>
-      <c r="U82" t="s">
+      <c r="U82" s="38"/>
+      <c r="V82" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="15" customHeight="1">
+    <row r="83" spans="1:22" ht="15" customHeight="1">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -6776,15 +7079,16 @@
       <c r="R83" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S83" s="6" t="s">
+      <c r="S83" s="6"/>
+      <c r="T83" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T83" s="33"/>
-      <c r="U83" t="s">
+      <c r="U83" s="38"/>
+      <c r="V83" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="18" customHeight="1">
+    <row r="84" spans="1:22" ht="18" customHeight="1">
       <c r="A84" s="6" t="s">
         <v>106</v>
       </c>
@@ -6807,15 +7111,16 @@
       <c r="R84" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S84" s="6" t="s">
+      <c r="S84" s="6"/>
+      <c r="T84" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T84" s="33"/>
-      <c r="U84" t="s">
+      <c r="U84" s="38"/>
+      <c r="V84" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:21" ht="18" customHeight="1">
+    <row r="85" spans="1:22" ht="18" customHeight="1">
       <c r="A85" s="6" t="s">
         <v>107</v>
       </c>
@@ -6838,15 +7143,16 @@
       <c r="R85" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S85" s="6" t="s">
+      <c r="S85" s="6"/>
+      <c r="T85" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="34"/>
-      <c r="U85" t="s">
+      <c r="U85" s="39"/>
+      <c r="V85" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="15.75">
+    <row r="88" spans="1:22" ht="15.75">
       <c r="A88" s="3" t="s">
         <v>0</v>
       </c>
@@ -6902,7 +7208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15.75">
+    <row r="89" spans="1:22" ht="15.75">
       <c r="A89" s="6" t="s">
         <v>108</v>
       </c>
@@ -6922,15 +7228,16 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
       <c r="Q89" s="8"/>
-      <c r="R89" s="26" t="s">
+      <c r="R89" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S89" s="6"/>
-      <c r="T89" s="31" t="s">
+      <c r="S89" s="26"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="33" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15.75">
+    <row r="90" spans="1:22" ht="15.75">
       <c r="A90" s="6" t="s">
         <v>110</v>
       </c>
@@ -6950,11 +7257,12 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
-      <c r="R90" s="26"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="31"/>
-    </row>
-    <row r="91" spans="1:21" ht="15.75">
+      <c r="R90" s="27"/>
+      <c r="S90" s="26"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="33"/>
+    </row>
+    <row r="91" spans="1:22" ht="15.75">
       <c r="A91" s="6" t="s">
         <v>111</v>
       </c>
@@ -6974,11 +7282,12 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
-      <c r="R91" s="26"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="31"/>
-    </row>
-    <row r="92" spans="1:21" ht="15.75">
+      <c r="R91" s="27"/>
+      <c r="S91" s="26"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="33"/>
+    </row>
+    <row r="92" spans="1:22" ht="15.75">
       <c r="A92" s="6" t="s">
         <v>112</v>
       </c>
@@ -6998,11 +7307,12 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
-      <c r="R92" s="26"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="31"/>
-    </row>
-    <row r="93" spans="1:21" ht="15.75">
+      <c r="R92" s="27"/>
+      <c r="S92" s="26"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="33"/>
+    </row>
+    <row r="93" spans="1:22" ht="15.75">
       <c r="A93" s="6" t="s">
         <v>113</v>
       </c>
@@ -7022,11 +7332,12 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
       <c r="Q93" s="8"/>
-      <c r="R93" s="26"/>
-      <c r="S93" s="6"/>
-      <c r="T93" s="31"/>
-    </row>
-    <row r="94" spans="1:21" ht="15.75">
+      <c r="R93" s="27"/>
+      <c r="S93" s="26"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="33"/>
+    </row>
+    <row r="94" spans="1:22" ht="15.75">
       <c r="A94" s="6" t="s">
         <v>114</v>
       </c>
@@ -7046,11 +7357,12 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
-      <c r="R94" s="26"/>
-      <c r="S94" s="6"/>
-      <c r="T94" s="31"/>
-    </row>
-    <row r="95" spans="1:21" ht="15.75">
+      <c r="R94" s="27"/>
+      <c r="S94" s="26"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="33"/>
+    </row>
+    <row r="95" spans="1:22" ht="15.75">
       <c r="A95" s="6" t="s">
         <v>115</v>
       </c>
@@ -7070,11 +7382,12 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
-      <c r="R95" s="26"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="31"/>
-    </row>
-    <row r="96" spans="1:21">
+      <c r="R95" s="27"/>
+      <c r="S95" s="26"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="33"/>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96" s="6" t="s">
         <v>116</v>
       </c>
@@ -7094,13 +7407,14 @@
       <c r="O96" s="17"/>
       <c r="P96" s="17"/>
       <c r="Q96" s="17"/>
-      <c r="R96" s="26"/>
-      <c r="S96" s="13" t="s">
+      <c r="R96" s="27"/>
+      <c r="S96" s="46"/>
+      <c r="T96" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T96" s="31"/>
-    </row>
-    <row r="97" spans="1:21" ht="15" customHeight="1">
+      <c r="U96" s="33"/>
+    </row>
+    <row r="97" spans="1:22" ht="15" customHeight="1">
       <c r="A97" s="6" t="s">
         <v>117</v>
       </c>
@@ -7123,12 +7437,13 @@
       <c r="R97" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S97" s="6" t="s">
+      <c r="S97" s="6"/>
+      <c r="T97" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T97" s="31"/>
-    </row>
-    <row r="98" spans="1:21" ht="15" customHeight="1">
+      <c r="U97" s="33"/>
+    </row>
+    <row r="98" spans="1:22" ht="15" customHeight="1">
       <c r="A98" s="6" t="s">
         <v>118</v>
       </c>
@@ -7151,12 +7466,13 @@
       <c r="R98" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S98" s="6" t="s">
+      <c r="S98" s="6"/>
+      <c r="T98" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T98" s="31"/>
-    </row>
-    <row r="99" spans="1:21" ht="15" customHeight="1">
+      <c r="U98" s="33"/>
+    </row>
+    <row r="99" spans="1:22" ht="15" customHeight="1">
       <c r="A99" s="6" t="s">
         <v>119</v>
       </c>
@@ -7179,15 +7495,16 @@
       <c r="R99" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S99" s="6" t="s">
+      <c r="S99" s="6"/>
+      <c r="T99" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T99" s="31"/>
-      <c r="U99" t="s">
+      <c r="U99" s="33"/>
+      <c r="V99" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="100" spans="1:21" ht="15" customHeight="1">
+    <row r="100" spans="1:22" ht="15" customHeight="1">
       <c r="A100" s="21" t="s">
         <v>120</v>
       </c>
@@ -7210,15 +7527,16 @@
       <c r="R100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S100" s="6" t="s">
+      <c r="S100" s="6"/>
+      <c r="T100" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T100" s="31"/>
-      <c r="U100" t="s">
+      <c r="U100" s="33"/>
+      <c r="V100" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="16.5" customHeight="1">
+    <row r="101" spans="1:22" ht="16.5" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>121</v>
       </c>
@@ -7241,15 +7559,16 @@
       <c r="R101" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S101" s="6" t="s">
+      <c r="S101" s="6"/>
+      <c r="T101" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="31"/>
-      <c r="U101" t="s">
+      <c r="U101" s="33"/>
+      <c r="V101" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="16.5" customHeight="1">
+    <row r="102" spans="1:22" ht="16.5" customHeight="1">
       <c r="A102" s="21" t="s">
         <v>122</v>
       </c>
@@ -7272,15 +7591,16 @@
       <c r="R102" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S102" s="6" t="s">
+      <c r="S102" s="6"/>
+      <c r="T102" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="T102" s="31"/>
-      <c r="U102" t="s">
+      <c r="U102" s="33"/>
+      <c r="V102" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15.75">
+    <row r="105" spans="1:22" ht="15.75">
       <c r="A105" s="3" t="s">
         <v>0</v>
       </c>
@@ -7336,7 +7656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15.75">
+    <row r="106" spans="1:22" ht="15.75">
       <c r="A106" s="6" t="s">
         <v>123</v>
       </c>
@@ -7356,15 +7676,16 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
-      <c r="R106" s="26" t="s">
+      <c r="R106" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S106" s="22"/>
-      <c r="T106" s="27" t="s">
+      <c r="S106" s="47"/>
+      <c r="T106" s="22"/>
+      <c r="U106" s="36" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15.75">
+    <row r="107" spans="1:22" ht="15.75">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -7384,11 +7705,12 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
-      <c r="R107" s="26"/>
-      <c r="S107" s="22"/>
-      <c r="T107" s="27"/>
-    </row>
-    <row r="108" spans="1:21" ht="15.75">
+      <c r="R107" s="27"/>
+      <c r="S107" s="47"/>
+      <c r="T107" s="22"/>
+      <c r="U107" s="36"/>
+    </row>
+    <row r="108" spans="1:22" ht="15.75">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -7408,11 +7730,12 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
-      <c r="R108" s="26"/>
-      <c r="S108" s="22"/>
-      <c r="T108" s="27"/>
-    </row>
-    <row r="109" spans="1:21" ht="15.75">
+      <c r="R108" s="27"/>
+      <c r="S108" s="47"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="36"/>
+    </row>
+    <row r="109" spans="1:22" ht="15.75">
       <c r="A109" s="6" t="s">
         <v>127</v>
       </c>
@@ -7432,11 +7755,12 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
       <c r="Q109" s="8"/>
-      <c r="R109" s="26"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="27"/>
-    </row>
-    <row r="110" spans="1:21" ht="15.75">
+      <c r="R109" s="27"/>
+      <c r="S109" s="47"/>
+      <c r="T109" s="22"/>
+      <c r="U109" s="36"/>
+    </row>
+    <row r="110" spans="1:22" ht="15.75">
       <c r="A110" s="6" t="s">
         <v>128</v>
       </c>
@@ -7456,11 +7780,12 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
-      <c r="R110" s="26"/>
-      <c r="S110" s="22"/>
-      <c r="T110" s="27"/>
-    </row>
-    <row r="111" spans="1:21" ht="15.75">
+      <c r="R110" s="27"/>
+      <c r="S110" s="47"/>
+      <c r="T110" s="22"/>
+      <c r="U110" s="36"/>
+    </row>
+    <row r="111" spans="1:22" ht="15.75">
       <c r="A111" s="6" t="s">
         <v>129</v>
       </c>
@@ -7480,11 +7805,12 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
-      <c r="R111" s="26"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="27"/>
-    </row>
-    <row r="112" spans="1:21" ht="15.75">
+      <c r="R111" s="27"/>
+      <c r="S111" s="47"/>
+      <c r="T111" s="22"/>
+      <c r="U111" s="36"/>
+    </row>
+    <row r="112" spans="1:22" ht="15.75">
       <c r="A112" s="6" t="s">
         <v>130</v>
       </c>
@@ -7504,11 +7830,12 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
-      <c r="R112" s="26"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="27"/>
-    </row>
-    <row r="113" spans="1:21">
+      <c r="R112" s="27"/>
+      <c r="S112" s="47"/>
+      <c r="T112" s="22"/>
+      <c r="U112" s="36"/>
+    </row>
+    <row r="113" spans="1:22">
       <c r="A113" s="6" t="s">
         <v>131</v>
       </c>
@@ -7528,13 +7855,14 @@
       <c r="O113" s="17"/>
       <c r="P113" s="17"/>
       <c r="Q113" s="17"/>
-      <c r="R113" s="26"/>
-      <c r="S113" s="13" t="s">
+      <c r="R113" s="27"/>
+      <c r="S113" s="46"/>
+      <c r="T113" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T113" s="27"/>
-    </row>
-    <row r="114" spans="1:21" ht="15" customHeight="1">
+      <c r="U113" s="36"/>
+    </row>
+    <row r="114" spans="1:22" ht="15" customHeight="1">
       <c r="A114" s="6" t="s">
         <v>132</v>
       </c>
@@ -7557,12 +7885,13 @@
       <c r="R114" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S114" s="22" t="s">
+      <c r="S114" s="22"/>
+      <c r="T114" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T114" s="27"/>
-    </row>
-    <row r="115" spans="1:21" ht="15" customHeight="1">
+      <c r="U114" s="36"/>
+    </row>
+    <row r="115" spans="1:22" ht="15" customHeight="1">
       <c r="A115" s="6" t="s">
         <v>133</v>
       </c>
@@ -7585,12 +7914,13 @@
       <c r="R115" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S115" s="22" t="s">
+      <c r="S115" s="22"/>
+      <c r="T115" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T115" s="27"/>
-    </row>
-    <row r="116" spans="1:21" ht="15" customHeight="1">
+      <c r="U115" s="36"/>
+    </row>
+    <row r="116" spans="1:22" ht="15" customHeight="1">
       <c r="A116" s="6" t="s">
         <v>134</v>
       </c>
@@ -7613,15 +7943,16 @@
       <c r="R116" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S116" s="22" t="s">
+      <c r="S116" s="22"/>
+      <c r="T116" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T116" s="27"/>
-      <c r="U116" t="s">
+      <c r="U116" s="36"/>
+      <c r="V116" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15" customHeight="1">
+    <row r="117" spans="1:22" ht="15" customHeight="1">
       <c r="A117" s="6" t="s">
         <v>135</v>
       </c>
@@ -7644,15 +7975,16 @@
       <c r="R117" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S117" s="22" t="s">
+      <c r="S117" s="22"/>
+      <c r="T117" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T117" s="27"/>
-      <c r="U117" t="s">
+      <c r="U117" s="36"/>
+      <c r="V117" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:22">
       <c r="A118" s="6" t="s">
         <v>136</v>
       </c>
@@ -7675,15 +8007,16 @@
       <c r="R118" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S118" s="22" t="s">
+      <c r="S118" s="22"/>
+      <c r="T118" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T118" s="27"/>
-      <c r="U118" t="s">
+      <c r="U118" s="36"/>
+      <c r="V118" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:22">
       <c r="A119" s="6" t="s">
         <v>137</v>
       </c>
@@ -7706,15 +8039,16 @@
       <c r="R119" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S119" s="22" t="s">
+      <c r="S119" s="22"/>
+      <c r="T119" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T119" s="27"/>
-      <c r="U119" t="s">
+      <c r="U119" s="36"/>
+      <c r="V119" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="122" spans="1:21" ht="15.75">
+    <row r="122" spans="1:22" ht="15.75">
       <c r="A122" s="3" t="s">
         <v>0</v>
       </c>
@@ -7770,7 +8104,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:21" ht="15.75">
+    <row r="123" spans="1:22" ht="15.75">
       <c r="A123" s="6" t="s">
         <v>138</v>
       </c>
@@ -7790,15 +8124,16 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
       <c r="Q123" s="8"/>
-      <c r="R123" s="26" t="s">
+      <c r="R123" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S123" s="22"/>
-      <c r="T123" s="27" t="s">
+      <c r="S123" s="47"/>
+      <c r="T123" s="22"/>
+      <c r="U123" s="36" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="124" spans="1:21" ht="15.75">
+    <row r="124" spans="1:22" ht="15.75">
       <c r="A124" s="6" t="s">
         <v>140</v>
       </c>
@@ -7818,11 +8153,12 @@
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
       <c r="Q124" s="8"/>
-      <c r="R124" s="26"/>
-      <c r="S124" s="22"/>
-      <c r="T124" s="27"/>
-    </row>
-    <row r="125" spans="1:21" ht="15.75">
+      <c r="R124" s="27"/>
+      <c r="S124" s="47"/>
+      <c r="T124" s="22"/>
+      <c r="U124" s="36"/>
+    </row>
+    <row r="125" spans="1:22" ht="15.75">
       <c r="A125" s="6" t="s">
         <v>141</v>
       </c>
@@ -7842,11 +8178,12 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
       <c r="Q125" s="8"/>
-      <c r="R125" s="26"/>
-      <c r="S125" s="22"/>
-      <c r="T125" s="27"/>
-    </row>
-    <row r="126" spans="1:21" ht="15.75">
+      <c r="R125" s="27"/>
+      <c r="S125" s="47"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="36"/>
+    </row>
+    <row r="126" spans="1:22" ht="15.75">
       <c r="A126" s="6" t="s">
         <v>142</v>
       </c>
@@ -7866,11 +8203,12 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
       <c r="Q126" s="8"/>
-      <c r="R126" s="26"/>
-      <c r="S126" s="22"/>
-      <c r="T126" s="27"/>
-    </row>
-    <row r="127" spans="1:21" ht="15.75">
+      <c r="R126" s="27"/>
+      <c r="S126" s="47"/>
+      <c r="T126" s="22"/>
+      <c r="U126" s="36"/>
+    </row>
+    <row r="127" spans="1:22" ht="15.75">
       <c r="A127" s="6" t="s">
         <v>143</v>
       </c>
@@ -7890,11 +8228,12 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
       <c r="Q127" s="8"/>
-      <c r="R127" s="26"/>
-      <c r="S127" s="22"/>
-      <c r="T127" s="27"/>
-    </row>
-    <row r="128" spans="1:21" ht="15.75">
+      <c r="R127" s="27"/>
+      <c r="S127" s="47"/>
+      <c r="T127" s="22"/>
+      <c r="U127" s="36"/>
+    </row>
+    <row r="128" spans="1:22" ht="15.75">
       <c r="A128" s="6" t="s">
         <v>144</v>
       </c>
@@ -7914,11 +8253,12 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
       <c r="Q128" s="8"/>
-      <c r="R128" s="26"/>
-      <c r="S128" s="22"/>
-      <c r="T128" s="27"/>
-    </row>
-    <row r="129" spans="1:21" ht="15.75" customHeight="1">
+      <c r="R128" s="27"/>
+      <c r="S128" s="47"/>
+      <c r="T128" s="22"/>
+      <c r="U128" s="36"/>
+    </row>
+    <row r="129" spans="1:22" ht="15.75" customHeight="1">
       <c r="A129" s="6" t="s">
         <v>145</v>
       </c>
@@ -7938,11 +8278,12 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
       <c r="Q129" s="8"/>
-      <c r="R129" s="26"/>
-      <c r="S129" s="22"/>
-      <c r="T129" s="27"/>
-    </row>
-    <row r="130" spans="1:21" ht="15" customHeight="1">
+      <c r="R129" s="27"/>
+      <c r="S129" s="47"/>
+      <c r="T129" s="22"/>
+      <c r="U129" s="36"/>
+    </row>
+    <row r="130" spans="1:22" ht="15" customHeight="1">
       <c r="A130" s="6" t="s">
         <v>146</v>
       </c>
@@ -7962,13 +8303,14 @@
       <c r="O130" s="17"/>
       <c r="P130" s="17"/>
       <c r="Q130" s="17"/>
-      <c r="R130" s="26"/>
-      <c r="S130" s="13" t="s">
+      <c r="R130" s="27"/>
+      <c r="S130" s="46"/>
+      <c r="T130" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T130" s="27"/>
-    </row>
-    <row r="131" spans="1:21" ht="15" customHeight="1">
+      <c r="U130" s="36"/>
+    </row>
+    <row r="131" spans="1:22" ht="15" customHeight="1">
       <c r="A131" s="6" t="s">
         <v>147</v>
       </c>
@@ -7991,12 +8333,13 @@
       <c r="R131" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S131" s="22" t="s">
+      <c r="S131" s="22"/>
+      <c r="T131" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T131" s="27"/>
-    </row>
-    <row r="132" spans="1:21" ht="15" customHeight="1">
+      <c r="U131" s="36"/>
+    </row>
+    <row r="132" spans="1:22" ht="15" customHeight="1">
       <c r="A132" s="6" t="s">
         <v>148</v>
       </c>
@@ -8019,12 +8362,13 @@
       <c r="R132" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S132" s="22" t="s">
+      <c r="S132" s="22"/>
+      <c r="T132" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T132" s="27"/>
-    </row>
-    <row r="133" spans="1:21" ht="15" customHeight="1">
+      <c r="U132" s="36"/>
+    </row>
+    <row r="133" spans="1:22" ht="15" customHeight="1">
       <c r="A133" s="6" t="s">
         <v>149</v>
       </c>
@@ -8047,15 +8391,16 @@
       <c r="R133" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S133" s="22" t="s">
+      <c r="S133" s="22"/>
+      <c r="T133" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T133" s="27"/>
-      <c r="U133" t="s">
+      <c r="U133" s="36"/>
+      <c r="V133" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:22">
       <c r="A134" s="6" t="s">
         <v>150</v>
       </c>
@@ -8078,15 +8423,16 @@
       <c r="R134" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S134" s="22" t="s">
+      <c r="S134" s="22"/>
+      <c r="T134" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T134" s="27"/>
-      <c r="U134" t="s">
+      <c r="U134" s="36"/>
+      <c r="V134" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:22">
       <c r="A135" s="6" t="s">
         <v>151</v>
       </c>
@@ -8109,27 +8455,29 @@
       <c r="R135" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S135" s="22" t="s">
+      <c r="S135" s="22"/>
+      <c r="T135" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T135" s="27"/>
-      <c r="U135" t="s">
+      <c r="U135" s="36"/>
+      <c r="V135" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:22">
       <c r="Q136" s="16"/>
       <c r="R136" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S136" s="22" t="s">
+      <c r="S136" s="22"/>
+      <c r="T136" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U136" t="s">
+      <c r="V136" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:21" ht="15.75">
+    <row r="139" spans="1:22" ht="15.75">
       <c r="A139" s="3" t="s">
         <v>0</v>
       </c>
@@ -8185,7 +8533,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="140" spans="1:21" ht="15.75">
+    <row r="140" spans="1:22" ht="15.75">
       <c r="A140" s="6" t="s">
         <v>152</v>
       </c>
@@ -8205,15 +8553,16 @@
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
       <c r="Q140" s="8"/>
-      <c r="R140" s="26" t="s">
+      <c r="R140" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S140" s="22"/>
-      <c r="T140" s="28" t="s">
+      <c r="S140" s="47"/>
+      <c r="T140" s="22"/>
+      <c r="U140" s="42" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="141" spans="1:21" ht="15.75">
+    <row r="141" spans="1:22" ht="15.75">
       <c r="A141" s="6" t="s">
         <v>154</v>
       </c>
@@ -8233,11 +8582,12 @@
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
       <c r="Q141" s="8"/>
-      <c r="R141" s="26"/>
-      <c r="S141" s="22"/>
-      <c r="T141" s="29"/>
-    </row>
-    <row r="142" spans="1:21" ht="15.75">
+      <c r="R141" s="27"/>
+      <c r="S141" s="47"/>
+      <c r="T141" s="22"/>
+      <c r="U141" s="43"/>
+    </row>
+    <row r="142" spans="1:22" ht="15.75">
       <c r="A142" s="6" t="s">
         <v>155</v>
       </c>
@@ -8257,11 +8607,12 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
       <c r="Q142" s="8"/>
-      <c r="R142" s="26"/>
-      <c r="S142" s="22"/>
-      <c r="T142" s="29"/>
-    </row>
-    <row r="143" spans="1:21" ht="15.75">
+      <c r="R142" s="27"/>
+      <c r="S142" s="47"/>
+      <c r="T142" s="22"/>
+      <c r="U142" s="43"/>
+    </row>
+    <row r="143" spans="1:22" ht="15.75">
       <c r="A143" s="6" t="s">
         <v>156</v>
       </c>
@@ -8281,11 +8632,12 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
       <c r="Q143" s="8"/>
-      <c r="R143" s="26"/>
-      <c r="S143" s="22"/>
-      <c r="T143" s="29"/>
-    </row>
-    <row r="144" spans="1:21" ht="15.75">
+      <c r="R143" s="27"/>
+      <c r="S143" s="47"/>
+      <c r="T143" s="22"/>
+      <c r="U143" s="43"/>
+    </row>
+    <row r="144" spans="1:22" ht="15.75">
       <c r="A144" s="6" t="s">
         <v>157</v>
       </c>
@@ -8305,11 +8657,12 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
       <c r="Q144" s="8"/>
-      <c r="R144" s="26"/>
-      <c r="S144" s="22"/>
-      <c r="T144" s="29"/>
-    </row>
-    <row r="145" spans="1:22" ht="15.75">
+      <c r="R144" s="27"/>
+      <c r="S144" s="47"/>
+      <c r="T144" s="22"/>
+      <c r="U144" s="43"/>
+    </row>
+    <row r="145" spans="1:23" ht="15.75">
       <c r="A145" s="6" t="s">
         <v>158</v>
       </c>
@@ -8329,11 +8682,12 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
       <c r="Q145" s="8"/>
-      <c r="R145" s="26"/>
-      <c r="S145" s="22"/>
-      <c r="T145" s="29"/>
-    </row>
-    <row r="146" spans="1:22" ht="15.75">
+      <c r="R145" s="27"/>
+      <c r="S145" s="47"/>
+      <c r="T145" s="22"/>
+      <c r="U145" s="43"/>
+    </row>
+    <row r="146" spans="1:23" ht="15.75">
       <c r="A146" s="6" t="s">
         <v>159</v>
       </c>
@@ -8353,11 +8707,12 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
       <c r="Q146" s="8"/>
-      <c r="R146" s="26"/>
-      <c r="S146" s="22"/>
-      <c r="T146" s="29"/>
-    </row>
-    <row r="147" spans="1:22">
+      <c r="R146" s="27"/>
+      <c r="S146" s="47"/>
+      <c r="T146" s="22"/>
+      <c r="U146" s="43"/>
+    </row>
+    <row r="147" spans="1:23">
       <c r="A147" s="6" t="s">
         <v>160</v>
       </c>
@@ -8377,13 +8732,14 @@
       <c r="O147" s="17"/>
       <c r="P147" s="17"/>
       <c r="Q147" s="17"/>
-      <c r="R147" s="26"/>
-      <c r="S147" s="13" t="s">
+      <c r="R147" s="27"/>
+      <c r="S147" s="46"/>
+      <c r="T147" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="T147" s="29"/>
-    </row>
-    <row r="148" spans="1:22">
+      <c r="U147" s="43"/>
+    </row>
+    <row r="148" spans="1:23">
       <c r="A148" s="6" t="s">
         <v>161</v>
       </c>
@@ -8406,12 +8762,13 @@
       <c r="R148" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S148" s="22" t="s">
+      <c r="S148" s="22"/>
+      <c r="T148" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T148" s="29"/>
-    </row>
-    <row r="149" spans="1:22">
+      <c r="U148" s="43"/>
+    </row>
+    <row r="149" spans="1:23">
       <c r="A149" s="6" t="s">
         <v>162</v>
       </c>
@@ -8434,12 +8791,13 @@
       <c r="R149" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S149" s="22" t="s">
+      <c r="S149" s="22"/>
+      <c r="T149" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T149" s="29"/>
-    </row>
-    <row r="150" spans="1:22">
+      <c r="U149" s="43"/>
+    </row>
+    <row r="150" spans="1:23">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="6"/>
@@ -8458,9 +8816,10 @@
       <c r="P150" s="6"/>
       <c r="Q150" s="6"/>
       <c r="R150" s="6"/>
-      <c r="T150" s="29"/>
-    </row>
-    <row r="151" spans="1:22">
+      <c r="S150" s="18"/>
+      <c r="U150" s="43"/>
+    </row>
+    <row r="151" spans="1:23">
       <c r="A151" s="6" t="s">
         <v>163</v>
       </c>
@@ -8483,15 +8842,16 @@
       <c r="R151" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S151" s="22" t="s">
+      <c r="S151" s="22"/>
+      <c r="T151" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T151" s="29"/>
-      <c r="U151" t="s">
+      <c r="U151" s="43"/>
+      <c r="V151" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:22">
+    <row r="152" spans="1:23">
       <c r="A152" s="6" t="s">
         <v>164</v>
       </c>
@@ -8514,15 +8874,16 @@
       <c r="R152" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S152" s="22" t="s">
+      <c r="S152" s="22"/>
+      <c r="T152" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T152" s="29"/>
-      <c r="U152" t="s">
+      <c r="U152" s="43"/>
+      <c r="V152" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="153" spans="1:22">
+    <row r="153" spans="1:23">
       <c r="A153" s="6" t="s">
         <v>165</v>
       </c>
@@ -8545,15 +8906,16 @@
       <c r="R153" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S153" s="22" t="s">
+      <c r="S153" s="22"/>
+      <c r="T153" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T153" s="30"/>
-      <c r="U153" t="s">
+      <c r="U153" s="44"/>
+      <c r="V153" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="154" spans="1:22">
+    <row r="154" spans="1:23">
       <c r="A154" s="6" t="s">
         <v>166</v>
       </c>
@@ -8576,14 +8938,15 @@
       <c r="R154" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S154" s="22" t="s">
+      <c r="S154" s="22"/>
+      <c r="T154" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="U154" t="s">
+      <c r="V154" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="157" spans="1:22" ht="15.75">
+    <row r="157" spans="1:23" ht="15.75">
       <c r="A157" s="3" t="s">
         <v>0</v>
       </c>
@@ -8639,7 +9002,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="158" spans="1:22" ht="15.75" customHeight="1">
+    <row r="158" spans="1:23" ht="15.75" customHeight="1">
       <c r="A158" s="6" t="s">
         <v>175</v>
       </c>
@@ -8659,19 +9022,20 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
       <c r="Q158" s="8"/>
-      <c r="R158" s="26" t="s">
+      <c r="R158" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="S158" s="22"/>
-      <c r="T158" s="27" t="s">
+      <c r="S158" s="47"/>
+      <c r="T158" s="22"/>
+      <c r="U158" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="U158" s="37" t="s">
+      <c r="V158" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="V158" s="38"/>
-    </row>
-    <row r="159" spans="1:22" ht="15.75" customHeight="1">
+      <c r="W158" s="29"/>
+    </row>
+    <row r="159" spans="1:23" ht="15.75" customHeight="1">
       <c r="A159" s="6" t="s">
         <v>176</v>
       </c>
@@ -8691,11 +9055,12 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
       <c r="Q159" s="8"/>
-      <c r="R159" s="26"/>
-      <c r="S159" s="22"/>
-      <c r="T159" s="27"/>
-    </row>
-    <row r="160" spans="1:22" ht="15.75" customHeight="1">
+      <c r="R159" s="27"/>
+      <c r="S159" s="47"/>
+      <c r="T159" s="22"/>
+      <c r="U159" s="33"/>
+    </row>
+    <row r="160" spans="1:23" ht="15.75" customHeight="1">
       <c r="A160" s="6" t="s">
         <v>177</v>
       </c>
@@ -8715,11 +9080,12 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
       <c r="Q160" s="8"/>
-      <c r="R160" s="26"/>
-      <c r="S160" s="22"/>
-      <c r="T160" s="27"/>
-    </row>
-    <row r="161" spans="1:22" ht="15.75" customHeight="1">
+      <c r="R160" s="27"/>
+      <c r="S160" s="47"/>
+      <c r="T160" s="22"/>
+      <c r="U160" s="33"/>
+    </row>
+    <row r="161" spans="1:23" ht="15.75" customHeight="1">
       <c r="A161" s="6" t="s">
         <v>178</v>
       </c>
@@ -8739,11 +9105,12 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
       <c r="Q161" s="8"/>
-      <c r="R161" s="26"/>
-      <c r="S161" s="22"/>
-      <c r="T161" s="27"/>
-    </row>
-    <row r="162" spans="1:22" ht="15.75" customHeight="1">
+      <c r="R161" s="27"/>
+      <c r="S161" s="47"/>
+      <c r="T161" s="22"/>
+      <c r="U161" s="33"/>
+    </row>
+    <row r="162" spans="1:23" ht="15.75" customHeight="1">
       <c r="A162" s="6" t="s">
         <v>179</v>
       </c>
@@ -8763,11 +9130,12 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
       <c r="Q162" s="8"/>
-      <c r="R162" s="26"/>
-      <c r="S162" s="22"/>
-      <c r="T162" s="27"/>
-    </row>
-    <row r="163" spans="1:22" ht="15.75" customHeight="1">
+      <c r="R162" s="27"/>
+      <c r="S162" s="47"/>
+      <c r="T162" s="22"/>
+      <c r="U162" s="33"/>
+    </row>
+    <row r="163" spans="1:23" ht="15.75" customHeight="1">
       <c r="A163" s="6" t="s">
         <v>180</v>
       </c>
@@ -8787,11 +9155,12 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
       <c r="Q163" s="8"/>
-      <c r="R163" s="26"/>
-      <c r="S163" s="22"/>
-      <c r="T163" s="27"/>
-    </row>
-    <row r="164" spans="1:22" ht="15.75" customHeight="1">
+      <c r="R163" s="27"/>
+      <c r="S163" s="47"/>
+      <c r="T163" s="22"/>
+      <c r="U163" s="33"/>
+    </row>
+    <row r="164" spans="1:23" ht="15.75" customHeight="1">
       <c r="A164" s="6" t="s">
         <v>181</v>
       </c>
@@ -8811,11 +9180,12 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
       <c r="Q164" s="8"/>
-      <c r="R164" s="26"/>
-      <c r="S164" s="22"/>
-      <c r="T164" s="27"/>
-    </row>
-    <row r="165" spans="1:22" ht="15" customHeight="1">
+      <c r="R164" s="27"/>
+      <c r="S164" s="47"/>
+      <c r="T164" s="22"/>
+      <c r="U164" s="33"/>
+    </row>
+    <row r="165" spans="1:23" ht="15" customHeight="1">
       <c r="A165" s="6" t="s">
         <v>182</v>
       </c>
@@ -8835,13 +9205,14 @@
       <c r="O165" s="17"/>
       <c r="P165" s="17"/>
       <c r="Q165" s="17"/>
-      <c r="R165" s="26"/>
-      <c r="S165" s="23" t="s">
+      <c r="R165" s="27"/>
+      <c r="S165" s="48"/>
+      <c r="T165" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="T165" s="27"/>
-    </row>
-    <row r="166" spans="1:22" ht="15" customHeight="1">
+      <c r="U165" s="33"/>
+    </row>
+    <row r="166" spans="1:23" ht="15" customHeight="1">
       <c r="A166" s="6" t="s">
         <v>183</v>
       </c>
@@ -8864,13 +9235,14 @@
       <c r="R166" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S166" s="22" t="s">
+      <c r="S166" s="22"/>
+      <c r="T166" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T166" s="27"/>
-    </row>
-    <row r="167" spans="1:22" ht="15" customHeight="1">
-      <c r="A167" s="6" t="s">
+      <c r="U166" s="33"/>
+    </row>
+    <row r="167" spans="1:23" ht="15" customHeight="1">
+      <c r="A167" s="15" t="s">
         <v>184</v>
       </c>
       <c r="B167" s="14"/>
@@ -8892,12 +9264,13 @@
       <c r="R167" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S167" s="22" t="s">
+      <c r="S167" s="22"/>
+      <c r="T167" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="T167" s="27"/>
-    </row>
-    <row r="168" spans="1:22" ht="15" customHeight="1">
+      <c r="U167" s="33"/>
+    </row>
+    <row r="168" spans="1:23" ht="15" customHeight="1">
       <c r="A168" s="6" t="s">
         <v>208</v>
       </c>
@@ -8920,10 +9293,11 @@
       <c r="R168" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="S168" s="22"/>
-      <c r="T168" s="27"/>
-    </row>
-    <row r="169" spans="1:22" ht="15" customHeight="1">
+      <c r="S168" s="49"/>
+      <c r="T168" s="22"/>
+      <c r="U168" s="33"/>
+    </row>
+    <row r="169" spans="1:23" ht="15" customHeight="1">
       <c r="A169" s="6" t="s">
         <v>172</v>
       </c>
@@ -8946,15 +9320,16 @@
       <c r="R169" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S169" s="22" t="s">
+      <c r="S169" s="22"/>
+      <c r="T169" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T169" s="27"/>
-      <c r="U169" t="s">
+      <c r="U169" s="33"/>
+      <c r="V169" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:22" ht="15" customHeight="1">
+    <row r="170" spans="1:23" ht="15" customHeight="1">
       <c r="A170" s="6" t="s">
         <v>173</v>
       </c>
@@ -8977,16 +9352,17 @@
       <c r="R170" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S170" s="22" t="s">
+      <c r="S170" s="22"/>
+      <c r="T170" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T170" s="27"/>
-      <c r="U170" t="s">
+      <c r="U170" s="33"/>
+      <c r="V170" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:22" ht="15" customHeight="1">
-      <c r="A171" s="6" t="s">
+    <row r="171" spans="1:23" ht="15" customHeight="1">
+      <c r="A171" s="15" t="s">
         <v>174</v>
       </c>
       <c r="B171" s="6"/>
@@ -9008,28 +9384,63 @@
       <c r="R171" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S171" s="22" t="s">
+      <c r="S171" s="22"/>
+      <c r="T171" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T171" s="27"/>
-      <c r="U171" t="s">
+      <c r="U171" s="33"/>
+      <c r="V171" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="172" spans="1:22">
+    <row r="172" spans="1:23" ht="15" customHeight="1">
       <c r="Q172" s="16"/>
       <c r="R172" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S172" s="22" t="s">
+      <c r="S172" s="22"/>
+      <c r="T172" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T172" s="27"/>
-      <c r="U172" t="s">
+      <c r="U172" s="33"/>
+      <c r="V172" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="175" spans="1:22" ht="15.75">
+    <row r="173" spans="1:23" ht="15" customHeight="1">
+      <c r="A173" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="B173" s="25"/>
+      <c r="C173" s="25"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="25"/>
+      <c r="K173" s="25"/>
+      <c r="L173" s="25"/>
+      <c r="M173" s="25"/>
+      <c r="N173" s="25"/>
+      <c r="O173" s="25"/>
+      <c r="P173" s="25"/>
+      <c r="Q173" s="16"/>
+      <c r="R173" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S173" s="22"/>
+      <c r="T173" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="U173" s="33"/>
+      <c r="V173" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="W173" s="35"/>
+    </row>
+    <row r="175" spans="1:23" ht="15.75">
       <c r="A175" s="3" t="s">
         <v>0</v>
       </c>
@@ -9085,7 +9496,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="176" spans="1:22" ht="15.75">
+    <row r="176" spans="1:23" ht="15.75" customHeight="1">
       <c r="A176" s="6" t="s">
         <v>185</v>
       </c>
@@ -9105,19 +9516,22 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
       <c r="Q176" s="8"/>
-      <c r="R176" s="26" t="s">
+      <c r="R176" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="S176" s="22"/>
-      <c r="T176" s="27" t="s">
+      <c r="S176" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="T176" s="22"/>
+      <c r="U176" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="U176" s="37" t="s">
+      <c r="V176" s="28" t="s">
         <v>170</v>
       </c>
-      <c r="V176" s="38"/>
-    </row>
-    <row r="177" spans="1:20" ht="15.75">
+      <c r="W176" s="29"/>
+    </row>
+    <row r="177" spans="1:21" ht="15.75" customHeight="1">
       <c r="A177" s="6" t="s">
         <v>186</v>
       </c>
@@ -9137,11 +9551,12 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
       <c r="Q177" s="8"/>
-      <c r="R177" s="26"/>
-      <c r="S177" s="22"/>
-      <c r="T177" s="27"/>
-    </row>
-    <row r="178" spans="1:20" ht="15.75">
+      <c r="R177" s="31"/>
+      <c r="S177" s="31"/>
+      <c r="T177" s="22"/>
+      <c r="U177" s="36"/>
+    </row>
+    <row r="178" spans="1:21" ht="15.75" customHeight="1">
       <c r="A178" s="6" t="s">
         <v>187</v>
       </c>
@@ -9161,11 +9576,12 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
       <c r="Q178" s="8"/>
-      <c r="R178" s="26"/>
-      <c r="S178" s="22"/>
-      <c r="T178" s="27"/>
-    </row>
-    <row r="179" spans="1:20" ht="15.75">
+      <c r="R178" s="31"/>
+      <c r="S178" s="31"/>
+      <c r="T178" s="22"/>
+      <c r="U178" s="36"/>
+    </row>
+    <row r="179" spans="1:21" ht="15.75" customHeight="1">
       <c r="A179" s="6" t="s">
         <v>188</v>
       </c>
@@ -9185,11 +9601,12 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
       <c r="Q179" s="8"/>
-      <c r="R179" s="26"/>
-      <c r="S179" s="22"/>
-      <c r="T179" s="27"/>
-    </row>
-    <row r="180" spans="1:20" ht="15.75">
+      <c r="R179" s="31"/>
+      <c r="S179" s="31"/>
+      <c r="T179" s="22"/>
+      <c r="U179" s="36"/>
+    </row>
+    <row r="180" spans="1:21" ht="15.75" customHeight="1">
       <c r="A180" s="6" t="s">
         <v>189</v>
       </c>
@@ -9209,11 +9626,12 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
       <c r="Q180" s="8"/>
-      <c r="R180" s="26"/>
-      <c r="S180" s="22"/>
-      <c r="T180" s="27"/>
-    </row>
-    <row r="181" spans="1:20" ht="15.75">
+      <c r="R180" s="31"/>
+      <c r="S180" s="31"/>
+      <c r="T180" s="22"/>
+      <c r="U180" s="36"/>
+    </row>
+    <row r="181" spans="1:21" ht="15.75" customHeight="1">
       <c r="A181" s="6" t="s">
         <v>190</v>
       </c>
@@ -9233,11 +9651,12 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
       <c r="Q181" s="8"/>
-      <c r="R181" s="26"/>
-      <c r="S181" s="22"/>
-      <c r="T181" s="27"/>
-    </row>
-    <row r="182" spans="1:20" ht="15.75">
+      <c r="R181" s="31"/>
+      <c r="S181" s="31"/>
+      <c r="T181" s="22"/>
+      <c r="U181" s="36"/>
+    </row>
+    <row r="182" spans="1:21" ht="15.75" customHeight="1">
       <c r="A182" s="6" t="s">
         <v>191</v>
       </c>
@@ -9257,37 +9676,39 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
       <c r="Q182" s="8"/>
-      <c r="R182" s="26"/>
-      <c r="S182" s="22"/>
-      <c r="T182" s="27"/>
-    </row>
-    <row r="183" spans="1:20">
+      <c r="R182" s="31"/>
+      <c r="S182" s="31"/>
+      <c r="T182" s="22"/>
+      <c r="U182" s="36"/>
+    </row>
+    <row r="183" spans="1:21" ht="15" customHeight="1">
       <c r="A183" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="17"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="17"/>
-      <c r="K183" s="17"/>
-      <c r="L183" s="17"/>
-      <c r="M183" s="17"/>
-      <c r="N183" s="17"/>
-      <c r="O183" s="17"/>
-      <c r="P183" s="17"/>
-      <c r="Q183" s="17"/>
-      <c r="R183" s="26"/>
-      <c r="S183" s="23" t="s">
+      <c r="B183" s="59"/>
+      <c r="C183" s="59"/>
+      <c r="D183" s="59"/>
+      <c r="E183" s="59"/>
+      <c r="F183" s="59"/>
+      <c r="G183" s="59"/>
+      <c r="H183" s="59"/>
+      <c r="I183" s="59"/>
+      <c r="J183" s="59"/>
+      <c r="K183" s="59"/>
+      <c r="L183" s="59"/>
+      <c r="M183" s="59"/>
+      <c r="N183" s="59"/>
+      <c r="O183" s="59"/>
+      <c r="P183" s="59"/>
+      <c r="Q183" s="59"/>
+      <c r="R183" s="61"/>
+      <c r="S183" s="31"/>
+      <c r="T183" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="T183" s="27"/>
-    </row>
-    <row r="184" spans="1:20">
+      <c r="U183" s="36"/>
+    </row>
+    <row r="184" spans="1:21" ht="15" customHeight="1">
       <c r="A184" s="6" t="s">
         <v>193</v>
       </c>
@@ -9307,13 +9728,14 @@
       <c r="O184" s="12"/>
       <c r="P184" s="12"/>
       <c r="Q184" s="12"/>
-      <c r="R184" s="39" t="s">
+      <c r="R184" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="S184" s="23"/>
-      <c r="T184" s="27"/>
-    </row>
-    <row r="185" spans="1:20">
+      <c r="S184" s="31"/>
+      <c r="T184" s="23"/>
+      <c r="U184" s="36"/>
+    </row>
+    <row r="185" spans="1:21" ht="15" customHeight="1">
       <c r="A185" s="6" t="s">
         <v>194</v>
       </c>
@@ -9333,11 +9755,12 @@
       <c r="O185" s="12"/>
       <c r="P185" s="12"/>
       <c r="Q185" s="12"/>
-      <c r="R185" s="40"/>
-      <c r="S185" s="23"/>
-      <c r="T185" s="27"/>
-    </row>
-    <row r="186" spans="1:20">
+      <c r="R185" s="31"/>
+      <c r="S185" s="31"/>
+      <c r="T185" s="23"/>
+      <c r="U185" s="36"/>
+    </row>
+    <row r="186" spans="1:21" ht="15" customHeight="1">
       <c r="A186" s="6" t="s">
         <v>195</v>
       </c>
@@ -9357,11 +9780,12 @@
       <c r="O186" s="12"/>
       <c r="P186" s="12"/>
       <c r="Q186" s="12"/>
-      <c r="R186" s="40"/>
-      <c r="S186" s="23"/>
-      <c r="T186" s="27"/>
-    </row>
-    <row r="187" spans="1:20">
+      <c r="R186" s="31"/>
+      <c r="S186" s="31"/>
+      <c r="T186" s="23"/>
+      <c r="U186" s="36"/>
+    </row>
+    <row r="187" spans="1:21" ht="15" customHeight="1">
       <c r="A187" s="6" t="s">
         <v>196</v>
       </c>
@@ -9381,11 +9805,12 @@
       <c r="O187" s="12"/>
       <c r="P187" s="12"/>
       <c r="Q187" s="12"/>
-      <c r="R187" s="40"/>
-      <c r="S187" s="23"/>
-      <c r="T187" s="27"/>
-    </row>
-    <row r="188" spans="1:20">
+      <c r="R187" s="31"/>
+      <c r="S187" s="31"/>
+      <c r="T187" s="23"/>
+      <c r="U187" s="36"/>
+    </row>
+    <row r="188" spans="1:21" ht="15" customHeight="1">
       <c r="A188" s="6" t="s">
         <v>197</v>
       </c>
@@ -9405,11 +9830,12 @@
       <c r="O188" s="12"/>
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
-      <c r="R188" s="40"/>
-      <c r="S188" s="23"/>
-      <c r="T188" s="27"/>
-    </row>
-    <row r="189" spans="1:20">
+      <c r="R188" s="31"/>
+      <c r="S188" s="31"/>
+      <c r="T188" s="23"/>
+      <c r="U188" s="36"/>
+    </row>
+    <row r="189" spans="1:21" ht="15" customHeight="1">
       <c r="A189" s="6" t="s">
         <v>198</v>
       </c>
@@ -9429,11 +9855,12 @@
       <c r="O189" s="12"/>
       <c r="P189" s="12"/>
       <c r="Q189" s="12"/>
-      <c r="R189" s="40"/>
-      <c r="S189" s="23"/>
-      <c r="T189" s="27"/>
-    </row>
-    <row r="190" spans="1:20">
+      <c r="R189" s="31"/>
+      <c r="S189" s="31"/>
+      <c r="T189" s="23"/>
+      <c r="U189" s="36"/>
+    </row>
+    <row r="190" spans="1:21" ht="15" customHeight="1">
       <c r="A190" s="6" t="s">
         <v>199</v>
       </c>
@@ -9453,11 +9880,12 @@
       <c r="O190" s="12"/>
       <c r="P190" s="12"/>
       <c r="Q190" s="12"/>
-      <c r="R190" s="40"/>
-      <c r="S190" s="23"/>
-      <c r="T190" s="27"/>
-    </row>
-    <row r="191" spans="1:20">
+      <c r="R190" s="31"/>
+      <c r="S190" s="31"/>
+      <c r="T190" s="23"/>
+      <c r="U190" s="36"/>
+    </row>
+    <row r="191" spans="1:21" ht="15" customHeight="1">
       <c r="A191" s="6" t="s">
         <v>200</v>
       </c>
@@ -9477,11 +9905,12 @@
       <c r="O191" s="12"/>
       <c r="P191" s="12"/>
       <c r="Q191" s="12"/>
-      <c r="R191" s="41"/>
-      <c r="S191" s="23"/>
-      <c r="T191" s="27"/>
-    </row>
-    <row r="192" spans="1:20">
+      <c r="R191" s="32"/>
+      <c r="S191" s="32"/>
+      <c r="T191" s="23"/>
+      <c r="U191" s="36"/>
+    </row>
+    <row r="192" spans="1:21" ht="15" customHeight="1">
       <c r="A192" s="6" t="s">
         <v>201</v>
       </c>
@@ -9504,13 +9933,14 @@
       <c r="R192" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S192" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T192" s="27"/>
-    </row>
-    <row r="193" spans="1:21">
-      <c r="A193" s="6" t="s">
+      <c r="S192" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="T192" s="55"/>
+      <c r="U192" s="36"/>
+    </row>
+    <row r="193" spans="1:22" ht="15" customHeight="1">
+      <c r="A193" s="15" t="s">
         <v>202</v>
       </c>
       <c r="B193" s="14"/>
@@ -9532,12 +9962,11 @@
       <c r="R193" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="S193" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T193" s="27"/>
-    </row>
-    <row r="194" spans="1:21">
+      <c r="S193" s="57"/>
+      <c r="T193" s="55"/>
+      <c r="U193" s="36"/>
+    </row>
+    <row r="194" spans="1:22" ht="15" customHeight="1">
       <c r="A194" s="6" t="s">
         <v>206</v>
       </c>
@@ -9560,12 +9989,13 @@
       <c r="R194" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="S194" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="T194" s="27"/>
-    </row>
-    <row r="195" spans="1:21">
+      <c r="S194" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="T194" s="55"/>
+      <c r="U194" s="36"/>
+    </row>
+    <row r="195" spans="1:22" ht="15" customHeight="1">
       <c r="A195" s="6" t="s">
         <v>209</v>
       </c>
@@ -9588,142 +10018,521 @@
       <c r="R195" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="S195" s="22"/>
-      <c r="T195" s="27"/>
-    </row>
-    <row r="196" spans="1:21">
+      <c r="S195" s="52"/>
+      <c r="T195" s="22"/>
+      <c r="U195" s="36"/>
+    </row>
+    <row r="196" spans="1:22" ht="15" customHeight="1">
       <c r="A196" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B196" s="12"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="12"/>
+      <c r="F196" s="12"/>
+      <c r="G196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="I196" s="12"/>
+      <c r="J196" s="12"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="12"/>
+      <c r="N196" s="12"/>
+      <c r="O196" s="12"/>
+      <c r="P196" s="12"/>
+      <c r="Q196" s="12"/>
+      <c r="R196" s="24"/>
+      <c r="S196" s="53"/>
+      <c r="T196" s="22"/>
+      <c r="U196" s="36"/>
+    </row>
+    <row r="197" spans="1:22" ht="15" customHeight="1">
+      <c r="A197" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="B197" s="50"/>
+      <c r="C197" s="50"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="50"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="50"/>
+      <c r="H197" s="50"/>
+      <c r="I197" s="50"/>
+      <c r="J197" s="50"/>
+      <c r="K197" s="50"/>
+      <c r="L197" s="50"/>
+      <c r="M197" s="50"/>
+      <c r="N197" s="50"/>
+      <c r="O197" s="50"/>
+      <c r="P197" s="50"/>
+      <c r="Q197" s="50"/>
+      <c r="R197" s="65" t="s">
+        <v>228</v>
+      </c>
+      <c r="S197" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="T197" s="22"/>
+      <c r="U197" s="36"/>
+    </row>
+    <row r="198" spans="1:22" ht="15" customHeight="1">
+      <c r="A198" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B198" s="50"/>
+      <c r="C198" s="50"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="50"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="50"/>
+      <c r="I198" s="50"/>
+      <c r="J198" s="50"/>
+      <c r="K198" s="50"/>
+      <c r="L198" s="50"/>
+      <c r="M198" s="50"/>
+      <c r="N198" s="50"/>
+      <c r="O198" s="50"/>
+      <c r="P198" s="50"/>
+      <c r="Q198" s="50"/>
+      <c r="R198" s="65" t="s">
+        <v>229</v>
+      </c>
+      <c r="S198" s="52"/>
+      <c r="T198" s="22"/>
+      <c r="U198" s="36"/>
+    </row>
+    <row r="199" spans="1:22" ht="15" customHeight="1">
+      <c r="A199" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B199" s="50"/>
+      <c r="C199" s="50"/>
+      <c r="D199" s="50"/>
+      <c r="E199" s="50"/>
+      <c r="F199" s="50"/>
+      <c r="G199" s="50"/>
+      <c r="H199" s="50"/>
+      <c r="I199" s="50"/>
+      <c r="J199" s="50"/>
+      <c r="K199" s="50"/>
+      <c r="L199" s="50"/>
+      <c r="M199" s="50"/>
+      <c r="N199" s="50"/>
+      <c r="O199" s="50"/>
+      <c r="P199" s="50"/>
+      <c r="Q199" s="50"/>
+      <c r="R199" s="65" t="s">
+        <v>232</v>
+      </c>
+      <c r="S199" s="52"/>
+      <c r="T199" s="22"/>
+      <c r="U199" s="36"/>
+    </row>
+    <row r="200" spans="1:22" ht="15" customHeight="1">
+      <c r="A200" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="B200" s="50"/>
+      <c r="C200" s="50"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="50"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="50"/>
+      <c r="I200" s="50"/>
+      <c r="J200" s="50"/>
+      <c r="K200" s="50"/>
+      <c r="L200" s="50"/>
+      <c r="M200" s="50"/>
+      <c r="N200" s="50"/>
+      <c r="O200" s="50"/>
+      <c r="P200" s="50"/>
+      <c r="Q200" s="50"/>
+      <c r="R200" s="24"/>
+      <c r="S200" s="52"/>
+      <c r="T200" s="22"/>
+      <c r="U200" s="36"/>
+    </row>
+    <row r="201" spans="1:22" ht="15" customHeight="1">
+      <c r="A201" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="B201" s="50"/>
+      <c r="C201" s="50"/>
+      <c r="D201" s="50"/>
+      <c r="E201" s="50"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="50"/>
+      <c r="I201" s="50"/>
+      <c r="J201" s="50"/>
+      <c r="K201" s="50"/>
+      <c r="L201" s="50"/>
+      <c r="M201" s="50"/>
+      <c r="N201" s="50"/>
+      <c r="O201" s="50"/>
+      <c r="P201" s="50"/>
+      <c r="Q201" s="50"/>
+      <c r="R201" s="24"/>
+      <c r="S201" s="52"/>
+      <c r="T201" s="22"/>
+      <c r="U201" s="36"/>
+    </row>
+    <row r="202" spans="1:22" ht="15" customHeight="1">
+      <c r="A202" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B202" s="50"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="50"/>
+      <c r="I202" s="50"/>
+      <c r="J202" s="50"/>
+      <c r="K202" s="50"/>
+      <c r="L202" s="50"/>
+      <c r="M202" s="50"/>
+      <c r="N202" s="50"/>
+      <c r="O202" s="50"/>
+      <c r="P202" s="50"/>
+      <c r="Q202" s="50"/>
+      <c r="R202" s="24"/>
+      <c r="S202" s="52"/>
+      <c r="T202" s="22"/>
+      <c r="U202" s="36"/>
+    </row>
+    <row r="203" spans="1:22" ht="15" customHeight="1">
+      <c r="A203" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B203" s="50"/>
+      <c r="C203" s="50"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="50"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="50"/>
+      <c r="H203" s="50"/>
+      <c r="I203" s="50"/>
+      <c r="J203" s="50"/>
+      <c r="K203" s="50"/>
+      <c r="L203" s="50"/>
+      <c r="M203" s="50"/>
+      <c r="N203" s="50"/>
+      <c r="O203" s="50"/>
+      <c r="P203" s="50"/>
+      <c r="Q203" s="50"/>
+      <c r="R203" s="24"/>
+      <c r="S203" s="52"/>
+      <c r="T203" s="22"/>
+      <c r="U203" s="36"/>
+    </row>
+    <row r="204" spans="1:22" ht="15" customHeight="1">
+      <c r="A204" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="B204" s="50"/>
+      <c r="C204" s="50"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="50"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="50"/>
+      <c r="I204" s="50"/>
+      <c r="J204" s="50"/>
+      <c r="K204" s="50"/>
+      <c r="L204" s="50"/>
+      <c r="M204" s="50"/>
+      <c r="N204" s="50"/>
+      <c r="O204" s="50"/>
+      <c r="P204" s="50"/>
+      <c r="Q204" s="50"/>
+      <c r="R204" s="24"/>
+      <c r="S204" s="52"/>
+      <c r="T204" s="22"/>
+      <c r="U204" s="36"/>
+    </row>
+    <row r="205" spans="1:22" ht="15" customHeight="1">
+      <c r="A205" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B205" s="50"/>
+      <c r="C205" s="50"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="50"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="50"/>
+      <c r="I205" s="50"/>
+      <c r="J205" s="50"/>
+      <c r="K205" s="50"/>
+      <c r="L205" s="50"/>
+      <c r="M205" s="50"/>
+      <c r="N205" s="50"/>
+      <c r="O205" s="50"/>
+      <c r="P205" s="50"/>
+      <c r="Q205" s="50"/>
+      <c r="R205" s="24"/>
+      <c r="S205" s="52"/>
+      <c r="T205" s="22"/>
+      <c r="U205" s="36"/>
+    </row>
+    <row r="206" spans="1:22" ht="15" customHeight="1">
+      <c r="A206" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B206" s="50"/>
+      <c r="C206" s="50"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="50"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
+      <c r="H206" s="50"/>
+      <c r="I206" s="50"/>
+      <c r="J206" s="50"/>
+      <c r="K206" s="50"/>
+      <c r="L206" s="50"/>
+      <c r="M206" s="50"/>
+      <c r="N206" s="50"/>
+      <c r="O206" s="50"/>
+      <c r="P206" s="50"/>
+      <c r="Q206" s="50"/>
+      <c r="R206" s="24"/>
+      <c r="S206" s="53"/>
+      <c r="T206" s="22"/>
+      <c r="U206" s="36"/>
+    </row>
+    <row r="207" spans="1:22" ht="15" customHeight="1">
+      <c r="A207" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B196" s="6"/>
-      <c r="C196" s="6"/>
-      <c r="D196" s="6"/>
-      <c r="E196" s="6"/>
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="6"/>
-      <c r="K196" s="6"/>
-      <c r="L196" s="6"/>
-      <c r="M196" s="6"/>
-      <c r="N196" s="6"/>
-      <c r="O196" s="6"/>
-      <c r="P196" s="6"/>
-      <c r="Q196" s="16"/>
-      <c r="R196" s="6" t="s">
+      <c r="B207" s="6"/>
+      <c r="C207" s="6"/>
+      <c r="D207" s="6"/>
+      <c r="E207" s="6"/>
+      <c r="F207" s="6"/>
+      <c r="G207" s="6"/>
+      <c r="H207" s="6"/>
+      <c r="I207" s="6"/>
+      <c r="J207" s="6"/>
+      <c r="K207" s="6"/>
+      <c r="L207" s="6"/>
+      <c r="M207" s="6"/>
+      <c r="N207" s="6"/>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6"/>
+      <c r="Q207" s="60"/>
+      <c r="R207" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S196" s="22" t="s">
+      <c r="S207" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="T207" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T196" s="27"/>
-      <c r="U196" t="s">
+      <c r="U207" s="36"/>
+      <c r="V207" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
-      <c r="A197" s="6" t="s">
+    <row r="208" spans="1:22" ht="15" customHeight="1">
+      <c r="A208" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B197" s="6"/>
-      <c r="C197" s="6"/>
-      <c r="D197" s="6"/>
-      <c r="E197" s="6"/>
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="6"/>
-      <c r="K197" s="6"/>
-      <c r="L197" s="6"/>
-      <c r="M197" s="6"/>
-      <c r="N197" s="6"/>
-      <c r="O197" s="6"/>
-      <c r="P197" s="6"/>
-      <c r="Q197" s="16"/>
-      <c r="R197" s="6" t="s">
+      <c r="B208" s="6"/>
+      <c r="C208" s="6"/>
+      <c r="D208" s="6"/>
+      <c r="E208" s="6"/>
+      <c r="F208" s="6"/>
+      <c r="G208" s="6"/>
+      <c r="H208" s="6"/>
+      <c r="I208" s="6"/>
+      <c r="J208" s="6"/>
+      <c r="K208" s="6"/>
+      <c r="L208" s="6"/>
+      <c r="M208" s="6"/>
+      <c r="N208" s="6"/>
+      <c r="O208" s="6"/>
+      <c r="P208" s="6"/>
+      <c r="Q208" s="60"/>
+      <c r="R208" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S197" s="22" t="s">
+      <c r="S208" s="58"/>
+      <c r="T208" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T197" s="27"/>
-      <c r="U197" t="s">
+      <c r="U208" s="36"/>
+      <c r="V208" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
-      <c r="A198" s="6" t="s">
+    <row r="209" spans="1:23" ht="15" customHeight="1">
+      <c r="A209" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B198" s="6"/>
-      <c r="C198" s="6"/>
-      <c r="D198" s="6"/>
-      <c r="E198" s="6"/>
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="6"/>
-      <c r="K198" s="6"/>
-      <c r="L198" s="6"/>
-      <c r="M198" s="6"/>
-      <c r="N198" s="6"/>
-      <c r="O198" s="6"/>
-      <c r="P198" s="6"/>
-      <c r="Q198" s="16"/>
-      <c r="R198" s="6" t="s">
+      <c r="B209" s="6"/>
+      <c r="C209" s="6"/>
+      <c r="D209" s="6"/>
+      <c r="E209" s="6"/>
+      <c r="F209" s="6"/>
+      <c r="G209" s="6"/>
+      <c r="H209" s="6"/>
+      <c r="I209" s="6"/>
+      <c r="J209" s="6"/>
+      <c r="K209" s="6"/>
+      <c r="L209" s="6"/>
+      <c r="M209" s="6"/>
+      <c r="N209" s="6"/>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6"/>
+      <c r="Q209" s="60"/>
+      <c r="R209" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S198" s="22" t="s">
+      <c r="S209" s="58"/>
+      <c r="T209" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T198" s="27"/>
-      <c r="U198" t="s">
+      <c r="U209" s="36"/>
+      <c r="V209" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
-      <c r="Q199" s="16"/>
-      <c r="R199" s="6" t="s">
+    <row r="210" spans="1:23" ht="15" customHeight="1">
+      <c r="A210" s="15"/>
+      <c r="B210" s="6"/>
+      <c r="C210" s="6"/>
+      <c r="D210" s="6"/>
+      <c r="E210" s="6"/>
+      <c r="F210" s="6"/>
+      <c r="G210" s="6"/>
+      <c r="H210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="6"/>
+      <c r="L210" s="6"/>
+      <c r="M210" s="6"/>
+      <c r="N210" s="6"/>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6"/>
+      <c r="Q210" s="60"/>
+      <c r="R210" s="6"/>
+      <c r="S210" s="57"/>
+      <c r="T210" s="22"/>
+      <c r="U210" s="36"/>
+      <c r="V210" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="15" customHeight="1">
+      <c r="A211" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" s="6"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="6"/>
+      <c r="E211" s="6"/>
+      <c r="F211" s="6"/>
+      <c r="G211" s="6"/>
+      <c r="H211" s="6"/>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="6"/>
+      <c r="L211" s="6"/>
+      <c r="M211" s="6"/>
+      <c r="N211" s="6"/>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6"/>
+      <c r="Q211" s="6"/>
+      <c r="R211" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S199" s="22" t="s">
+      <c r="S211" s="56" t="s">
+        <v>226</v>
+      </c>
+      <c r="T211" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T199" s="27"/>
-      <c r="U199" t="s">
-        <v>34</v>
-      </c>
+      <c r="U211" s="36"/>
+      <c r="V211" s="62" t="s">
+        <v>214</v>
+      </c>
+      <c r="W211" s="35"/>
+    </row>
+    <row r="212" spans="1:23">
+      <c r="A212" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" s="6"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
+      <c r="E212" s="6"/>
+      <c r="F212" s="6"/>
+      <c r="G212" s="6"/>
+      <c r="H212" s="6"/>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="6"/>
+      <c r="L212" s="6"/>
+      <c r="M212" s="6"/>
+      <c r="N212" s="6"/>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6"/>
+      <c r="Q212" s="6"/>
+      <c r="R212" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S212" s="57"/>
+      <c r="T212" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="U212" s="36"/>
+      <c r="V212" s="63" t="s">
+        <v>231</v>
+      </c>
+      <c r="W212" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="R158:R165"/>
-    <mergeCell ref="U158:V158"/>
-    <mergeCell ref="T158:T172"/>
-    <mergeCell ref="R176:R183"/>
-    <mergeCell ref="T176:T199"/>
-    <mergeCell ref="U176:V176"/>
-    <mergeCell ref="R184:R191"/>
-    <mergeCell ref="R4:R11"/>
-    <mergeCell ref="T11:T17"/>
-    <mergeCell ref="R21:R28"/>
-    <mergeCell ref="T21:T34"/>
-    <mergeCell ref="R38:R45"/>
-    <mergeCell ref="T38:T51"/>
-    <mergeCell ref="T54:T68"/>
+  <mergeCells count="34">
+    <mergeCell ref="S176:S191"/>
+    <mergeCell ref="U176:U212"/>
+    <mergeCell ref="S211:S212"/>
+    <mergeCell ref="V212:W212"/>
+    <mergeCell ref="R106:R113"/>
+    <mergeCell ref="U106:U119"/>
+    <mergeCell ref="R123:R130"/>
+    <mergeCell ref="U123:U135"/>
+    <mergeCell ref="R140:R147"/>
+    <mergeCell ref="U140:U153"/>
+    <mergeCell ref="U54:U68"/>
     <mergeCell ref="R55:R62"/>
     <mergeCell ref="R72:R79"/>
-    <mergeCell ref="T72:T85"/>
+    <mergeCell ref="U72:U85"/>
     <mergeCell ref="R89:R96"/>
-    <mergeCell ref="T89:T102"/>
-    <mergeCell ref="R106:R113"/>
-    <mergeCell ref="T106:T119"/>
-    <mergeCell ref="R123:R130"/>
-    <mergeCell ref="T123:T135"/>
-    <mergeCell ref="R140:R147"/>
-    <mergeCell ref="T140:T153"/>
+    <mergeCell ref="U89:U102"/>
+    <mergeCell ref="R4:R11"/>
+    <mergeCell ref="U11:U17"/>
+    <mergeCell ref="R21:R28"/>
+    <mergeCell ref="U21:U34"/>
+    <mergeCell ref="R38:R45"/>
+    <mergeCell ref="U38:U51"/>
+    <mergeCell ref="R158:R165"/>
+    <mergeCell ref="V158:W158"/>
+    <mergeCell ref="V176:W176"/>
+    <mergeCell ref="R184:R191"/>
+    <mergeCell ref="U158:U173"/>
+    <mergeCell ref="V173:W173"/>
+    <mergeCell ref="V211:W211"/>
+    <mergeCell ref="S197:S206"/>
+    <mergeCell ref="S194:S196"/>
+    <mergeCell ref="S192:S193"/>
+    <mergeCell ref="S207:S210"/>
+    <mergeCell ref="R176:R182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
